--- a/Tableau métriques/moyenne/2022_2023/Stats Bomb/moyenne_metriques.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Stats Bomb/moyenne_metriques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,8 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ratio Moyennes</t>
+          <t>Diff Moyennes
+(données normalisées)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -483,409 +484,409 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_conceded_pg</t>
+          <t>team_season_sp_goal_ratio</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.159389677296749</v>
+        <v>0.007902186292780508</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06843356554041315</v>
+        <v>0.004327023204862233</v>
       </c>
       <c r="D2" t="n">
-        <v>2.329115486502338</v>
+        <v>1.806620294159536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.143257270016234</v>
+        <v>0.001556970925654796</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1049462524267176</v>
+        <v>0.001215800798615379</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3562100908081782</v>
+        <v>0.0056140350877193</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2185716114104971</v>
+        <v>0.00187617260787992</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02011645464478312</v>
+        <v>0.00946185688941455</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09901437817865776</v>
+        <v>0.00681959082455053</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio</t>
+          <t>team_season_sp_goals_pg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006595263050895256</v>
+        <v>0.328022759601707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003091218263777736</v>
+        <v>0.1774300616405879</v>
       </c>
       <c r="D3" t="n">
-        <v>2.133548163899393</v>
+        <v>1.756379951770632</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002061188339084801</v>
+        <v>0.07787060609785712</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001913218124035266</v>
+        <v>0.05191328885319213</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003690036900369004</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.0789473684210526</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008639308855291577</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007952286282306162</v>
+        <v>0.289473684210526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_shot_pg</t>
+          <t>team_season_gd_pg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1472369750784141</v>
+        <v>0.5034139402560455</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06902768440048253</v>
+        <v>-0.1669511616880038</v>
       </c>
       <c r="D4" t="n">
-        <v>2.133013389586988</v>
+        <v>1.691969000295567</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07378739843614505</v>
+        <v>0.269920695539524</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07099552154257181</v>
+        <v>0.2882106561275643</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2295870029024388</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1756496337821355</v>
+        <v>-0.8421052631578947</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03751293791306985</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05729923711011285</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>team_season_own_goals_pg</t>
+          <t>team_season_obv_conceded_pg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02105263157894737</v>
+        <v>1.12679423074348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04395448079658605</v>
+        <v>1.620330657796283</v>
       </c>
       <c r="D5" t="n">
-        <v>2.087837837837837</v>
+        <v>1.691671500187853</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02201736911931778</v>
+        <v>0.1924872046701807</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01909624108723251</v>
+        <v>0.2139221221918313</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.8820864320977738</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02631578947368421</v>
+        <v>1.260013060056065</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05263157894736842</v>
+        <v>1.335630289818111</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07894736842105263</v>
+        <v>2.04838013727414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_free_kicks_pg</t>
+          <t>team_season_gd</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09516358463726884</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04570886676149833</v>
+        <v>-6.333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>2.08195020746888</v>
+        <v>1.688888888888889</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02973789592936544</v>
+        <v>10.1734949746879</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02720753136971391</v>
+        <v>10.95227743222299</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05263157894736842</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="I6" t="n">
-        <v>0.131578947368421</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1052631578947368</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_pg</t>
+          <t>team_season_np_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04793741109530583</v>
+        <v>0.7860892026694452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02456140350877193</v>
+        <v>1.097576029749208</v>
       </c>
       <c r="D7" t="n">
-        <v>1.951737451737452</v>
+        <v>1.655501449553147</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04795872237981098</v>
+        <v>0.1136580732756134</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03217892859396883</v>
+        <v>0.1445472941811393</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.608583541685029</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.8315190555233705</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.9056472150902999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1052631578947368</v>
+        <v>1.42563103374682</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goals_pg</t>
+          <t>team_season_xgd_pg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.328022759601707</v>
+        <v>0.3923121124166852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1774300616405879</v>
+        <v>-0.1304232539922607</v>
       </c>
       <c r="D8" t="n">
-        <v>1.848743987172636</v>
+        <v>1.638783854142179</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07787060609785712</v>
+        <v>0.2083172751502826</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05191328885319213</v>
+        <v>0.244460638116575</v>
       </c>
       <c r="G8" t="n">
-        <v>0.210526315789474</v>
+        <v>0.06673234936438109</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0789473684210526</v>
+        <v>-0.5941696465015411</v>
       </c>
       <c r="I8" t="n">
-        <v>0.421052631578947</v>
+        <v>0.5403595502312118</v>
       </c>
       <c r="J8" t="n">
-        <v>0.289473684210526</v>
+        <v>0.3960711289393274</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_shot_conceded_pg</t>
+          <t>team_season_xgd</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1352750901429573</v>
+        <v>14.7997884</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.07326171785520612</v>
+        <v>-4.933262974666667</v>
       </c>
       <c r="D9" t="n">
-        <v>1.846463529702019</v>
+        <v>1.636552630874081</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05384223093208308</v>
+        <v>7.823194353916678</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09297813152539917</v>
+        <v>9.268708622650244</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1957064420488235</v>
+        <v>2.535829</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2573062454497343</v>
+        <v>-22.578444</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06954894175654963</v>
+        <v>20.530317</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08078435808420181</v>
+        <v>15.050703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalty_goals_conceded_pg</t>
+          <t>team_season_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07908961593172119</v>
+        <v>3.74153627311522</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1458036984352774</v>
+        <v>4.545187292555714</v>
       </c>
       <c r="D10" t="n">
-        <v>1.843525179856116</v>
+        <v>1.56518110536593</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06431569829980485</v>
+        <v>0.1877273763698494</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06797596339218007</v>
+        <v>0.4399521805564752</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02631578947368421</v>
+        <v>3.47368421052632</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02631578947368421</v>
+        <v>3.47368421052632</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1842105263157895</v>
+        <v>3.94736842105263</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2368421052631579</v>
+        <v>5.07894736842105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goal_ratio</t>
+          <t>team_season_op_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007902186292780508</v>
+        <v>0.5913626044204361</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004327023204862233</v>
+        <v>0.846343460969005</v>
       </c>
       <c r="D11" t="n">
-        <v>1.826240793879011</v>
+        <v>1.562502615348574</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001556970925654796</v>
+        <v>0.09047377965562682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001215800798615379</v>
+        <v>0.1352389106838616</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0056140350877193</v>
+        <v>0.4500898699227132</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00187617260787992</v>
+        <v>0.6105034233708131</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00946185688941455</v>
+        <v>0.6867054638109709</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00681959082455053</v>
+        <v>1.181217661029414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_corners_pg</t>
+          <t>team_season_np_gd_pg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1743954480796586</v>
+        <v>0.3917496443812233</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09663347558084399</v>
+        <v>-0.1301564722617354</v>
       </c>
       <c r="D12" t="n">
-        <v>1.804710500490677</v>
+        <v>1.536358115211301</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08402753222800191</v>
+        <v>0.2121595513344288</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04174621412165804</v>
+        <v>0.2811296325285692</v>
       </c>
       <c r="G12" t="n">
         <v>0.05263157894736842</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02631578947368421</v>
+        <v>-0.7105263157894737</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_conceded_pg</t>
+          <t>team_season_np_xgd_pg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1001422475106686</v>
+        <v>0.3170827347557372</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1774774774774775</v>
+        <v>-0.1056439943551565</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772253787878788</v>
+        <v>1.529388023925832</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09726989415540079</v>
+        <v>0.1078719065045388</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07400575617387926</v>
+        <v>0.2407287704205502</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.1959905898884723</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02631578947368421</v>
+        <v>-0.5116959386750272</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.4326407423144893</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.3342158700290479</v>
       </c>
     </row>
     <row r="14">
@@ -901,7 +902,7 @@
         <v>0.003785271759078869</v>
       </c>
       <c r="D14" t="n">
-        <v>1.609771368098947</v>
+        <v>1.508575276320133</v>
       </c>
       <c r="E14" t="n">
         <v>0.0009027626733210919</v>
@@ -925,3843 +926,3843 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goal_ratio</t>
+          <t>team_season_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07755240027045299</v>
+        <v>0.8827880512091039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04826660668765932</v>
+        <v>1.314366998577525</v>
       </c>
       <c r="D15" t="n">
-        <v>1.606750621030945</v>
+        <v>1.491530011927802</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07457928678241821</v>
+        <v>0.284126895542234</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05867735906310621</v>
+        <v>0.2159888214825993</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="I15" t="n">
-        <v>0.166666666666667</v>
+        <v>1.18421052631579</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2</v>
+        <v>1.763157894736842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_conceded_pg</t>
+          <t>team_season_obv_pass_conceded_pg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01578890262582308</v>
+        <v>0.5396174499694826</v>
       </c>
       <c r="C16" t="n">
-        <v>0.025208978419779</v>
+        <v>0.7464119109833386</v>
       </c>
       <c r="D16" t="n">
-        <v>1.596626378488724</v>
+        <v>1.485836137879806</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003781946280711056</v>
+        <v>0.09313610153967643</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01478769001104661</v>
+        <v>0.1172127251735842</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0105801115400697</v>
+        <v>0.4348171236924827</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00603294519609527</v>
+        <v>0.5842229511196676</v>
       </c>
       <c r="I16" t="n">
-        <v>0.019773480359857</v>
+        <v>0.6644538997819549</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0572634709043134</v>
+        <v>0.9802928794371454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_pg</t>
+          <t>team_season_sp_shots_pg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08896883206738751</v>
+        <v>3.589758179231863</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05610875563880172</v>
+        <v>2.907349454717875</v>
       </c>
       <c r="D17" t="n">
-        <v>1.585649709291745</v>
+        <v>1.474666571543096</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0201379804501596</v>
+        <v>0.4006134778048442</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01868139257254185</v>
+        <v>0.3678669520966902</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06583429343606297</v>
+        <v>3.054054054054054</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02367036452663964</v>
+        <v>2.447368421052631</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1195451176578277</v>
+        <v>3.894736842105263</v>
       </c>
       <c r="J17" t="n">
-        <v>0.08462844546394128</v>
+        <v>3.657894736842105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>team_season_opposition_own_goals_pg</t>
+          <t>team_season_free_kick_goal_ratio</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05277382645803699</v>
+        <v>0.006595263050895256</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03342816500711237</v>
+        <v>0.003091218263777736</v>
       </c>
       <c r="D18" t="n">
-        <v>1.57872340425532</v>
+        <v>1.46586209330888</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03709156688734274</v>
+        <v>0.002061188339084801</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02111754520469447</v>
+        <v>0.001913218124035266</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.003690036900369004</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.008639308855291577</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.007952286282306162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio</t>
+          <t>team_season_goals_from_free_kicks_pg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03614934004281049</v>
+        <v>0.09516358463726884</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02336258895456374</v>
+        <v>0.04570886676149833</v>
       </c>
       <c r="D19" t="n">
-        <v>1.547317384777638</v>
+        <v>1.45604699564094</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01617091006827888</v>
+        <v>0.02973789592936544</v>
       </c>
       <c r="F19" t="n">
-        <v>0.009903535261773162</v>
+        <v>0.02720753136971391</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0111731843575419</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05319148936170213</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_conceded_pg</t>
+          <t>team_season_shots_from_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8827880512091039</v>
+        <v>1.339829302987198</v>
       </c>
       <c r="C20" t="n">
-        <v>1.314366998577525</v>
+        <v>1.871550497866287</v>
       </c>
       <c r="D20" t="n">
-        <v>1.488881727360619</v>
+        <v>1.455460467550052</v>
       </c>
       <c r="E20" t="n">
-        <v>0.284126895542234</v>
+        <v>0.1697143061656787</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2159888214825993</v>
+        <v>0.3266560741742447</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>1.18421052631579</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9473684210526315</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="I20" t="n">
-        <v>1.18421052631579</v>
+        <v>1.567567567567568</v>
       </c>
       <c r="J20" t="n">
-        <v>1.763157894736842</v>
+        <v>2.342105263157895</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_inside_box_conceded_pg</t>
+          <t>team_season_corner_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.436273115220484</v>
+        <v>0.1072162978994297</v>
       </c>
       <c r="C21" t="n">
-        <v>2.121479374110953</v>
+        <v>0.1573051102770313</v>
       </c>
       <c r="D21" t="n">
-        <v>1.477072397741904</v>
+        <v>1.45029283764578</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3888702623985098</v>
+        <v>0.01281661447094267</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4593591957959609</v>
+        <v>0.03138554839138284</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.0899113113256662</v>
       </c>
       <c r="H21" t="n">
-        <v>1.394736842105263</v>
+        <v>0.107657725922763</v>
       </c>
       <c r="I21" t="n">
-        <v>1.891891891891892</v>
+        <v>0.117474186813106</v>
       </c>
       <c r="J21" t="n">
-        <v>2.815789473684211</v>
+        <v>0.199416891647209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_xg_conceded_pg</t>
+          <t>team_season_xg_per_sp</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1072162978994297</v>
+        <v>0.006813656293772013</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1573051102770313</v>
+        <v>0.005416684621580927</v>
       </c>
       <c r="D22" t="n">
-        <v>1.467175358214528</v>
+        <v>1.449650687758721</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01281661447094267</v>
+        <v>0.0009646436987178305</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03138554839138284</v>
+        <v>0.0007335072019464568</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0899113113256662</v>
+        <v>0.00536166877077337</v>
       </c>
       <c r="H22" t="n">
-        <v>0.107657725922763</v>
+        <v>0.00447596404443047</v>
       </c>
       <c r="I22" t="n">
-        <v>0.117474186813106</v>
+        <v>0.00785834122380866</v>
       </c>
       <c r="J22" t="n">
-        <v>0.199416891647209</v>
+        <v>0.00693573747742494</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_conceded_pg</t>
+          <t>team_season_sp_shot_ratio</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.12679423074348</v>
+        <v>0.08686355167631903</v>
       </c>
       <c r="C23" t="n">
-        <v>1.620330657796283</v>
+        <v>0.07116274208488624</v>
       </c>
       <c r="D23" t="n">
-        <v>1.438000491648914</v>
+        <v>1.449435940969011</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1924872046701807</v>
+        <v>0.004974851101949686</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2139221221918313</v>
+        <v>0.00972247163103937</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8820864320977738</v>
+        <v>0.0795774647887324</v>
       </c>
       <c r="H23" t="n">
-        <v>1.260013060056065</v>
+        <v>0.0528281750266809</v>
       </c>
       <c r="I23" t="n">
-        <v>1.335630289818111</v>
+        <v>0.09363057324840759</v>
       </c>
       <c r="J23" t="n">
-        <v>2.04838013727414</v>
+        <v>0.0907310704960835</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_conceded_pg</t>
+          <t>team_season_shots_in_clear_conceded_pg</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5913626044204361</v>
+        <v>1.618918918918919</v>
       </c>
       <c r="C24" t="n">
-        <v>0.846343460969005</v>
+        <v>2.155144618302513</v>
       </c>
       <c r="D24" t="n">
-        <v>1.431175144729455</v>
+        <v>1.43555621510843</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09047377965562682</v>
+        <v>0.3281089233815647</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1352389106838616</v>
+        <v>0.3025638881950689</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4500898699227132</v>
+        <v>1.131578947368421</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6105034233708131</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6867054638109709</v>
+        <v>1.947368421052632</v>
       </c>
       <c r="J24" t="n">
-        <v>1.181217661029414</v>
+        <v>2.657894736842105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_corners_conceded_pg</t>
+          <t>team_season_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.339829302987198</v>
+        <v>0.08896883206738751</v>
       </c>
       <c r="C25" t="n">
-        <v>1.871550497866287</v>
+        <v>0.05610875563880172</v>
       </c>
       <c r="D25" t="n">
-        <v>1.396857415861557</v>
+        <v>1.430236334815574</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1697143061656787</v>
+        <v>0.0201379804501596</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3266560741742447</v>
+        <v>0.01868139257254185</v>
       </c>
       <c r="G25" t="n">
-        <v>1.18421052631579</v>
+        <v>0.06583429343606297</v>
       </c>
       <c r="H25" t="n">
-        <v>1.236842105263158</v>
+        <v>0.02367036452663964</v>
       </c>
       <c r="I25" t="n">
-        <v>1.567567567567568</v>
+        <v>0.1195451176578277</v>
       </c>
       <c r="J25" t="n">
-        <v>2.342105263157895</v>
+        <v>0.08462844546394128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_conceded_pg</t>
+          <t>team_season_op_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7860892026694452</v>
+        <v>18.77555763901573</v>
       </c>
       <c r="C26" t="n">
-        <v>1.097576029749208</v>
+        <v>17.65415673011742</v>
       </c>
       <c r="D26" t="n">
-        <v>1.396248703101377</v>
+        <v>1.398177709322872</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1136580732756134</v>
+        <v>0.540694026038674</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1445472941811393</v>
+        <v>0.7061129169425066</v>
       </c>
       <c r="G26" t="n">
-        <v>0.608583541685029</v>
+        <v>18.22215986449689</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8315190555233705</v>
+        <v>16.28751572986577</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9056472150902999</v>
+        <v>19.56235573508523</v>
       </c>
       <c r="J26" t="n">
-        <v>1.42563103374682</v>
+        <v>18.74873987833659</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pass_conceded_pg</t>
+          <t>team_season_defensive_distance</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5396174499694826</v>
+        <v>45.98673087252079</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7464119109833386</v>
+        <v>43.40677234556971</v>
       </c>
       <c r="D27" t="n">
-        <v>1.383224191555612</v>
+        <v>1.383665879717479</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09313610153967643</v>
+        <v>1.348457645411541</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1172127251735842</v>
+        <v>1.632248075456228</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4348171236924827</v>
+        <v>44.18056530898876</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5842229511196676</v>
+        <v>40.32806318001978</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6644538997819549</v>
+        <v>47.59862161852362</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9802928794371454</v>
+        <v>45.94654736751941</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio</t>
+          <t>team_season_np_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004432869868167986</v>
+        <v>9.561593172119487</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003255771681416016</v>
+        <v>11.61156946420104</v>
       </c>
       <c r="D28" t="n">
-        <v>1.361541994320689</v>
+        <v>1.353297678723375</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004502411419393937</v>
+        <v>1.007189046635097</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003154186920112245</v>
+        <v>1.364752582523739</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>8.157894736842104</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>9.578947368421053</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01136363636363636</v>
+        <v>10.7027027027027</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01109741060419235</v>
+        <v>14.18421052631579</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_pg</t>
+          <t>team_season_sp_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.09530583214793741</v>
+        <v>0.1947266029281433</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07027027027027027</v>
+        <v>0.2512325694902869</v>
       </c>
       <c r="D29" t="n">
-        <v>1.356275303643725</v>
+        <v>1.35284293898526</v>
       </c>
       <c r="E29" t="n">
-        <v>0.103015338845994</v>
+        <v>0.0234353171267886</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06864624174252958</v>
+        <v>0.03847217562969795</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.1584936722524856</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.1823938203681456</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.21894175774957</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.3079239334053311</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_conceded_pg</t>
+          <t>team_season_sp_xg_pg</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8254623044096728</v>
+        <v>0.2826877573876646</v>
       </c>
       <c r="C30" t="n">
-        <v>1.112233285917497</v>
+        <v>0.2219498038345806</v>
       </c>
       <c r="D30" t="n">
-        <v>1.347406513872135</v>
+        <v>1.347154076983049</v>
       </c>
       <c r="E30" t="n">
-        <v>0.05739382986758209</v>
+        <v>0.05480749316436886</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2895777922650384</v>
+        <v>0.03251988633915658</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.2010625839404958</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.1740029594909988</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.3496961944344404</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>0.2944038306902114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_defensive_action_conceded_pg</t>
+          <t>team_season_directness</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1857083870744489</v>
+        <v>0.8458475734406443</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2498913498156853</v>
+        <v>0.8694863804321671</v>
       </c>
       <c r="D31" t="n">
-        <v>1.345611545888372</v>
+        <v>1.346966365317439</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1126458966585873</v>
+        <v>0.01383498685394317</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08710370927477562</v>
+        <v>0.01534999331743744</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05018676175294738</v>
+        <v>0.8279038997865458</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1179374253024926</v>
+        <v>0.8422425850716171</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3554884582561882</v>
+        <v>0.8657191438383126</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4064284993433638</v>
+        <v>0.8990210083155861</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_won_pg</t>
+          <t>team_season_passes_inside_box_conceded_pg</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1961593172119488</v>
+        <v>1.436273115220484</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1458511142721669</v>
+        <v>2.121479374110953</v>
       </c>
       <c r="D32" t="n">
-        <v>1.344928478543563</v>
+        <v>1.328597150667224</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07286176603370031</v>
+        <v>0.3888702623985098</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05867815524758056</v>
+        <v>0.4593591957959609</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07894736842105263</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2702702702702703</v>
+        <v>1.891891891891892</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2631578947368421</v>
+        <v>2.815789473684211</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_in_clear_conceded_pg</t>
+          <t>team_season_shots_from_corners_pg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.618918918918919</v>
+        <v>2.061166429587482</v>
       </c>
       <c r="C33" t="n">
-        <v>2.155144618302513</v>
+        <v>1.630867709815078</v>
       </c>
       <c r="D33" t="n">
-        <v>1.331224555545792</v>
+        <v>1.322508828988714</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3281089233815647</v>
+        <v>0.3410219048274236</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3025638881950689</v>
+        <v>0.2615518858116703</v>
       </c>
       <c r="G33" t="n">
-        <v>1.131578947368421</v>
+        <v>1.621621621621621</v>
       </c>
       <c r="H33" t="n">
-        <v>1.578947368421053</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="I33" t="n">
-        <v>1.947368421052632</v>
+        <v>2.421052631578947</v>
       </c>
       <c r="J33" t="n">
-        <v>2.657894736842105</v>
+        <v>2.078947368421053</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalty_goals_pg</t>
+          <t>team_season_np_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1590327169274538</v>
+        <v>17.92434253189885</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1195353247984827</v>
+        <v>16.9968705254353</v>
       </c>
       <c r="D34" t="n">
-        <v>1.330424434748116</v>
+        <v>1.312753052995367</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05720622960337747</v>
+        <v>0.6784246190423397</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05442276484457526</v>
+        <v>0.5925909644002981</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07894736842105263</v>
+        <v>17.17245869252874</v>
       </c>
       <c r="H34" t="n">
-        <v>0.02631578947368421</v>
+        <v>15.82269347540223</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2162162162162162</v>
+        <v>18.71056105090726</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2368421052631579</v>
+        <v>17.92082923228346</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_conceded_pg</t>
+          <t>team_season_op_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.004218717958582076</v>
+        <v>6.862873399715506</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005506271613459733</v>
+        <v>8.407965860597439</v>
       </c>
       <c r="D35" t="n">
-        <v>1.305200221374933</v>
+        <v>1.28536376082922</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003548268534815144</v>
+        <v>0.8945770255313262</v>
       </c>
       <c r="F35" t="n">
-        <v>0.003907098762737227</v>
+        <v>1.093675991093727</v>
       </c>
       <c r="G35" t="n">
-        <v>0.000169488062199793</v>
+        <v>5.789473684210527</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00112254476468814</v>
+        <v>6.763157894736842</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00851406833451045</v>
+        <v>7.945945945945946</v>
       </c>
       <c r="J35" t="n">
-        <v>0.013834033725097</v>
+        <v>10.71052631578947</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
+          <t>team_season_xg_per_sp_conceded</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.08102118040198543</v>
+        <v>0.004744526435058664</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0621722046266414</v>
+        <v>0.006141694122025771</v>
       </c>
       <c r="D36" t="n">
-        <v>1.303173675254666</v>
+        <v>1.281774848757854</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04841066693789016</v>
+        <v>0.0006046871436960366</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0508700116719769</v>
+        <v>0.001034416640990022</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.00377365879546431</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.00480316417215602</v>
       </c>
       <c r="I36" t="n">
-        <v>0.166666666666667</v>
+        <v>0.00535034351410207</v>
       </c>
       <c r="J36" t="n">
-        <v>0.181818181818182</v>
+        <v>0.00811967475216987</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_conceded_pg</t>
+          <t>team_season_goals_from_corners_pg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.432859174964438</v>
+        <v>0.1743954480796586</v>
       </c>
       <c r="C37" t="n">
-        <v>3.163442389758179</v>
+        <v>0.09663347558084399</v>
       </c>
       <c r="D37" t="n">
-        <v>1.300298193299422</v>
+        <v>1.267173227317824</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7565656543805667</v>
+        <v>0.08402753222800191</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5964692845153695</v>
+        <v>0.04174621412165804</v>
       </c>
       <c r="G37" t="n">
-        <v>1.342105263157895</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H37" t="n">
-        <v>2.315789473684211</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I37" t="n">
-        <v>3.243243243243243</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J37" t="n">
-        <v>4.210526315789473</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in_conceded</t>
+          <t>team_season_np_xg_per_shot_conceded</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0002024814893852967</v>
+        <v>0.08245319742684669</v>
       </c>
       <c r="C38" t="n">
-        <v>0.000262217591185774</v>
+        <v>0.09463718300299523</v>
       </c>
       <c r="D38" t="n">
-        <v>1.295020063225666</v>
+        <v>1.255191166373803</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0001785841961870599</v>
+        <v>0.01136294447389356</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0001869479705534075</v>
+        <v>0.007612571082619824</v>
       </c>
       <c r="G38" t="n">
-        <v>7.961120350546541e-06</v>
+        <v>0.0738838321030742</v>
       </c>
       <c r="H38" t="n">
-        <v>4.93711817802654e-05</v>
+        <v>0.08042608342498044</v>
       </c>
       <c r="I38" t="n">
-        <v>0.000424029630258543</v>
+        <v>0.09586237532846775</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0006990602358858639</v>
+        <v>0.1115930764982016</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp_conceded</t>
+          <t>team_season_np_shots_pg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.004744526435058664</v>
+        <v>12.38463726884779</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006141694122025771</v>
+        <v>10.6706021811285</v>
       </c>
       <c r="D39" t="n">
-        <v>1.294479903545912</v>
+        <v>1.211796907078198</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0006046871436960366</v>
+        <v>1.002707914126191</v>
       </c>
       <c r="F39" t="n">
-        <v>0.001034416640990022</v>
+        <v>1.335635625463163</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00377365879546431</v>
+        <v>10.86842105263158</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00480316417215602</v>
+        <v>8.710526315789474</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00535034351410207</v>
+        <v>13.57894736842105</v>
       </c>
       <c r="J39" t="n">
-        <v>0.00811967475216987</v>
+        <v>14.1578947368421</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_xg_conceded_pg</t>
+          <t>team_season_goals_pg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1947266029281433</v>
+        <v>1.386201991465149</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2512325694902869</v>
+        <v>1.147415836889521</v>
       </c>
       <c r="D40" t="n">
-        <v>1.290181031828481</v>
+        <v>1.140952895189452</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0234353171267886</v>
+        <v>0.1410170824359006</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03847217562969795</v>
+        <v>0.2040052104629502</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1584936722524856</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1823938203681456</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="I40" t="n">
-        <v>0.21894175774957</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3079239334053311</v>
+        <v>1.657894736842105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_xg_pg</t>
+          <t>team_season_sp_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2826877573876646</v>
+        <v>2.698719772403983</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2219498038345806</v>
+        <v>3.203603603603604</v>
       </c>
       <c r="D41" t="n">
-        <v>1.273656261477717</v>
+        <v>1.119428681613248</v>
       </c>
       <c r="E41" t="n">
-        <v>0.05480749316436886</v>
+        <v>0.1879690652836009</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03251988633915658</v>
+        <v>0.4606775391114625</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2010625839404958</v>
+        <v>2.368421052631579</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1740029594909988</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3496961944344404</v>
+        <v>2.815789473684211</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2944038306902114</v>
+        <v>4.078947368421052</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_corners_pg</t>
+          <t>team_season_sp_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.061166429587482</v>
+        <v>0.06582264719250304</v>
       </c>
       <c r="C42" t="n">
-        <v>1.630867709815078</v>
+        <v>0.07820663709442933</v>
       </c>
       <c r="D42" t="n">
-        <v>1.263846489315307</v>
+        <v>1.092695876073174</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3410219048274236</v>
+        <v>0.006434909160632485</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2615518858116703</v>
+        <v>0.01142737159729176</v>
       </c>
       <c r="G42" t="n">
-        <v>1.621621621621621</v>
+        <v>0.056390977443609</v>
       </c>
       <c r="H42" t="n">
-        <v>1.105263157894737</v>
+        <v>0.0615563298490128</v>
       </c>
       <c r="I42" t="n">
-        <v>2.421052631578947</v>
+        <v>0.0723729993041058</v>
       </c>
       <c r="J42" t="n">
-        <v>2.078947368421053</v>
+        <v>0.09839228295819941</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick_conceded</t>
+          <t>team_season_own_goals_pg</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0375747205326613</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0472866322733065</v>
+        <v>0.04395448079658605</v>
       </c>
       <c r="D43" t="n">
-        <v>1.258469300715178</v>
+        <v>1.078929811237186</v>
       </c>
       <c r="E43" t="n">
-        <v>0.007718593177623416</v>
+        <v>0.02201736911931778</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0199389064177986</v>
+        <v>0.01909624108723251</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0287174454757145</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0254724356863234</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0445162753264109</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J43" t="n">
-        <v>0.08973199670965019</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp</t>
+          <t>team_season_fhalf_pressures_ratio</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.006813656293772013</v>
+        <v>0.4840015166367297</v>
       </c>
       <c r="C44" t="n">
-        <v>0.005416684621580927</v>
+        <v>0.4392414592572608</v>
       </c>
       <c r="D44" t="n">
-        <v>1.257901607678123</v>
+        <v>1.078560728422136</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0009646436987178305</v>
+        <v>0.03063813716647686</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0007335072019464568</v>
+        <v>0.04068775293743556</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00536166877077337</v>
+        <v>0.4482037635430526</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00447596404443047</v>
+        <v>0.3954437266235974</v>
       </c>
       <c r="I44" t="n">
-        <v>0.00785834122380866</v>
+        <v>0.5324512783836939</v>
       </c>
       <c r="J44" t="n">
-        <v>0.00693573747742494</v>
+        <v>0.5553961421967161</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in</t>
+          <t>team_season_deep_completions_conceded_pg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0001978573189164246</v>
+        <v>2.432859174964438</v>
       </c>
       <c r="C45" t="n">
-        <v>0.000246973995313287</v>
+        <v>3.163442389758179</v>
       </c>
       <c r="D45" t="n">
-        <v>1.248242908909573</v>
+        <v>1.072996020717635</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0002641797344035013</v>
+        <v>0.7565656543805667</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0002130676926197671</v>
+        <v>0.5964692845153695</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.342105263157895</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.315789473684211</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0006619653918526389</v>
+        <v>3.243243243243243</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0007811334953355143</v>
+        <v>4.210526315789473</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_shot_ratio</t>
+          <t>team_season_dribble_ratio</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.05914374089587741</v>
+        <v>0.4979592439999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.04738185535429135</v>
+        <v>0.5308531820000001</v>
       </c>
       <c r="D46" t="n">
-        <v>1.2482360695595</v>
+        <v>1.069119910210889</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01420810299589941</v>
+        <v>0.01460349518880429</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01403633910331051</v>
+        <v>0.0316475575674019</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04107142857142857</v>
+        <v>0.48033127</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02389705882352941</v>
+        <v>0.490991</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07380073800738007</v>
+        <v>0.51978415</v>
       </c>
       <c r="J46" t="n">
-        <v>0.073558648111332</v>
+        <v>0.5949821</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_direct_free_kicks_conceded_pg</t>
+          <t>team_season_defensive_distance_ppda</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.4438122332859175</v>
+        <v>5.242346379970898</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5503556187766715</v>
+        <v>4.253694860876831</v>
       </c>
       <c r="D47" t="n">
-        <v>1.240064102564103</v>
+        <v>1.061764012000465</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09094250594294367</v>
+        <v>0.727133478203126</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1733376325985316</v>
+        <v>0.9086957884164852</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3243243243243243</v>
+        <v>3.96673699917865</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2368421052631579</v>
+        <v>2.736093455392667</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5263157894736842</v>
+        <v>5.776097209176477</v>
       </c>
       <c r="J47" t="n">
-        <v>0.868421052631579</v>
+        <v>6.518467959066696</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shots_pg</t>
+          <t>team_season_counter_attacking_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3.589758179231863</v>
+        <v>0.8254623044096728</v>
       </c>
       <c r="C48" t="n">
-        <v>2.907349454717875</v>
+        <v>1.112233285917497</v>
       </c>
       <c r="D48" t="n">
-        <v>1.234718507404267</v>
+        <v>1.048699320223255</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4006134778048442</v>
+        <v>0.05739382986758209</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3678669520966902</v>
+        <v>0.2895777922650384</v>
       </c>
       <c r="G48" t="n">
-        <v>3.054054054054054</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H48" t="n">
-        <v>2.447368421052631</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="I48" t="n">
-        <v>3.894736842105263</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="J48" t="n">
-        <v>3.657894736842105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_distance_ppda</t>
+          <t>team_season_corner_xg_pg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5.242346379970898</v>
+        <v>0.1661413105994272</v>
       </c>
       <c r="C49" t="n">
-        <v>4.253694860876831</v>
+        <v>0.1376649278725001</v>
       </c>
       <c r="D49" t="n">
-        <v>1.232421824185638</v>
+        <v>1.039995876348152</v>
       </c>
       <c r="E49" t="n">
-        <v>0.727133478203126</v>
+        <v>0.03350993953957986</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9086957884164852</v>
+        <v>0.02308694257711835</v>
       </c>
       <c r="G49" t="n">
-        <v>3.96673699917865</v>
+        <v>0.1124462001025677</v>
       </c>
       <c r="H49" t="n">
-        <v>2.736093455392667</v>
+        <v>0.1069971223999011</v>
       </c>
       <c r="I49" t="n">
-        <v>5.776097209176477</v>
+        <v>0.1988505373561853</v>
       </c>
       <c r="J49" t="n">
-        <v>6.518467959066696</v>
+        <v>0.2039402888009423</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_pg</t>
+          <t>team_season_xg_per_corner_conceded</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.1065803470268657</v>
+        <v>0.02866130357227688</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.0865613170422853</v>
+        <v>0.03462026943366973</v>
       </c>
       <c r="D50" t="n">
-        <v>1.231269932905492</v>
+        <v>1.039924291623207</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1314020766118728</v>
+        <v>0.003199310747489371</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1313589083696339</v>
+        <v>0.005871236625476735</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.2831655470164199</v>
+        <v>0.0245802132288615</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.379555063199644</v>
+        <v>0.0231129597809355</v>
       </c>
       <c r="I50" t="n">
-        <v>0.07128995115793235</v>
+        <v>0.0314191613878523</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1196848798641249</v>
+        <v>0.0414089765705046</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_conceded_pg</t>
+          <t>team_season_corner_goal_ratio</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6.862873399715506</v>
+        <v>0.03614934004281049</v>
       </c>
       <c r="C51" t="n">
-        <v>8.407965860597439</v>
+        <v>0.02336258895456374</v>
       </c>
       <c r="D51" t="n">
-        <v>1.225137835260954</v>
+        <v>1.038468343612895</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8945770255313262</v>
+        <v>0.01617091006827888</v>
       </c>
       <c r="F51" t="n">
-        <v>1.093675991093727</v>
+        <v>0.009903535261773162</v>
       </c>
       <c r="G51" t="n">
-        <v>5.789473684210527</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="H51" t="n">
-        <v>6.763157894736842</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="I51" t="n">
-        <v>7.945945945945946</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="J51" t="n">
-        <v>10.71052631578947</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kicks_pg</t>
+          <t>team_season_obv_shot_pg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.5665718349928877</v>
+        <v>-0.1472369750784141</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4636320531057372</v>
+        <v>-0.06902768440048253</v>
       </c>
       <c r="D52" t="n">
-        <v>1.222029044794437</v>
+        <v>1.030135716554462</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1808478651147601</v>
+        <v>0.07378739843614505</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1739289782710295</v>
+        <v>0.07099552154257181</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3157894736842105</v>
+        <v>-0.2295870029024388</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2368421052631579</v>
+        <v>-0.1756496337821355</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7631578947368421</v>
+        <v>-0.03751293791306985</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.05729923711011285</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio</t>
+          <t>team_season_successful_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.08686355167631903</v>
+        <v>356.2449502133713</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07116274208488624</v>
+        <v>386.6132290184922</v>
       </c>
       <c r="D53" t="n">
-        <v>1.220632442362945</v>
+        <v>1.009690336548767</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004974851101949686</v>
+        <v>20.4782606051182</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00972247163103937</v>
+        <v>30.42144353630043</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0795774647887324</v>
+        <v>335.5526315789473</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0528281750266809</v>
+        <v>308.4736842105263</v>
       </c>
       <c r="I53" t="n">
-        <v>0.09363057324840759</v>
+        <v>387.8947368421053</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0907310704960835</v>
+        <v>429.3157894736842</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_pg</t>
+          <t>team_season_pace_towards_goal</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.004448331041847107</v>
+        <v>2.565714603908058</v>
       </c>
       <c r="C54" t="n">
-        <v>0.005419667021006226</v>
+        <v>2.69485220736334</v>
       </c>
       <c r="D54" t="n">
-        <v>1.218359643205822</v>
+        <v>1.006785519361066</v>
       </c>
       <c r="E54" t="n">
-        <v>0.006177314937627114</v>
+        <v>0.1248003007780193</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004643900201618732</v>
+        <v>0.1207749687053354</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>2.421391665290863</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2.436029022314694</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01532972547666807</v>
+        <v>2.712461346418006</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01667103137036688</v>
+        <v>2.886319203122905</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>team_season_corners_conceded_pg</t>
+          <t>team_season_deep_progressions_conceded_pg</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.74153627311522</v>
+        <v>35.74267425320058</v>
       </c>
       <c r="C55" t="n">
-        <v>4.545187292555714</v>
+        <v>40.42555713608345</v>
       </c>
       <c r="D55" t="n">
-        <v>1.214791722110279</v>
+        <v>1.003730514762117</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1877273763698494</v>
+        <v>2.902250324410919</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4399521805564752</v>
+        <v>4.776477313753235</v>
       </c>
       <c r="G55" t="n">
-        <v>3.47368421052632</v>
+        <v>33.73684210526316</v>
       </c>
       <c r="H55" t="n">
-        <v>3.47368421052632</v>
+        <v>32.1578947368421</v>
       </c>
       <c r="I55" t="n">
-        <v>3.94736842105263</v>
+        <v>40.78947368421053</v>
       </c>
       <c r="J55" t="n">
-        <v>5.07894736842105</v>
+        <v>46.94736842105263</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_conceded_pg</t>
+          <t>team_season_obv_dribble_carry_conceded_pg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9.561593172119487</v>
+        <v>0.696048224168521</v>
       </c>
       <c r="C56" t="n">
-        <v>11.61156946420104</v>
+        <v>0.7658697568671491</v>
       </c>
       <c r="D56" t="n">
-        <v>1.214396937328295</v>
+        <v>0.9919434699055195</v>
       </c>
       <c r="E56" t="n">
-        <v>1.007189046635097</v>
+        <v>0.07801708139003774</v>
       </c>
       <c r="F56" t="n">
-        <v>1.364752582523739</v>
+        <v>0.06350650952712547</v>
       </c>
       <c r="G56" t="n">
-        <v>8.157894736842104</v>
+        <v>0.635995237573393</v>
       </c>
       <c r="H56" t="n">
-        <v>9.578947368421053</v>
+        <v>0.6473243707104733</v>
       </c>
       <c r="I56" t="n">
-        <v>10.7027027027027</v>
+        <v>0.8144671200094996</v>
       </c>
       <c r="J56" t="n">
-        <v>14.18421052631579</v>
+        <v>0.8622440182064709</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kicks_conceded_pg</t>
+          <t>team_season_opp_final_third_pass_ratio</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.4227596017069702</v>
+        <v>0.6057093829313427</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5117117117117118</v>
+        <v>0.6279787811215507</v>
       </c>
       <c r="D57" t="n">
-        <v>1.21040825482279</v>
+        <v>0.991814955537438</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07383625574620148</v>
+        <v>0.01975835457050594</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1587685204376669</v>
+        <v>0.02181351365797514</v>
       </c>
       <c r="G57" t="n">
-        <v>0.324324324324324</v>
+        <v>0.5822132616487455</v>
       </c>
       <c r="H57" t="n">
-        <v>0.236842105263158</v>
+        <v>0.568018018018018</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5</v>
+        <v>0.6322652757078987</v>
       </c>
       <c r="J57" t="n">
-        <v>0.815789473684211</v>
+        <v>0.6551893753074275</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_pg</t>
+          <t>team_season_op_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.386201991465149</v>
+        <v>405.1524893314367</v>
       </c>
       <c r="C58" t="n">
-        <v>1.147415836889521</v>
+        <v>436.8374585111427</v>
       </c>
       <c r="D58" t="n">
-        <v>1.208107773048473</v>
+        <v>0.9888891094400453</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1410170824359006</v>
+        <v>22.52636992381151</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2040052104629502</v>
+        <v>32.4455200296788</v>
       </c>
       <c r="G58" t="n">
-        <v>1.210526315789474</v>
+        <v>381.9473684210527</v>
       </c>
       <c r="H58" t="n">
-        <v>0.868421052631579</v>
+        <v>353.1578947368421</v>
       </c>
       <c r="I58" t="n">
-        <v>1.605263157894737</v>
+        <v>439.3947368421053</v>
       </c>
       <c r="J58" t="n">
-        <v>1.657894736842105</v>
+        <v>481.421052631579</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_corners_conceded_pg</t>
+          <t>team_season_fhalf_counterpressures_ratio</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1002844950213371</v>
+        <v>0.7336794958010922</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1211474632527264</v>
+        <v>0.7015751483342064</v>
       </c>
       <c r="D59" t="n">
-        <v>1.208037825059102</v>
+        <v>0.971881259957545</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03382306617901751</v>
+        <v>0.025184255342783</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05135753361405132</v>
+        <v>0.03318968662773495</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.6964102564102564</v>
       </c>
       <c r="H59" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.6455798864557989</v>
       </c>
       <c r="I59" t="n">
-        <v>0.131578947368421</v>
+        <v>0.7545098039215686</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.7477414871438499</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner_conceded</t>
+          <t>team_season_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02866130357227688</v>
+        <v>456.5883357041251</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03462026943366973</v>
+        <v>486.4633475580844</v>
       </c>
       <c r="D60" t="n">
-        <v>1.20790979888147</v>
+        <v>0.9649644432384686</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003199310747489371</v>
+        <v>21.7612094491864</v>
       </c>
       <c r="F60" t="n">
-        <v>0.005871236625476735</v>
+        <v>31.54240465940695</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0245802132288615</v>
+        <v>433.9736842105263</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0231129597809355</v>
+        <v>406.578947368421</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0314191613878523</v>
+        <v>487.8421052631579</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0414089765705046</v>
+        <v>524.7631578947369</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_xg_pg</t>
+          <t>team_season_op_shots_outside_box_pg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1661413105994272</v>
+        <v>3.57226173541963</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1376649278725001</v>
+        <v>3.025604551920341</v>
       </c>
       <c r="D61" t="n">
-        <v>1.206852850373777</v>
+        <v>0.9593694058751128</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03350993953957986</v>
+        <v>0.4545680511588135</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02308694257711835</v>
+        <v>0.5698675538822954</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1124462001025677</v>
+        <v>2.763157894736842</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1069971223999011</v>
+        <v>1.947368421052632</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1988505373561853</v>
+        <v>3.842105263157895</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2039402888009423</v>
+        <v>4.289473684210527</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_conceded_pg</t>
+          <t>team_season_penalty_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.012375533428165</v>
+        <v>0.07908961593172119</v>
       </c>
       <c r="C62" t="n">
-        <v>2.424134660976767</v>
+        <v>0.1458036984352774</v>
       </c>
       <c r="D62" t="n">
-        <v>1.204613463396244</v>
+        <v>0.9534151328670143</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2426741072842627</v>
+        <v>0.06431569829980485</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5222364985906682</v>
+        <v>0.06797596339218007</v>
       </c>
       <c r="G62" t="n">
-        <v>1.710526315789474</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H62" t="n">
-        <v>1.605263157894737</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I62" t="n">
-        <v>2.351351351351351</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="J62" t="n">
-        <v>3.578947368421053</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_free_kicks_pg</t>
+          <t>team_season_corner_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.8453769559032717</v>
+        <v>0.3579795216603728</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7038880986249407</v>
+        <v>0.411595208327542</v>
       </c>
       <c r="D63" t="n">
-        <v>1.201010441226002</v>
+        <v>0.9504163689716629</v>
       </c>
       <c r="E63" t="n">
-        <v>0.155196206329279</v>
+        <v>0.03975757991996074</v>
       </c>
       <c r="F63" t="n">
-        <v>0.221663640173784</v>
+        <v>0.05766008956033974</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.313333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.299363057324841</v>
       </c>
       <c r="I63" t="n">
-        <v>1.052631578947368</v>
+        <v>0.402777777777778</v>
       </c>
       <c r="J63" t="n">
-        <v>1.216216216216216</v>
+        <v>0.47953216374269</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_free_kicks_conceded_pg</t>
+          <t>team_season_penalties_conceded_pg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.8409672830725462</v>
+        <v>0.1001422475106686</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7043622569938358</v>
+        <v>0.1774774774774775</v>
       </c>
       <c r="D64" t="n">
-        <v>1.193941433860653</v>
+        <v>0.9345709456890476</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1360441463979478</v>
+        <v>0.09726989415540079</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1763434114820388</v>
+        <v>0.07400575617387926</v>
       </c>
       <c r="G64" t="n">
-        <v>0.631578947368421</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>team_season_red_cards_pg</t>
+          <t>team_season_ppda</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.09004267425320056</v>
+        <v>8.911094365137584</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07558084400189663</v>
+        <v>10.54986617128197</v>
       </c>
       <c r="D65" t="n">
-        <v>1.191342534504391</v>
+        <v>0.9334695606800278</v>
       </c>
       <c r="E65" t="n">
-        <v>0.04805619045621028</v>
+        <v>1.264313059655023</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05060041696761707</v>
+        <v>1.796339938298467</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02631578947368421</v>
+        <v>8.067073170731707</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>6.887683965917893</v>
       </c>
       <c r="I65" t="n">
-        <v>0.131578947368421</v>
+        <v>11.13776015857284</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2105263157894737</v>
+        <v>14.73928571428571</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio_conceded</t>
+          <t>team_season_gk_pass_distance</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.06582264719250304</v>
+        <v>36.87284172661865</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07820663709442933</v>
+        <v>40.66749394794231</v>
       </c>
       <c r="D66" t="n">
-        <v>1.188141778402021</v>
+        <v>0.9270085352209182</v>
       </c>
       <c r="E66" t="n">
-        <v>0.006434909160632485</v>
+        <v>4.242436128717568</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01142737159729176</v>
+        <v>3.864989242266917</v>
       </c>
       <c r="G66" t="n">
-        <v>0.056390977443609</v>
+        <v>30.92665943642506</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0615563298490128</v>
+        <v>33.10904541015625</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0723729993041058</v>
+        <v>41.02595523286938</v>
       </c>
       <c r="J66" t="n">
-        <v>0.09839228295819941</v>
+        <v>47.21003178758414</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shots_conceded_pg</t>
+          <t>team_season_throw_in_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.698719772403983</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>3.203603603603604</v>
+        <v>0.0006647799500464827</v>
       </c>
       <c r="D67" t="n">
-        <v>1.187082718392017</v>
+        <v>0.9262178883572373</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1879690652836009</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4606775391114625</v>
+        <v>0.0007858413935287731</v>
       </c>
       <c r="G67" t="n">
-        <v>2.368421052631579</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2.473684210526316</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>2.815789473684211</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>4.078947368421052</v>
+        <v>0.00235849056603774</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>team_season_ppda</t>
+          <t>team_season_corners_pg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>8.911094365137584</v>
+        <v>4.778805120910384</v>
       </c>
       <c r="C68" t="n">
-        <v>10.54986617128197</v>
+        <v>4.198672356567093</v>
       </c>
       <c r="D68" t="n">
-        <v>1.183902418602553</v>
+        <v>0.9231306575119598</v>
       </c>
       <c r="E68" t="n">
-        <v>1.264313059655023</v>
+        <v>0.4914177998612436</v>
       </c>
       <c r="F68" t="n">
-        <v>1.796339938298467</v>
+        <v>0.636435823521334</v>
       </c>
       <c r="G68" t="n">
-        <v>8.067073170731707</v>
+        <v>3.972972972972973</v>
       </c>
       <c r="H68" t="n">
-        <v>6.887683965917893</v>
+        <v>3.236842105263158</v>
       </c>
       <c r="I68" t="n">
-        <v>11.13776015857284</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="J68" t="n">
-        <v>14.73928571428571</v>
+        <v>5.421052631578948</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_outside_box_pg</t>
+          <t>team_season_deep_progressions_pg</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3.57226173541963</v>
+        <v>41.9950213371266</v>
       </c>
       <c r="C69" t="n">
-        <v>3.025604551920341</v>
+        <v>38.34011379800852</v>
       </c>
       <c r="D69" t="n">
-        <v>1.180677009873061</v>
+        <v>0.9211577348406956</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4545680511588135</v>
+        <v>2.41270486145257</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5698675538822954</v>
+        <v>4.153136899240347</v>
       </c>
       <c r="G69" t="n">
-        <v>2.763157894736842</v>
+        <v>38.39473684210526</v>
       </c>
       <c r="H69" t="n">
-        <v>1.947368421052632</v>
+        <v>32.47368421052632</v>
       </c>
       <c r="I69" t="n">
-        <v>3.842105263157895</v>
+        <v>44.28947368421053</v>
       </c>
       <c r="J69" t="n">
-        <v>4.289473684210527</v>
+        <v>45.44736842105263</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_direct_free_kicks_pg</t>
+          <t>team_season_goals_from_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.5879089615931721</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5023233760075865</v>
+        <v>0.01403508771929824</v>
       </c>
       <c r="D70" t="n">
-        <v>1.170379460071739</v>
+        <v>0.9146591207600471</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1825752479348098</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1864057866673685</v>
+        <v>0.01684053877426801</v>
       </c>
       <c r="G70" t="n">
-        <v>0.3421052631578947</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3157894736842105</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7631578947368421</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.026315789473684</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_pg</t>
+          <t>team_season_corner_shot_ratio</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>12.38463726884779</v>
+        <v>0.4304317296782395</v>
       </c>
       <c r="C71" t="n">
-        <v>10.6706021811285</v>
+        <v>0.3899785537413913</v>
       </c>
       <c r="D71" t="n">
-        <v>1.160631523753238</v>
+        <v>0.9051199296699387</v>
       </c>
       <c r="E71" t="n">
-        <v>1.002707914126191</v>
+        <v>0.04718281677554785</v>
       </c>
       <c r="F71" t="n">
-        <v>1.335635625463163</v>
+        <v>0.04218071235526199</v>
       </c>
       <c r="G71" t="n">
-        <v>10.86842105263158</v>
+        <v>0.39</v>
       </c>
       <c r="H71" t="n">
-        <v>8.710526315789474</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="I71" t="n">
-        <v>13.57894736842105</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="J71" t="n">
-        <v>14.1578947368421</v>
+        <v>0.4803149606299212</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_pg</t>
+          <t>team_season_opp_passing_ratio</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.154765291607397</v>
+        <v>0.7799827864623883</v>
       </c>
       <c r="C72" t="n">
-        <v>1.002892366050261</v>
+        <v>0.7941009991295312</v>
       </c>
       <c r="D72" t="n">
-        <v>1.151434920334736</v>
+        <v>0.8799285549101709</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3680427903783116</v>
+        <v>0.01069765103467314</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2600452553460588</v>
+        <v>0.01678315703340521</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.7671638392348856</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.7571793235481813</v>
       </c>
       <c r="I72" t="n">
-        <v>1.421052631578947</v>
+        <v>0.7951235300463912</v>
       </c>
       <c r="J72" t="n">
-        <v>1.657894736842105</v>
+        <v>0.8181134346321649</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_shot_ratio_conceded</t>
+          <t>team_season_op_shots_pg</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3579795216603728</v>
+        <v>8.794879089615931</v>
       </c>
       <c r="C73" t="n">
-        <v>0.411595208327542</v>
+        <v>7.763252726410621</v>
       </c>
       <c r="D73" t="n">
-        <v>1.14977305522531</v>
+        <v>0.8792505338089855</v>
       </c>
       <c r="E73" t="n">
-        <v>0.03975757991996074</v>
+        <v>1.182694662844157</v>
       </c>
       <c r="F73" t="n">
-        <v>0.05766008956033974</v>
+        <v>1.132214452779214</v>
       </c>
       <c r="G73" t="n">
-        <v>0.313333333333333</v>
+        <v>7</v>
       </c>
       <c r="H73" t="n">
-        <v>0.299363057324841</v>
+        <v>6.105263157894737</v>
       </c>
       <c r="I73" t="n">
-        <v>0.402777777777778</v>
+        <v>10.31578947368421</v>
       </c>
       <c r="J73" t="n">
-        <v>0.47953216374269</v>
+        <v>10.89473684210526</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot_conceded</t>
+          <t>team_season_obv_dribble_carry_pg</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.08245319742684669</v>
+        <v>0.8065273571481258</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09463718300299523</v>
+        <v>0.7289224473664589</v>
       </c>
       <c r="D74" t="n">
-        <v>1.147768503301019</v>
+        <v>0.867786688089742</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01136294447389356</v>
+        <v>0.103220786937567</v>
       </c>
       <c r="F74" t="n">
-        <v>0.007612571082619824</v>
+        <v>0.08226557554531512</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0738838321030742</v>
+        <v>0.6972802856348848</v>
       </c>
       <c r="H74" t="n">
-        <v>0.08042608342498044</v>
+        <v>0.6132858599487104</v>
       </c>
       <c r="I74" t="n">
-        <v>0.09586237532846775</v>
+        <v>0.9475320781532087</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1115930764982016</v>
+        <v>0.8707524969389564</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick</t>
+          <t>team_season_possession</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.04241008922278357</v>
+        <v>0.5209658215928941</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04829041282770179</v>
+        <v>0.4930135460442348</v>
       </c>
       <c r="D75" t="n">
-        <v>1.138653884315791</v>
+        <v>0.8674651062570142</v>
       </c>
       <c r="E75" t="n">
-        <v>0.007112332543584681</v>
+        <v>0.0283193687546016</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0210188048403927</v>
+        <v>0.03232471795898762</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03152032967271476</v>
+        <v>0.4874342725958233</v>
       </c>
       <c r="H75" t="n">
-        <v>0.02756790424648084</v>
+        <v>0.4574381559190046</v>
       </c>
       <c r="I75" t="n">
-        <v>0.05057425796985626</v>
+        <v>0.552454990547227</v>
       </c>
       <c r="J75" t="n">
-        <v>0.09368851780891418</v>
+        <v>0.5598803530245049</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>team_season_corners_pg</t>
+          <t>team_season_fhalf_pressures_pg</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.778805120910384</v>
+        <v>73.1615931721195</v>
       </c>
       <c r="C76" t="n">
-        <v>4.198672356567093</v>
+        <v>65.66804172593646</v>
       </c>
       <c r="D76" t="n">
-        <v>1.138170525127047</v>
+        <v>0.8531841417759047</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4914177998612436</v>
+        <v>8.270746026677482</v>
       </c>
       <c r="F76" t="n">
-        <v>0.636435823521334</v>
+        <v>8.695813282959245</v>
       </c>
       <c r="G76" t="n">
-        <v>3.972972972972973</v>
+        <v>62.05263157894737</v>
       </c>
       <c r="H76" t="n">
-        <v>3.236842105263158</v>
+        <v>57.10526315789474</v>
       </c>
       <c r="I76" t="n">
-        <v>5.263157894736842</v>
+        <v>80.92105263157895</v>
       </c>
       <c r="J76" t="n">
-        <v>5.421052631578948</v>
+        <v>91.68421052631579</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goal_ratio_conceded</t>
+          <t>team_season_high_press_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.004752639052940442</v>
+        <v>2.012375533428165</v>
       </c>
       <c r="C77" t="n">
-        <v>0.005404538082167351</v>
+        <v>2.424134660976767</v>
       </c>
       <c r="D77" t="n">
-        <v>1.137165692989789</v>
+        <v>0.8503362447250848</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001429631049359236</v>
+        <v>0.2426741072842627</v>
       </c>
       <c r="F77" t="n">
-        <v>0.001408341066986742</v>
+        <v>0.5222364985906682</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0031328320802005</v>
+        <v>1.710526315789474</v>
       </c>
       <c r="H77" t="n">
-        <v>0.00290360046457607</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="I77" t="n">
-        <v>0.00643086816720257</v>
+        <v>2.351351351351351</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0074673304293715</v>
+        <v>3.578947368421053</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_pg</t>
+          <t>team_season_defensive_action_regains_pg</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>8.794879089615931</v>
+        <v>48.98406827880512</v>
       </c>
       <c r="C78" t="n">
-        <v>7.763252726410621</v>
+        <v>51.20616405879564</v>
       </c>
       <c r="D78" t="n">
-        <v>1.132885840453926</v>
+        <v>0.841149486406317</v>
       </c>
       <c r="E78" t="n">
-        <v>1.182694662844157</v>
+        <v>2.61068270236834</v>
       </c>
       <c r="F78" t="n">
-        <v>1.132214452779214</v>
+        <v>2.588386522874366</v>
       </c>
       <c r="G78" t="n">
-        <v>7</v>
+        <v>46.60526315789474</v>
       </c>
       <c r="H78" t="n">
-        <v>6.105263157894737</v>
+        <v>47.51351351351352</v>
       </c>
       <c r="I78" t="n">
-        <v>10.31578947368421</v>
+        <v>52.5</v>
       </c>
       <c r="J78" t="n">
-        <v>10.89473684210526</v>
+        <v>55.78947368421053</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goals_pg_conceded</t>
+          <t>team_season_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.195448079658606</v>
+        <v>0.05914374089587741</v>
       </c>
       <c r="C79" t="n">
-        <v>0.221289710763395</v>
+        <v>0.04738185535429135</v>
       </c>
       <c r="D79" t="n">
-        <v>1.132217370208636</v>
+        <v>0.8230402752194244</v>
       </c>
       <c r="E79" t="n">
-        <v>0.05967066899886803</v>
+        <v>0.01420810299589941</v>
       </c>
       <c r="F79" t="n">
-        <v>0.05829413037975825</v>
+        <v>0.01403633910331051</v>
       </c>
       <c r="G79" t="n">
-        <v>0.131578947368421</v>
+        <v>0.04107142857142857</v>
       </c>
       <c r="H79" t="n">
-        <v>0.131578947368421</v>
+        <v>0.02389705882352941</v>
       </c>
       <c r="I79" t="n">
-        <v>0.263157894736842</v>
+        <v>0.07380073800738007</v>
       </c>
       <c r="J79" t="n">
-        <v>0.315789473684211</v>
+        <v>0.073558648111332</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_progressions_conceded_pg</t>
+          <t>team_season_np_xg_pg</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>35.74267425320058</v>
+        <v>1.103171941829821</v>
       </c>
       <c r="C80" t="n">
-        <v>40.42555713608345</v>
+        <v>0.9919320352654595</v>
       </c>
       <c r="D80" t="n">
-        <v>1.131016578382172</v>
+        <v>0.8146326018205446</v>
       </c>
       <c r="E80" t="n">
-        <v>2.902250324410919</v>
+        <v>0.07284498381395757</v>
       </c>
       <c r="F80" t="n">
-        <v>4.776477313753235</v>
+        <v>0.1476726665695936</v>
       </c>
       <c r="G80" t="n">
-        <v>33.73684210526316</v>
+        <v>1.00452613026688</v>
       </c>
       <c r="H80" t="n">
-        <v>32.1578947368421</v>
+        <v>0.8020262206728394</v>
       </c>
       <c r="I80" t="n">
-        <v>40.78947368421053</v>
+        <v>1.198311121840226</v>
       </c>
       <c r="J80" t="n">
-        <v>46.94736842105263</v>
+        <v>1.361912978715018</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_free_kicks_conceded_pg</t>
+          <t>team_season_aggression</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.06330014224751065</v>
+        <v>0.1999560304047538</v>
       </c>
       <c r="C81" t="n">
-        <v>0.05623518255097202</v>
+        <v>0.1845289319314765</v>
       </c>
       <c r="D81" t="n">
-        <v>1.125632377740303</v>
+        <v>0.8116585400509485</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03974666289515752</v>
+        <v>0.02191307803818892</v>
       </c>
       <c r="F81" t="n">
-        <v>0.03961231669154284</v>
+        <v>0.01775229771387459</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.167601683029453</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.1615301139446554</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.22116317561783</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2163106796116505</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_shot_ratio_conceded</t>
+          <t>team_season_shots_from_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.05465626185239523</v>
+        <v>0.8409672830725462</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04869497082586237</v>
+        <v>0.7043622569938358</v>
       </c>
       <c r="D82" t="n">
-        <v>1.122421082206846</v>
+        <v>0.8026093760975984</v>
       </c>
       <c r="E82" t="n">
-        <v>0.01096132152749319</v>
+        <v>0.1360441463979478</v>
       </c>
       <c r="F82" t="n">
-        <v>0.01231794732089645</v>
+        <v>0.1763434114820388</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0376766091051805</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0253164556962025</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0673267326732673</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0694980694980695</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_pg</t>
+          <t>team_season_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>73.1615931721195</v>
+        <v>15.5425320056899</v>
       </c>
       <c r="C83" t="n">
-        <v>65.66804172593646</v>
+        <v>14.50559506875296</v>
       </c>
       <c r="D83" t="n">
-        <v>1.114112607125657</v>
+        <v>0.8021815231535598</v>
       </c>
       <c r="E83" t="n">
-        <v>8.270746026677482</v>
+        <v>1.432359452797582</v>
       </c>
       <c r="F83" t="n">
-        <v>8.695813282959245</v>
+        <v>1.229980510938865</v>
       </c>
       <c r="G83" t="n">
-        <v>62.05263157894737</v>
+        <v>13.2894736842105</v>
       </c>
       <c r="H83" t="n">
-        <v>57.10526315789474</v>
+        <v>12.2105263157895</v>
       </c>
       <c r="I83" t="n">
-        <v>80.92105263157895</v>
+        <v>16.7631578947368</v>
       </c>
       <c r="J83" t="n">
-        <v>91.68421052631579</v>
+        <v>16.6315789473684</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_pg</t>
+          <t>team_season_penalties_won_pg</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1.103171941829821</v>
+        <v>0.1961593172119488</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9919320352654595</v>
+        <v>0.1458511142721669</v>
       </c>
       <c r="D84" t="n">
-        <v>1.112144685935657</v>
+        <v>0.8008157996898604</v>
       </c>
       <c r="E84" t="n">
-        <v>0.07284498381395757</v>
+        <v>0.07286176603370031</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1476726665695936</v>
+        <v>0.05867815524758056</v>
       </c>
       <c r="G84" t="n">
-        <v>1.00452613026688</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8020262206728394</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="I84" t="n">
-        <v>1.198311121840226</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="J84" t="n">
-        <v>1.361912978715018</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_defensive_action_pg</t>
+          <t>team_season_obv_gk_conceded_pg</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2533709284401688</v>
+        <v>-0.159389677296749</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2278888643471522</v>
+        <v>-0.06843356554041315</v>
       </c>
       <c r="D85" t="n">
-        <v>1.111817943215509</v>
+        <v>0.7867598695765562</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1078458670590433</v>
+        <v>0.143257270016234</v>
       </c>
       <c r="F85" t="n">
-        <v>0.07377395983044792</v>
+        <v>0.1049462524267176</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08201460834396512</v>
+        <v>-0.3562100908081782</v>
       </c>
       <c r="H85" t="n">
-        <v>0.09838022860257249</v>
+        <v>-0.2185716114104971</v>
       </c>
       <c r="I85" t="n">
-        <v>0.379871645816476</v>
+        <v>-0.02011645464478312</v>
       </c>
       <c r="J85" t="n">
-        <v>0.365391076689488</v>
+        <v>0.09901437817865776</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_pg</t>
+          <t>team_season_possessions</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8065273571481258</v>
+        <v>188.1378378378378</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7289224473664589</v>
+        <v>192.0846372688478</v>
       </c>
       <c r="D86" t="n">
-        <v>1.106465248891768</v>
+        <v>0.7822342539319914</v>
       </c>
       <c r="E86" t="n">
-        <v>0.103220786937567</v>
+        <v>4.414405108855625</v>
       </c>
       <c r="F86" t="n">
-        <v>0.08226557554531512</v>
+        <v>5.160207197622282</v>
       </c>
       <c r="G86" t="n">
-        <v>0.6972802856348848</v>
+        <v>183.1842105263158</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6132858599487104</v>
+        <v>185.6052631578947</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9475320781532087</v>
+        <v>195.0263157894737</v>
       </c>
       <c r="J86" t="n">
-        <v>0.8707524969389564</v>
+        <v>203.3684210526316</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>team_season_yellow_cards_pg</t>
+          <t>team_season_opposition_own_goals_pg</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1.97724039829303</v>
+        <v>0.05277382645803699</v>
       </c>
       <c r="C87" t="n">
-        <v>1.790943575154101</v>
+        <v>0.03342816500711237</v>
       </c>
       <c r="D87" t="n">
-        <v>1.104021603875989</v>
+        <v>0.754461912718981</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4280158220838058</v>
+        <v>0.03709156688734274</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2620588751874994</v>
+        <v>0.02111754520469447</v>
       </c>
       <c r="G87" t="n">
-        <v>1.552631578947368</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1.394736842105263</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>2.5</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J87" t="n">
-        <v>2.263157894736842</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_shot_ratio</t>
+          <t>team_season_obv_shot_conceded_pg</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.4304317296782395</v>
+        <v>-0.1352750901429573</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3899785537413913</v>
+        <v>-0.07326171785520612</v>
       </c>
       <c r="D88" t="n">
-        <v>1.103731796399435</v>
+        <v>0.7232249654825387</v>
       </c>
       <c r="E88" t="n">
-        <v>0.04718281677554785</v>
+        <v>0.05384223093208308</v>
       </c>
       <c r="F88" t="n">
-        <v>0.04218071235526199</v>
+        <v>0.09297813152539917</v>
       </c>
       <c r="G88" t="n">
-        <v>0.39</v>
+        <v>-0.1957064420488235</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3043478260869565</v>
+        <v>-0.2573062454497343</v>
       </c>
       <c r="I88" t="n">
-        <v>0.4842105263157895</v>
+        <v>-0.06954894175654963</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4803149606299212</v>
+        <v>0.08078435808420181</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_pass_distance</t>
+          <t>team_season_penalty_goals_pg</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>36.87284172661865</v>
+        <v>0.1590327169274538</v>
       </c>
       <c r="C89" t="n">
-        <v>40.66749394794231</v>
+        <v>0.1195353247984827</v>
       </c>
       <c r="D89" t="n">
-        <v>1.10291184632467</v>
+        <v>0.7186923572690802</v>
       </c>
       <c r="E89" t="n">
-        <v>4.242436128717568</v>
+        <v>0.05720622960337747</v>
       </c>
       <c r="F89" t="n">
-        <v>3.864989242266917</v>
+        <v>0.05442276484457526</v>
       </c>
       <c r="G89" t="n">
-        <v>30.92665943642506</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="H89" t="n">
-        <v>33.10904541015625</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I89" t="n">
-        <v>41.02595523286938</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="J89" t="n">
-        <v>47.21003178758414</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_ratio</t>
+          <t>team_season_direct_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.4840015166367297</v>
+        <v>0.01578890262582308</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4392414592572608</v>
+        <v>0.025208978419779</v>
       </c>
       <c r="D90" t="n">
-        <v>1.101903079584419</v>
+        <v>0.7170826572826622</v>
       </c>
       <c r="E90" t="n">
-        <v>0.03063813716647686</v>
+        <v>0.003781946280711056</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04068775293743556</v>
+        <v>0.01478769001104661</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4482037635430526</v>
+        <v>0.0105801115400697</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3954437266235974</v>
+        <v>0.00603294519609527</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5324512783836939</v>
+        <v>0.019773480359857</v>
       </c>
       <c r="J90" t="n">
-        <v>0.5553961421967161</v>
+        <v>0.0572634709043134</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_conceded_pg</t>
+          <t>team_season_obv_defensive_action_conceded_pg</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.696048224168521</v>
+        <v>0.1857083870744489</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7658697568671491</v>
+        <v>0.2498913498156853</v>
       </c>
       <c r="D91" t="n">
-        <v>1.100311343775117</v>
+        <v>0.6912529552453404</v>
       </c>
       <c r="E91" t="n">
-        <v>0.07801708139003774</v>
+        <v>0.1126458966585873</v>
       </c>
       <c r="F91" t="n">
-        <v>0.06350650952712547</v>
+        <v>0.08710370927477562</v>
       </c>
       <c r="G91" t="n">
-        <v>0.635995237573393</v>
+        <v>0.05018676175294738</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6473243707104733</v>
+        <v>0.1179374253024926</v>
       </c>
       <c r="I91" t="n">
-        <v>0.8144671200094996</v>
+        <v>0.3554884582561882</v>
       </c>
       <c r="J91" t="n">
-        <v>0.8622440182064709</v>
+        <v>0.4064284993433638</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_progressions_pg</t>
+          <t>team_season_shots_from_free_kicks_pg</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>41.9950213371266</v>
+        <v>0.8453769559032717</v>
       </c>
       <c r="C92" t="n">
-        <v>38.34011379800852</v>
+        <v>0.7038880986249407</v>
       </c>
       <c r="D92" t="n">
-        <v>1.095328552188802</v>
+        <v>0.6825969879765816</v>
       </c>
       <c r="E92" t="n">
-        <v>2.41270486145257</v>
+        <v>0.155196206329279</v>
       </c>
       <c r="F92" t="n">
-        <v>4.153136899240347</v>
+        <v>0.221663640173784</v>
       </c>
       <c r="G92" t="n">
-        <v>38.39473684210526</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H92" t="n">
-        <v>32.47368421052632</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="I92" t="n">
-        <v>44.28947368421053</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="J92" t="n">
-        <v>45.44736842105263</v>
+        <v>1.216216216216216</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_passes_conceded_pg</t>
+          <t>team_season_shots_from_direct_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>356.2449502133713</v>
+        <v>0.4438122332859175</v>
       </c>
       <c r="C93" t="n">
-        <v>386.6132290184922</v>
+        <v>0.5503556187766715</v>
       </c>
       <c r="D93" t="n">
-        <v>1.085245499724086</v>
+        <v>0.6763512000335391</v>
       </c>
       <c r="E93" t="n">
-        <v>20.4782606051182</v>
+        <v>0.09094250594294367</v>
       </c>
       <c r="F93" t="n">
-        <v>30.42144353630043</v>
+        <v>0.1733376325985316</v>
       </c>
       <c r="G93" t="n">
-        <v>335.5526315789473</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="H93" t="n">
-        <v>308.4736842105263</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="I93" t="n">
-        <v>387.8947368421053</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="J93" t="n">
-        <v>429.3157894736842</v>
+        <v>0.868421052631579</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>team_season_aggression</t>
+          <t>team_season_successful_passes_pg</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1999560304047538</v>
+        <v>399.4644381223328</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1845289319314765</v>
+        <v>372.2061640587956</v>
       </c>
       <c r="D94" t="n">
-        <v>1.083602599938128</v>
+        <v>0.6604168818064107</v>
       </c>
       <c r="E94" t="n">
-        <v>0.02191307803818892</v>
+        <v>41.72564933936624</v>
       </c>
       <c r="F94" t="n">
-        <v>0.01775229771387459</v>
+        <v>41.67991192156958</v>
       </c>
       <c r="G94" t="n">
-        <v>0.167601683029453</v>
+        <v>333.8684210526316</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1615301139446554</v>
+        <v>315.5135135135135</v>
       </c>
       <c r="I94" t="n">
-        <v>0.22116317561783</v>
+        <v>442.3684210526316</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2163106796116505</v>
+        <v>457.3947368421053</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_passes_conceded_pg</t>
+          <t>team_season_op_passes_pg</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>405.1524893314367</v>
+        <v>447.7385490753912</v>
       </c>
       <c r="C95" t="n">
-        <v>436.8374585111427</v>
+        <v>422.6387387387387</v>
       </c>
       <c r="D95" t="n">
-        <v>1.078205046282675</v>
+        <v>0.6578748702038308</v>
       </c>
       <c r="E95" t="n">
-        <v>22.52636992381151</v>
+        <v>39.48039838071117</v>
       </c>
       <c r="F95" t="n">
-        <v>32.4455200296788</v>
+        <v>38.2804604572659</v>
       </c>
       <c r="G95" t="n">
-        <v>381.9473684210527</v>
+        <v>385.8421052631579</v>
       </c>
       <c r="H95" t="n">
-        <v>353.1578947368421</v>
+        <v>364.0810810810811</v>
       </c>
       <c r="I95" t="n">
-        <v>439.3947368421053</v>
+        <v>488.4736842105263</v>
       </c>
       <c r="J95" t="n">
-        <v>481.421052631579</v>
+        <v>503.6842105263158</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pass_pg</t>
+          <t>team_season_direct_free_kick_goals_pg</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.7344858645722482</v>
+        <v>0.04793741109530583</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6817110416743042</v>
+        <v>0.02456140350877193</v>
       </c>
       <c r="D96" t="n">
-        <v>1.077415238527349</v>
+        <v>0.6515232206132316</v>
       </c>
       <c r="E96" t="n">
-        <v>0.08062556774437998</v>
+        <v>0.04795872237981098</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09978721382108571</v>
+        <v>0.03217892859396883</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6463170304502311</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.496091048380262</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.8459910798915907</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="J96" t="n">
-        <v>0.8554961112769026</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_passes_pg</t>
+          <t>team_season_passes_pg</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>399.4644381223328</v>
+        <v>496.872546230441</v>
       </c>
       <c r="C97" t="n">
-        <v>372.2061640587956</v>
+        <v>473.0310099573257</v>
       </c>
       <c r="D97" t="n">
-        <v>1.073234343478609</v>
+        <v>0.6470051087636075</v>
       </c>
       <c r="E97" t="n">
-        <v>41.72564933936624</v>
+        <v>37.89308911729716</v>
       </c>
       <c r="F97" t="n">
-        <v>41.67991192156958</v>
+        <v>37.11176466927584</v>
       </c>
       <c r="G97" t="n">
-        <v>333.8684210526316</v>
+        <v>438.4473684210527</v>
       </c>
       <c r="H97" t="n">
-        <v>315.5135135135135</v>
+        <v>414.6756756756757</v>
       </c>
       <c r="I97" t="n">
-        <v>442.3684210526316</v>
+        <v>536.6315789473684</v>
       </c>
       <c r="J97" t="n">
-        <v>457.3947368421053</v>
+        <v>551.2894736842105</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kicks_conceded_pg</t>
+          <t>team_season_direct_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>15.5425320056899</v>
+        <v>0.4227596017069702</v>
       </c>
       <c r="C98" t="n">
-        <v>14.50559506875296</v>
+        <v>0.5117117117117118</v>
       </c>
       <c r="D98" t="n">
-        <v>1.071485308394596</v>
+        <v>0.62556827834106</v>
       </c>
       <c r="E98" t="n">
-        <v>1.432359452797582</v>
+        <v>0.07383625574620148</v>
       </c>
       <c r="F98" t="n">
-        <v>1.229980510938865</v>
+        <v>0.1587685204376669</v>
       </c>
       <c r="G98" t="n">
-        <v>13.2894736842105</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="H98" t="n">
-        <v>12.2105263157895</v>
+        <v>0.236842105263158</v>
       </c>
       <c r="I98" t="n">
-        <v>16.7631578947368</v>
+        <v>0.5</v>
       </c>
       <c r="J98" t="n">
-        <v>16.6315789473684</v>
+        <v>0.815789473684211</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_conceded_outside_box_pg</t>
+          <t>team_season_passing_ratio</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3.002702702702703</v>
+        <v>0.8025181520115765</v>
       </c>
       <c r="C99" t="n">
-        <v>3.215599810336652</v>
+        <v>0.7851050322886171</v>
       </c>
       <c r="D99" t="n">
-        <v>1.070901827024807</v>
+        <v>0.6200708821314838</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4647782046355206</v>
+        <v>0.02534504921785127</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5596161176657912</v>
+        <v>0.02935734217157304</v>
       </c>
       <c r="G99" t="n">
-        <v>2.473684210526316</v>
+        <v>0.7614789028269612</v>
       </c>
       <c r="H99" t="n">
-        <v>2.052631578947369</v>
+        <v>0.7157709251101322</v>
       </c>
       <c r="I99" t="n">
-        <v>3.513513513513514</v>
+        <v>0.824342879560612</v>
       </c>
       <c r="J99" t="n">
-        <v>4.631578947368421</v>
+        <v>0.829681607713972</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_crosses_into_box_pg</t>
+          <t>team_season_yellow_cards_pg</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2.32873399715505</v>
+        <v>1.97724039829303</v>
       </c>
       <c r="C100" t="n">
-        <v>2.176434329065907</v>
+        <v>1.790943575154101</v>
       </c>
       <c r="D100" t="n">
-        <v>1.069976688961025</v>
+        <v>0.6168249031001883</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1286488955840505</v>
+        <v>0.4280158220838058</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5366423159959157</v>
+        <v>0.2620588751874994</v>
       </c>
       <c r="G100" t="n">
-        <v>2.184210526315789</v>
+        <v>1.552631578947368</v>
       </c>
       <c r="H100" t="n">
-        <v>1.236842105263158</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="I100" t="n">
-        <v>2.45945945945946</v>
+        <v>2.5</v>
       </c>
       <c r="J100" t="n">
-        <v>3.210526315789474</v>
+        <v>2.263157894736842</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>team_season_completed_dribbles_pg</t>
+          <t>team_season_direct_free_kicks_pg</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>7.383214793741109</v>
+        <v>0.5665718349928877</v>
       </c>
       <c r="C101" t="n">
-        <v>7.898055950687529</v>
+        <v>0.4636320531057372</v>
       </c>
       <c r="D101" t="n">
-        <v>1.069731298808056</v>
+        <v>0.5972774313938376</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8058631266652144</v>
+        <v>0.1808478651147601</v>
       </c>
       <c r="F101" t="n">
-        <v>1.200312531496986</v>
+        <v>0.1739289782710295</v>
       </c>
       <c r="G101" t="n">
-        <v>6.105263157894737</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H101" t="n">
-        <v>5.891891891891892</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="I101" t="n">
-        <v>8.131578947368421</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="J101" t="n">
-        <v>10.05263157894737</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_conceded_pg</t>
+          <t>team_season_obv_pass_pg</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.06750268410827705</v>
+        <v>0.7344858645722482</v>
       </c>
       <c r="C102" t="n">
-        <v>0.06321220891839427</v>
+        <v>0.6817110416743042</v>
       </c>
       <c r="D102" t="n">
-        <v>1.067874153795538</v>
+        <v>0.5628194821695096</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01711306512660571</v>
+        <v>0.08062556774437998</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0163445005920072</v>
+        <v>0.09978721382108571</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0492076493407551</v>
+        <v>0.6463170304502311</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0299881069283736</v>
+        <v>0.496091048380262</v>
       </c>
       <c r="I102" t="n">
-        <v>0.09028581078899529</v>
+        <v>0.8459910798915907</v>
       </c>
       <c r="J102" t="n">
-        <v>0.08354576012903921</v>
+        <v>0.8554961112769026</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_conceded_pg</t>
+          <t>team_season_xg_per_direct_free_kick_conceded</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.03186344238975818</v>
+        <v>0.0375747205326613</v>
       </c>
       <c r="C103" t="n">
-        <v>0.02987197724039829</v>
+        <v>0.0472866322733065</v>
       </c>
       <c r="D103" t="n">
-        <v>1.066666666666667</v>
+        <v>0.5534840757349571</v>
       </c>
       <c r="E103" t="n">
-        <v>0.01240492903591633</v>
+        <v>0.007718593177623416</v>
       </c>
       <c r="F103" t="n">
-        <v>0.01955025573884892</v>
+        <v>0.0199389064177986</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0287174454757145</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>0.0254724356863234</v>
       </c>
       <c r="I103" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0445162753264109</v>
       </c>
       <c r="J103" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.08973199670965019</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>team_season_dribble_ratio</t>
+          <t>team_season_counter_attacking_shots_pg</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.4979592439999999</v>
+        <v>1.154765291607397</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5308531820000001</v>
+        <v>1.002892366050261</v>
       </c>
       <c r="D104" t="n">
-        <v>1.066057490439921</v>
+        <v>0.5411886052846779</v>
       </c>
       <c r="E104" t="n">
-        <v>0.01460349518880429</v>
+        <v>0.3680427903783116</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0316475575674019</v>
+        <v>0.2600452553460588</v>
       </c>
       <c r="G104" t="n">
-        <v>0.48033127</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="H104" t="n">
-        <v>0.490991</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="I104" t="n">
-        <v>0.51978415</v>
+        <v>1.421052631578947</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5949821</v>
+        <v>1.657894736842105</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_pg</t>
+          <t>team_season_direct_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.8204841884311452</v>
+        <v>1.041333333333332</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7699822305374452</v>
+        <v>1.096894985047159</v>
       </c>
       <c r="D105" t="n">
-        <v>1.065588471903371</v>
+        <v>0.5405252187995425</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1175782845456682</v>
+        <v>0.0416733328000836</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1406874050068023</v>
+        <v>0.1173518817901146</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6976644757546877</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5904577201918552</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9972485484261262</v>
+        <v>1.08333333333333</v>
       </c>
       <c r="J105" t="n">
-        <v>1.13598379375119</v>
+        <v>1.44444444444444</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_conceded_pg</t>
+          <t>team_season_sp_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>456.5883357041251</v>
+        <v>15.80275992869056</v>
       </c>
       <c r="C106" t="n">
-        <v>486.4633475580844</v>
+        <v>15.32296729059635</v>
       </c>
       <c r="D106" t="n">
-        <v>1.065430957205439</v>
+        <v>0.5209150251883595</v>
       </c>
       <c r="E106" t="n">
-        <v>21.7612094491864</v>
+        <v>0.9610005582377206</v>
       </c>
       <c r="F106" t="n">
-        <v>31.54240465940695</v>
+        <v>0.9414879062819321</v>
       </c>
       <c r="G106" t="n">
-        <v>433.9736842105263</v>
+        <v>14.7233236437646</v>
       </c>
       <c r="H106" t="n">
-        <v>406.578947368421</v>
+        <v>13.75996301529255</v>
       </c>
       <c r="I106" t="n">
-        <v>487.8421052631579</v>
+        <v>16.62840033637153</v>
       </c>
       <c r="J106" t="n">
-        <v>524.7631578947369</v>
+        <v>17.44660740272672</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>team_season_failed_dribbles_pg</t>
+          <t>team_season_np_xg_per_shot</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>7.432716927453771</v>
+        <v>0.08923902960012699</v>
       </c>
       <c r="C107" t="n">
-        <v>6.979137031768612</v>
+        <v>0.09303412158678687</v>
       </c>
       <c r="D107" t="n">
-        <v>1.064990828181262</v>
+        <v>0.5126032682607802</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7068135167741796</v>
+        <v>0.004196375793871233</v>
       </c>
       <c r="F107" t="n">
-        <v>1.135184684706729</v>
+        <v>0.00833155455089705</v>
       </c>
       <c r="G107" t="n">
-        <v>6.605263157894737</v>
+        <v>0.08390160786736872</v>
       </c>
       <c r="H107" t="n">
-        <v>5.763157894736842</v>
+        <v>0.07829807553253576</v>
       </c>
       <c r="I107" t="n">
-        <v>8.315789473684211</v>
+        <v>0.09440671677557413</v>
       </c>
       <c r="J107" t="n">
-        <v>9.526315789473685</v>
+        <v>0.1131115939321835</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance_conceded</t>
+          <t>team_season_free_kick_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>18.77555763901573</v>
+        <v>0.05465626185239523</v>
       </c>
       <c r="C108" t="n">
-        <v>17.65415673011742</v>
+        <v>0.04869497082586237</v>
       </c>
       <c r="D108" t="n">
-        <v>1.063520502623908</v>
+        <v>0.5094830648981052</v>
       </c>
       <c r="E108" t="n">
-        <v>0.540694026038674</v>
+        <v>0.01096132152749319</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7061129169425066</v>
+        <v>0.01231794732089645</v>
       </c>
       <c r="G108" t="n">
-        <v>18.22215986449689</v>
+        <v>0.0376766091051805</v>
       </c>
       <c r="H108" t="n">
-        <v>16.28751572986577</v>
+        <v>0.0253164556962025</v>
       </c>
       <c r="I108" t="n">
-        <v>19.56235573508523</v>
+        <v>0.0673267326732673</v>
       </c>
       <c r="J108" t="n">
-        <v>18.74873987833659</v>
+        <v>0.0694980694980695</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_distance</t>
+          <t>team_season_direct_free_kick_goal_ratio</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>45.98673087252079</v>
+        <v>0.07755240027045299</v>
       </c>
       <c r="C109" t="n">
-        <v>43.40677234556971</v>
+        <v>0.04826660668765932</v>
       </c>
       <c r="D109" t="n">
-        <v>1.059436774206834</v>
+        <v>0.4825425858850976</v>
       </c>
       <c r="E109" t="n">
-        <v>1.348457645411541</v>
+        <v>0.07457928678241821</v>
       </c>
       <c r="F109" t="n">
-        <v>1.632248075456228</v>
+        <v>0.05867735906310621</v>
       </c>
       <c r="G109" t="n">
-        <v>44.18056530898876</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>40.32806318001978</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>47.59862161852362</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="J109" t="n">
-        <v>45.94654736751941</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_passes_pg</t>
+          <t>team_season_sp_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>447.7385490753912</v>
+        <v>0.004752639052940442</v>
       </c>
       <c r="C110" t="n">
-        <v>422.6387387387387</v>
+        <v>0.005404538082167351</v>
       </c>
       <c r="D110" t="n">
-        <v>1.059388333430004</v>
+        <v>0.4758452365088214</v>
       </c>
       <c r="E110" t="n">
-        <v>39.48039838071117</v>
+        <v>0.001429631049359236</v>
       </c>
       <c r="F110" t="n">
-        <v>38.2804604572659</v>
+        <v>0.001408341066986742</v>
       </c>
       <c r="G110" t="n">
-        <v>385.8421052631579</v>
+        <v>0.0031328320802005</v>
       </c>
       <c r="H110" t="n">
-        <v>364.0810810810811</v>
+        <v>0.00290360046457607</v>
       </c>
       <c r="I110" t="n">
-        <v>488.4736842105263</v>
+        <v>0.00643086816720257</v>
       </c>
       <c r="J110" t="n">
-        <v>503.6842105263158</v>
+        <v>0.0074673304293715</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>team_season_possession</t>
+          <t>team_season_shots_from_direct_free_kicks_pg</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.5209658215928941</v>
+        <v>0.5879089615931721</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4930135460442348</v>
+        <v>0.5023233760075865</v>
       </c>
       <c r="D111" t="n">
-        <v>1.056696769841191</v>
+        <v>0.475746142780225</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0283193687546016</v>
+        <v>0.1825752479348098</v>
       </c>
       <c r="F111" t="n">
-        <v>0.03232471795898762</v>
+        <v>0.1864057866673685</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4874342725958233</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H111" t="n">
-        <v>0.4574381559190046</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="I111" t="n">
-        <v>0.552454990547227</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="J111" t="n">
-        <v>0.5598803530245049</v>
+        <v>1.026315789473684</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio_conceded</t>
+          <t>team_season_completed_dribbles_pg</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.003451849836803496</v>
+        <v>7.383214793741109</v>
       </c>
       <c r="C112" t="n">
-        <v>0.00364138109270039</v>
+        <v>7.898055950687529</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05490715554197</v>
+        <v>0.4723299029360151</v>
       </c>
       <c r="E112" t="n">
-        <v>0.00158043632315697</v>
+        <v>0.8058631266652144</v>
       </c>
       <c r="F112" t="n">
-        <v>0.002210115475604772</v>
+        <v>1.200312531496986</v>
       </c>
       <c r="G112" t="n">
-        <v>0.00123609394313968</v>
+        <v>6.105263157894737</v>
       </c>
       <c r="H112" t="n">
-        <v>0.00115740740740741</v>
+        <v>5.891891891891892</v>
       </c>
       <c r="I112" t="n">
-        <v>0.00524246395806029</v>
+        <v>8.131578947368421</v>
       </c>
       <c r="J112" t="n">
-        <v>0.00774336283185841</v>
+        <v>10.05263157894737</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shot_distance_conceded</t>
+          <t>team_season_sp_goals_pg_conceded</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>17.92434253189885</v>
+        <v>0.195448079658606</v>
       </c>
       <c r="C113" t="n">
-        <v>16.9968705254353</v>
+        <v>0.221289710763395</v>
       </c>
       <c r="D113" t="n">
-        <v>1.054567221952748</v>
+        <v>0.4556769081187798</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6784246190423397</v>
+        <v>0.05967066899886803</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5925909644002981</v>
+        <v>0.05829413037975825</v>
       </c>
       <c r="G113" t="n">
-        <v>17.17245869252874</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H113" t="n">
-        <v>15.82269347540223</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="I113" t="n">
-        <v>18.71056105090726</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="J113" t="n">
-        <v>17.92082923228346</v>
+        <v>0.315789473684211</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_shot_ratio</t>
+          <t>team_season_goals_from_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.041333333333332</v>
+        <v>0.1002844950213371</v>
       </c>
       <c r="C114" t="n">
-        <v>1.096894985047159</v>
+        <v>0.1211474632527264</v>
       </c>
       <c r="D114" t="n">
-        <v>1.053356259648361</v>
+        <v>0.4492398605587766</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0416733328000836</v>
+        <v>0.03382306617901751</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1173518817901146</v>
+        <v>0.05135753361405132</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I114" t="n">
-        <v>1.08333333333333</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J114" t="n">
-        <v>1.44444444444444</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner</t>
+          <t>team_season_failed_dribbles_pg</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.03486690188110605</v>
+        <v>7.432716927453771</v>
       </c>
       <c r="C115" t="n">
-        <v>0.03310826523085147</v>
+        <v>6.979137031768612</v>
       </c>
       <c r="D115" t="n">
-        <v>1.053117752862987</v>
+        <v>0.4446555470873658</v>
       </c>
       <c r="E115" t="n">
-        <v>0.006680919953159091</v>
+        <v>0.7068135167741796</v>
       </c>
       <c r="F115" t="n">
-        <v>0.005049657705546315</v>
+        <v>1.135184684706729</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02387125931638579</v>
+        <v>6.605263157894737</v>
       </c>
       <c r="H115" t="n">
-        <v>0.02634798207329315</v>
+        <v>5.763157894736842</v>
       </c>
       <c r="I115" t="n">
-        <v>0.03978548244554169</v>
+        <v>8.315789473684211</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04258093991122403</v>
+        <v>9.526315789473685</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_pg</t>
+          <t>team_season_direct_free_kick_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>496.872546230441</v>
+        <v>1.045751633986928</v>
       </c>
       <c r="C116" t="n">
-        <v>473.0310099573257</v>
+        <v>1.072298283331556</v>
       </c>
       <c r="D116" t="n">
-        <v>1.050401634927203</v>
+        <v>0.4358261688919717</v>
       </c>
       <c r="E116" t="n">
-        <v>37.89308911729716</v>
+        <v>0.06269060814787861</v>
       </c>
       <c r="F116" t="n">
-        <v>37.11176466927584</v>
+        <v>0.06315517409082498</v>
       </c>
       <c r="G116" t="n">
-        <v>438.4473684210527</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>414.6756756756757</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>536.6315789473684</v>
+        <v>1.11764705882353</v>
       </c>
       <c r="J116" t="n">
-        <v>551.2894736842105</v>
+        <v>1.21052631578947</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>team_season_pace_towards_goal</t>
+          <t>team_season_box_cross_ratio</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2.565714603908058</v>
+        <v>0.3173393898752391</v>
       </c>
       <c r="C117" t="n">
-        <v>2.69485220736334</v>
+        <v>0.3310428482943265</v>
       </c>
       <c r="D117" t="n">
-        <v>1.050332021830714</v>
+        <v>0.4139161933625826</v>
       </c>
       <c r="E117" t="n">
-        <v>0.1248003007780193</v>
+        <v>0.01489547712701482</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1207749687053354</v>
+        <v>0.03810658659287039</v>
       </c>
       <c r="G117" t="n">
-        <v>2.421391665290863</v>
+        <v>0.3033953997809419</v>
       </c>
       <c r="H117" t="n">
-        <v>2.436029022314694</v>
+        <v>0.2639915522703273</v>
       </c>
       <c r="I117" t="n">
-        <v>2.712461346418006</v>
+        <v>0.3399638336347197</v>
       </c>
       <c r="J117" t="n">
-        <v>2.886319203122905</v>
+        <v>0.3919338159255429</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_pg</t>
+          <t>team_season_op_shots_conceded_outside_box_pg</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3.084779516358464</v>
+        <v>3.002702702702703</v>
       </c>
       <c r="C118" t="n">
-        <v>2.945898530109057</v>
+        <v>3.215599810336652</v>
       </c>
       <c r="D118" t="n">
-        <v>1.047143845869079</v>
+        <v>0.4090233795172369</v>
       </c>
       <c r="E118" t="n">
-        <v>0.52614838174161</v>
+        <v>0.4647782046355206</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5533281544869006</v>
+        <v>0.5596161176657912</v>
       </c>
       <c r="G118" t="n">
-        <v>2.210526315789474</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="H118" t="n">
         <v>2.052631578947369</v>
       </c>
       <c r="I118" t="n">
-        <v>3.578947368421053</v>
+        <v>3.513513513513514</v>
       </c>
       <c r="J118" t="n">
-        <v>4.078947368421052</v>
+        <v>4.631578947368421</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio_conceded</t>
+          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.004050806853787188</v>
+        <v>0.08102118040198543</v>
       </c>
       <c r="C119" t="n">
-        <v>0.003873020367702915</v>
+        <v>0.0621722046266414</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04590383452843</v>
+        <v>0.3890925917542533</v>
       </c>
       <c r="E119" t="n">
-        <v>0.00239680854388272</v>
+        <v>0.04841066693789016</v>
       </c>
       <c r="F119" t="n">
-        <v>0.002589321227583275</v>
+        <v>0.0508700116719769</v>
       </c>
       <c r="G119" t="n">
-        <v>0.00156985871271586</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.00662251655629139</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="J119" t="n">
-        <v>0.00993377483443709</v>
+        <v>0.181818181818182</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_ratio</t>
+          <t>team_season_op_xg_pg</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.7336794958010922</v>
+        <v>0.8204841884311452</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7015751483342064</v>
+        <v>0.7699822305374452</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04576038296555</v>
+        <v>0.3862184330026072</v>
       </c>
       <c r="E120" t="n">
-        <v>0.025184255342783</v>
+        <v>0.1175782845456682</v>
       </c>
       <c r="F120" t="n">
-        <v>0.03318968662773495</v>
+        <v>0.1406874050068023</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6964102564102564</v>
+        <v>0.6976644757546877</v>
       </c>
       <c r="H120" t="n">
-        <v>0.6455798864557989</v>
+        <v>0.5904577201918552</v>
       </c>
       <c r="I120" t="n">
-        <v>0.7545098039215686</v>
+        <v>0.9972485484261262</v>
       </c>
       <c r="J120" t="n">
-        <v>0.7477414871438499</v>
+        <v>1.13598379375119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_action_regains_pg</t>
+          <t>team_season_ball_in_play_time</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>48.98406827880512</v>
+        <v>52.368476</v>
       </c>
       <c r="C121" t="n">
-        <v>51.20616405879564</v>
+        <v>52.92756533333333</v>
       </c>
       <c r="D121" t="n">
-        <v>1.045363642875535</v>
+        <v>0.3586250321917838</v>
       </c>
       <c r="E121" t="n">
-        <v>2.61068270236834</v>
+        <v>1.736260345996534</v>
       </c>
       <c r="F121" t="n">
-        <v>2.588386522874366</v>
+        <v>1.589649749495272</v>
       </c>
       <c r="G121" t="n">
-        <v>46.60526315789474</v>
+        <v>49.724354</v>
       </c>
       <c r="H121" t="n">
-        <v>47.51351351351352</v>
+        <v>50.210266</v>
       </c>
       <c r="I121" t="n">
-        <v>52.5</v>
+        <v>54.297398</v>
       </c>
       <c r="J121" t="n">
-        <v>55.78947368421053</v>
+        <v>56.73982</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_conceded_pg</t>
+          <t>team_season_throw_in_shot_ratio</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.07411095305832148</v>
+        <v>0.004432869868167986</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0773352299668089</v>
+        <v>0.003255771681416016</v>
       </c>
       <c r="D122" t="n">
-        <v>1.043506078055022</v>
+        <v>0.3505013525293941</v>
       </c>
       <c r="E122" t="n">
-        <v>0.03440655312318475</v>
+        <v>0.004502411419393937</v>
       </c>
       <c r="F122" t="n">
-        <v>0.04819161480713841</v>
+        <v>0.003154186920112245</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.01109741060419235</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_in_clear_pg</t>
+          <t>team_season_throw_in_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2.085917496443812</v>
+        <v>0.004218717958582076</v>
       </c>
       <c r="C123" t="n">
-        <v>1.999288762446657</v>
+        <v>0.005506271613459733</v>
       </c>
       <c r="D123" t="n">
-        <v>1.043329775880469</v>
+        <v>0.3502374375038665</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3590423399214911</v>
+        <v>0.003548268534815144</v>
       </c>
       <c r="F123" t="n">
-        <v>0.3701834564010894</v>
+        <v>0.003907098762737227</v>
       </c>
       <c r="G123" t="n">
-        <v>1.710526315789474</v>
+        <v>0.000169488062199793</v>
       </c>
       <c r="H123" t="n">
-        <v>1.394736842105263</v>
+        <v>0.00112254476468814</v>
       </c>
       <c r="I123" t="n">
-        <v>2.526315789473684</v>
+        <v>0.00851406833451045</v>
       </c>
       <c r="J123" t="n">
-        <v>3.026315789473684</v>
+        <v>0.013834033725097</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>team_season_box_cross_ratio</t>
+          <t>team_season_xg_per_throw_in_conceded</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.3173393898752391</v>
+        <v>0.0002024814893852967</v>
       </c>
       <c r="C124" t="n">
-        <v>0.3310428482943265</v>
+        <v>0.000262217591185774</v>
       </c>
       <c r="D124" t="n">
-        <v>1.04318234312001</v>
+        <v>0.3365095436992773</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01489547712701482</v>
+        <v>0.0001785841961870599</v>
       </c>
       <c r="F124" t="n">
-        <v>0.03810658659287039</v>
+        <v>0.0001869479705534075</v>
       </c>
       <c r="G124" t="n">
-        <v>0.3033953997809419</v>
+        <v>7.961120350546541e-06</v>
       </c>
       <c r="H124" t="n">
-        <v>0.2639915522703273</v>
+        <v>4.93711817802654e-05</v>
       </c>
       <c r="I124" t="n">
-        <v>0.3399638336347197</v>
+        <v>0.000424029630258543</v>
       </c>
       <c r="J124" t="n">
-        <v>0.3919338159255429</v>
+        <v>0.0006990602358858639</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot</t>
+          <t>team_season_shots_from_throw_ins_pg</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.08923902960012699</v>
+        <v>0.09530583214793741</v>
       </c>
       <c r="C125" t="n">
-        <v>0.09303412158678687</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="D125" t="n">
-        <v>1.042527266417681</v>
+        <v>0.3364020307545032</v>
       </c>
       <c r="E125" t="n">
-        <v>0.004196375793871233</v>
+        <v>0.103015338845994</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00833155455089705</v>
+        <v>0.06864624174252958</v>
       </c>
       <c r="G125" t="n">
-        <v>0.08390160786736872</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0.07829807553253576</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.09440671677557413</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1131115939321835</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_box_cross_ratio</t>
+          <t>team_season_xg_per_corner</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.2545869872483378</v>
+        <v>0.03486690188110605</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2651024660747931</v>
+        <v>0.03310826523085147</v>
       </c>
       <c r="D126" t="n">
-        <v>1.041304070330185</v>
+        <v>0.3362393067623247</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0187353398406881</v>
+        <v>0.006680919953159091</v>
       </c>
       <c r="F126" t="n">
-        <v>0.03972953038821256</v>
+        <v>0.005049657705546315</v>
       </c>
       <c r="G126" t="n">
-        <v>0.2385057471264368</v>
+        <v>0.02387125931638579</v>
       </c>
       <c r="H126" t="n">
-        <v>0.1934156378600823</v>
+        <v>0.02634798207329315</v>
       </c>
       <c r="I126" t="n">
-        <v>0.2807570977917981</v>
+        <v>0.03978548244554169</v>
       </c>
       <c r="J126" t="n">
-        <v>0.3351648351648351</v>
+        <v>0.04258093991122403</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>team_season_second_yellow_cards_pg</t>
+          <t>team_season_successful_crosses_into_box_pg</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0422475106685633</v>
+        <v>2.32873399715505</v>
       </c>
       <c r="C127" t="n">
-        <v>0.04395448079658604</v>
+        <v>2.176434329065907</v>
       </c>
       <c r="D127" t="n">
-        <v>1.04040404040404</v>
+        <v>0.332941233909974</v>
       </c>
       <c r="E127" t="n">
-        <v>0.02342013575866305</v>
+        <v>0.1286488955840505</v>
       </c>
       <c r="F127" t="n">
-        <v>0.04062974815985809</v>
+        <v>0.5366423159959157</v>
       </c>
       <c r="G127" t="n">
-        <v>0.02631578947368421</v>
+        <v>2.184210526315789</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="I127" t="n">
-        <v>0.07894736842105263</v>
+        <v>2.45945945945946</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1578947368421053</v>
+        <v>3.210526315789474</v>
       </c>
     </row>
     <row r="128">
@@ -4777,7 +4778,7 @@
         <v>3.521289710763396</v>
       </c>
       <c r="D128" t="n">
-        <v>1.04000592480879</v>
+        <v>0.3324839793841755</v>
       </c>
       <c r="E128" t="n">
         <v>0.6707473556707799</v>
@@ -4811,7 +4812,7 @@
         <v>1.483417671981885</v>
       </c>
       <c r="D129" t="n">
-        <v>1.038536158321358</v>
+        <v>0.3309297849867145</v>
       </c>
       <c r="E129" t="n">
         <v>0.2145999616450131</v>
@@ -4835,1497 +4836,1463 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>team_season_opp_final_third_pass_ratio</t>
+          <t>team_season_xg_per_direct_free_kick</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.6057093829313427</v>
+        <v>0.04241008922278357</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6279787811215507</v>
+        <v>0.04829041282770179</v>
       </c>
       <c r="D130" t="n">
-        <v>1.036765813470537</v>
+        <v>0.3257541667662509</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01975835457050594</v>
+        <v>0.007112332543584681</v>
       </c>
       <c r="F130" t="n">
-        <v>0.02181351365797514</v>
+        <v>0.0210188048403927</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5822132616487455</v>
+        <v>0.03152032967271476</v>
       </c>
       <c r="H130" t="n">
-        <v>0.568018018018018</v>
+        <v>0.02756790424648084</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6322652757078987</v>
+        <v>0.05057425796985626</v>
       </c>
       <c r="J130" t="n">
-        <v>0.6551893753074275</v>
+        <v>0.09368851780891418</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>team_season_completed_dribbles_conceded_pg</t>
+          <t>team_season_obv_defensive_action_pg</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>7.578378378378379</v>
+        <v>0.2533709284401688</v>
       </c>
       <c r="C131" t="n">
-        <v>7.833712660028449</v>
+        <v>0.2278888643471522</v>
       </c>
       <c r="D131" t="n">
-        <v>1.03369246940461</v>
+        <v>0.322126702158913</v>
       </c>
       <c r="E131" t="n">
-        <v>0.751661911619495</v>
+        <v>0.1078458670590433</v>
       </c>
       <c r="F131" t="n">
-        <v>1.040216026435176</v>
+        <v>0.07377395983044792</v>
       </c>
       <c r="G131" t="n">
-        <v>6.552631578947368</v>
+        <v>0.08201460834396512</v>
       </c>
       <c r="H131" t="n">
-        <v>6.216216216216216</v>
+        <v>0.09838022860257249</v>
       </c>
       <c r="I131" t="n">
-        <v>8.526315789473685</v>
+        <v>0.379871645816476</v>
       </c>
       <c r="J131" t="n">
-        <v>9.184210526315789</v>
+        <v>0.365391076689488</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_distance_conceded</t>
+          <t>team_season_successful_box_cross_ratio</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>15.80275992869056</v>
+        <v>0.2545869872483378</v>
       </c>
       <c r="C132" t="n">
-        <v>15.32296729059635</v>
+        <v>0.2651024660747931</v>
       </c>
       <c r="D132" t="n">
-        <v>1.031311992579182</v>
+        <v>0.3040832148881201</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9610005582377206</v>
+        <v>0.0187353398406881</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9414879062819321</v>
+        <v>0.03972953038821256</v>
       </c>
       <c r="G132" t="n">
-        <v>14.7233236437646</v>
+        <v>0.2385057471264368</v>
       </c>
       <c r="H132" t="n">
-        <v>13.75996301529255</v>
+        <v>0.1934156378600823</v>
       </c>
       <c r="I132" t="n">
-        <v>16.62840033637153</v>
+        <v>0.2807570977917981</v>
       </c>
       <c r="J132" t="n">
-        <v>17.44660740272672</v>
+        <v>0.3351648351648351</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>team_season_total_dribbles_conceded_pg</t>
+          <t>team_season_red_cards_pg</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>14.54736842105263</v>
+        <v>0.09004267425320056</v>
       </c>
       <c r="C133" t="n">
-        <v>14.96761498340446</v>
+        <v>0.07558084400189663</v>
       </c>
       <c r="D133" t="n">
-        <v>1.028888150089308</v>
+        <v>0.3019852029013271</v>
       </c>
       <c r="E133" t="n">
-        <v>1.587847721858628</v>
+        <v>0.04805619045621028</v>
       </c>
       <c r="F133" t="n">
-        <v>1.563188175104469</v>
+        <v>0.05060041696761707</v>
       </c>
       <c r="G133" t="n">
-        <v>12.57894736842105</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H133" t="n">
-        <v>12.54054054054054</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>16.92105263157895</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J133" t="n">
-        <v>17.02631578947368</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_goal_ratio</t>
+          <t>team_season_counterpressures_pg</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.0004545454545454545</v>
+        <v>31.80355618776671</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0004672995410099189</v>
+        <v>32.69250829777146</v>
       </c>
       <c r="D134" t="n">
-        <v>1.028058990221822</v>
+        <v>0.3005901108521531</v>
       </c>
       <c r="E134" t="n">
-        <v>0.001016394535227177</v>
+        <v>4.001577696594774</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0007566808014704117</v>
+        <v>2.776241877213583</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>25.65789473684211</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>27.72972972972973</v>
       </c>
       <c r="I134" t="n">
-        <v>0.002272727272727273</v>
+        <v>36.39473684210526</v>
       </c>
       <c r="J134" t="n">
-        <v>0.002466091245376079</v>
+        <v>37.94736842105263</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>team_season_counterpressures_pg</t>
+          <t>team_season_sp_shot_distance</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>31.80355618776671</v>
+        <v>15.17877120050878</v>
       </c>
       <c r="C135" t="n">
-        <v>32.69250829777146</v>
+        <v>15.49013576072277</v>
       </c>
       <c r="D135" t="n">
-        <v>1.027951343074857</v>
+        <v>0.2965549984043396</v>
       </c>
       <c r="E135" t="n">
-        <v>4.001577696594774</v>
+        <v>1.381053682838849</v>
       </c>
       <c r="F135" t="n">
-        <v>2.776241877213583</v>
+        <v>1.001949260014822</v>
       </c>
       <c r="G135" t="n">
-        <v>25.65789473684211</v>
+        <v>12.90068292942177</v>
       </c>
       <c r="H135" t="n">
-        <v>27.72972972972973</v>
+        <v>13.35630209614911</v>
       </c>
       <c r="I135" t="n">
-        <v>36.39473684210526</v>
+        <v>16.43471994707661</v>
       </c>
       <c r="J135" t="n">
-        <v>37.94736842105263</v>
+        <v>16.88436516411871</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>team_season_directness</t>
+          <t>team_season_total_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.8458475734406443</v>
+        <v>14.54736842105263</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8694863804321671</v>
+        <v>14.96761498340446</v>
       </c>
       <c r="D136" t="n">
-        <v>1.027946887517059</v>
+        <v>0.2802979523793805</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01383498685394317</v>
+        <v>1.587847721858628</v>
       </c>
       <c r="F136" t="n">
-        <v>0.01534999331743744</v>
+        <v>1.563188175104469</v>
       </c>
       <c r="G136" t="n">
-        <v>0.8279038997865458</v>
+        <v>12.57894736842105</v>
       </c>
       <c r="H136" t="n">
-        <v>0.8422425850716171</v>
+        <v>12.54054054054054</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8657191438383126</v>
+        <v>16.92105263157895</v>
       </c>
       <c r="J136" t="n">
-        <v>0.8990210083155861</v>
+        <v>17.02631578947368</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_long_pass_ratio</t>
+          <t>team_season_free_kicks_pg</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.443224966172015</v>
+        <v>14.49544807965861</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4312163966525753</v>
+        <v>14.86040777619725</v>
       </c>
       <c r="D137" t="n">
-        <v>1.027848128254536</v>
+        <v>0.2772576646276799</v>
       </c>
       <c r="E137" t="n">
-        <v>0.05074141725739217</v>
+        <v>1.439413254633643</v>
       </c>
       <c r="F137" t="n">
-        <v>0.05121883081375626</v>
+        <v>1.35927554169818</v>
       </c>
       <c r="G137" t="n">
-        <v>0.3891050583657588</v>
+        <v>12.18421052631579</v>
       </c>
       <c r="H137" t="n">
-        <v>0.3368010403120936</v>
+        <v>12.63157894736842</v>
       </c>
       <c r="I137" t="n">
-        <v>0.5261194029850746</v>
+        <v>16.02631578947368</v>
       </c>
       <c r="J137" t="n">
-        <v>0.5024311183144247</v>
+        <v>17.43243243243243</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_pg</t>
+          <t>team_season_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2.364580369843527</v>
+        <v>0.06750268410827705</v>
       </c>
       <c r="C138" t="n">
-        <v>2.305500237079184</v>
+        <v>0.06321220891839427</v>
       </c>
       <c r="D138" t="n">
-        <v>1.025625732677951</v>
+        <v>0.2718853576041521</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5114350943582132</v>
+        <v>0.01711306512660571</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4696904138871401</v>
+        <v>0.0163445005920072</v>
       </c>
       <c r="G138" t="n">
-        <v>1.526315789473684</v>
+        <v>0.0492076493407551</v>
       </c>
       <c r="H138" t="n">
-        <v>1.842105263157895</v>
+        <v>0.0299881069283736</v>
       </c>
       <c r="I138" t="n">
-        <v>2.842105263157895</v>
+        <v>0.09028581078899529</v>
       </c>
       <c r="J138" t="n">
-        <v>3.736842105263158</v>
+        <v>0.08354576012903921</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_shot_ratio_conceded</t>
+          <t>team_season_completed_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1.045751633986928</v>
+        <v>7.578378378378379</v>
       </c>
       <c r="C139" t="n">
-        <v>1.072298283331556</v>
+        <v>7.833712660028449</v>
       </c>
       <c r="D139" t="n">
-        <v>1.025385233435801</v>
+        <v>0.2717771434820597</v>
       </c>
       <c r="E139" t="n">
-        <v>0.06269060814787861</v>
+        <v>0.751661911619495</v>
       </c>
       <c r="F139" t="n">
-        <v>0.06315517409082498</v>
+        <v>1.040216026435176</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>6.552631578947368</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>6.216216216216216</v>
       </c>
       <c r="I139" t="n">
-        <v>1.11764705882353</v>
+        <v>8.526315789473685</v>
       </c>
       <c r="J139" t="n">
-        <v>1.21052631578947</v>
+        <v>9.184210526315789</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kicks_pg</t>
+          <t>team_season_deep_completions_pg</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>14.49544807965861</v>
+        <v>3.084779516358464</v>
       </c>
       <c r="C140" t="n">
-        <v>14.86040777619725</v>
+        <v>2.945898530109057</v>
       </c>
       <c r="D140" t="n">
-        <v>1.025177538116313</v>
+        <v>0.2656564225342549</v>
       </c>
       <c r="E140" t="n">
-        <v>1.439413254633643</v>
+        <v>0.52614838174161</v>
       </c>
       <c r="F140" t="n">
-        <v>1.35927554169818</v>
+        <v>0.5533281544869006</v>
       </c>
       <c r="G140" t="n">
-        <v>12.18421052631579</v>
+        <v>2.210526315789474</v>
       </c>
       <c r="H140" t="n">
-        <v>12.63157894736842</v>
+        <v>2.052631578947369</v>
       </c>
       <c r="I140" t="n">
-        <v>16.02631578947368</v>
+        <v>3.578947368421053</v>
       </c>
       <c r="J140" t="n">
-        <v>17.43243243243243</v>
+        <v>4.078947368421052</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_inside_box_pg</t>
+          <t>team_season_aggressive_actions_pg</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1.984779516358464</v>
+        <v>91.15206258890468</v>
       </c>
       <c r="C141" t="n">
-        <v>1.938501659554291</v>
+        <v>89.41659554291134</v>
       </c>
       <c r="D141" t="n">
-        <v>1.023873003448866</v>
+        <v>0.2470964345688412</v>
       </c>
       <c r="E141" t="n">
-        <v>0.4520275851727444</v>
+        <v>9.517321448192424</v>
       </c>
       <c r="F141" t="n">
-        <v>0.3868446642253781</v>
+        <v>6.61687349977651</v>
       </c>
       <c r="G141" t="n">
-        <v>1.236842105263158</v>
+        <v>81.76315789473684</v>
       </c>
       <c r="H141" t="n">
-        <v>1.447368421052632</v>
+        <v>80.45945945945945</v>
       </c>
       <c r="I141" t="n">
-        <v>2.421052631578947</v>
+        <v>101.9736842105263</v>
       </c>
       <c r="J141" t="n">
-        <v>2.657894736842105</v>
+        <v>102.2368421052632</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>team_season_failed_dribbles_conceded_pg</t>
+          <t>team_season_shots_in_clear_pg</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>6.968990042674252</v>
+        <v>2.085917496443812</v>
       </c>
       <c r="C142" t="n">
-        <v>7.133902323376008</v>
+        <v>1.999288762446657</v>
       </c>
       <c r="D142" t="n">
-        <v>1.023663727411278</v>
+        <v>0.2468922623038283</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9176566788084937</v>
+        <v>0.3590423399214911</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7013780374070181</v>
+        <v>0.3701834564010894</v>
       </c>
       <c r="G142" t="n">
-        <v>6.026315789473684</v>
+        <v>1.710526315789474</v>
       </c>
       <c r="H142" t="n">
-        <v>6.289473684210527</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="I142" t="n">
-        <v>8.394736842105264</v>
+        <v>2.526315789473684</v>
       </c>
       <c r="J142" t="n">
-        <v>8.368421052631579</v>
+        <v>3.026315789473684</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>team_season_passing_ratio</t>
+          <t>team_season_gk_long_pass_ratio</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.8025181520115765</v>
+        <v>0.443224966172015</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7851050322886171</v>
+        <v>0.4312163966525753</v>
       </c>
       <c r="D143" t="n">
-        <v>1.022179350541417</v>
+        <v>0.2462378281479649</v>
       </c>
       <c r="E143" t="n">
-        <v>0.02534504921785127</v>
+        <v>0.05074141725739217</v>
       </c>
       <c r="F143" t="n">
-        <v>0.02935734217157304</v>
+        <v>0.05121883081375626</v>
       </c>
       <c r="G143" t="n">
-        <v>0.7614789028269612</v>
+        <v>0.3891050583657588</v>
       </c>
       <c r="H143" t="n">
-        <v>0.7157709251101322</v>
+        <v>0.3368010403120936</v>
       </c>
       <c r="I143" t="n">
-        <v>0.824342879560612</v>
+        <v>0.5261194029850746</v>
       </c>
       <c r="J143" t="n">
-        <v>0.829681607713972</v>
+        <v>0.5024311183144247</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>team_season_possessions</t>
+          <t>team_season_failed_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>188.1378378378378</v>
+        <v>6.968990042674252</v>
       </c>
       <c r="C144" t="n">
-        <v>192.0846372688478</v>
+        <v>7.133902323376008</v>
       </c>
       <c r="D144" t="n">
-        <v>1.020978233173977</v>
+        <v>0.2291620482933862</v>
       </c>
       <c r="E144" t="n">
-        <v>4.414405108855625</v>
+        <v>0.9176566788084937</v>
       </c>
       <c r="F144" t="n">
-        <v>5.160207197622282</v>
+        <v>0.7013780374070181</v>
       </c>
       <c r="G144" t="n">
-        <v>183.1842105263158</v>
+        <v>6.026315789473684</v>
       </c>
       <c r="H144" t="n">
-        <v>185.6052631578947</v>
+        <v>6.289473684210527</v>
       </c>
       <c r="I144" t="n">
-        <v>195.0263157894737</v>
+        <v>8.394736842105264</v>
       </c>
       <c r="J144" t="n">
-        <v>203.3684210526316</v>
+        <v>8.368421052631579</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_distance</t>
+          <t>team_season_xg_per_throw_in</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>15.17877120050878</v>
+        <v>0.0001978573189164246</v>
       </c>
       <c r="C145" t="n">
-        <v>15.49013576072277</v>
+        <v>0.000246973995313287</v>
       </c>
       <c r="D145" t="n">
-        <v>1.020513159866561</v>
+        <v>0.2285386442700963</v>
       </c>
       <c r="E145" t="n">
-        <v>1.381053682838849</v>
+        <v>0.0002641797344035013</v>
       </c>
       <c r="F145" t="n">
-        <v>1.001949260014822</v>
+        <v>0.0002130676926197671</v>
       </c>
       <c r="G145" t="n">
-        <v>12.90068292942177</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>13.35630209614911</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>16.43471994707661</v>
+        <v>0.0006619653918526389</v>
       </c>
       <c r="J145" t="n">
-        <v>16.88436516411871</v>
+        <v>0.0007811334953355143</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_pg</t>
+          <t>team_season_throw_in_xg_pg</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>23.40554765291608</v>
+        <v>0.004448331041847107</v>
       </c>
       <c r="C146" t="n">
-        <v>22.95381697486961</v>
+        <v>0.005419667021006226</v>
       </c>
       <c r="D146" t="n">
-        <v>1.019679980830249</v>
+        <v>0.2029579548505752</v>
       </c>
       <c r="E146" t="n">
-        <v>3.600449282827434</v>
+        <v>0.006177314937627114</v>
       </c>
       <c r="F146" t="n">
-        <v>2.473014109604894</v>
+        <v>0.004643900201618732</v>
       </c>
       <c r="G146" t="n">
-        <v>17.86842105263158</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>20.15789473684211</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>27.18421052631579</v>
+        <v>0.01532972547666807</v>
       </c>
       <c r="J146" t="n">
-        <v>28.31578947368421</v>
+        <v>0.01667103137036688</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>team_season_crosses_into_box_pg</t>
+          <t>team_season_pressures_pg</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>8.613086770981507</v>
+        <v>151.1584637268848</v>
       </c>
       <c r="C147" t="n">
-        <v>8.448221906116643</v>
+        <v>149.2231389284021</v>
       </c>
       <c r="D147" t="n">
-        <v>1.019514741290768</v>
+        <v>0.1933053008431493</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8932802484628027</v>
+        <v>14.68324693764972</v>
       </c>
       <c r="F147" t="n">
-        <v>1.399837580979185</v>
+        <v>8.977221885468436</v>
       </c>
       <c r="G147" t="n">
-        <v>7.486486486486487</v>
+        <v>137.1081081081081</v>
       </c>
       <c r="H147" t="n">
-        <v>5.526315789473684</v>
+        <v>136.5</v>
       </c>
       <c r="I147" t="n">
-        <v>9.894736842105264</v>
+        <v>169.2894736842105</v>
       </c>
       <c r="J147" t="n">
-        <v>10.94736842105263</v>
+        <v>166.7894736842105</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>team_season_aggressive_actions_pg</t>
+          <t>team_season_goals_from_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>91.15206258890468</v>
+        <v>0.06330014224751065</v>
       </c>
       <c r="C148" t="n">
-        <v>89.41659554291134</v>
+        <v>0.05623518255097202</v>
       </c>
       <c r="D148" t="n">
-        <v>1.01940878016498</v>
+        <v>0.1872399141934469</v>
       </c>
       <c r="E148" t="n">
-        <v>9.517321448192424</v>
+        <v>0.03974666289515752</v>
       </c>
       <c r="F148" t="n">
-        <v>6.61687349977651</v>
+        <v>0.03961231669154284</v>
       </c>
       <c r="G148" t="n">
-        <v>81.76315789473684</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H148" t="n">
-        <v>80.45945945945945</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>101.9736842105263</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J148" t="n">
-        <v>102.2368421052632</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>team_season_opp_passing_ratio</t>
+          <t>team_season_fhalf_counterpressures_pg</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.7799827864623883</v>
+        <v>23.40554765291608</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7941009991295312</v>
+        <v>22.95381697486961</v>
       </c>
       <c r="D149" t="n">
-        <v>1.018100672107363</v>
+        <v>0.1718219886017566</v>
       </c>
       <c r="E149" t="n">
-        <v>0.01069765103467314</v>
+        <v>3.600449282827434</v>
       </c>
       <c r="F149" t="n">
-        <v>0.01678315703340521</v>
+        <v>2.473014109604894</v>
       </c>
       <c r="G149" t="n">
-        <v>0.7671638392348856</v>
+        <v>17.86842105263158</v>
       </c>
       <c r="H149" t="n">
-        <v>0.7571793235481813</v>
+        <v>20.15789473684211</v>
       </c>
       <c r="I149" t="n">
-        <v>0.7951235300463912</v>
+        <v>27.18421052631579</v>
       </c>
       <c r="J149" t="n">
-        <v>0.8181134346321649</v>
+        <v>28.31578947368421</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_pg</t>
+          <t>team_season_obv_gk_pg</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.02312928412664698</v>
+        <v>-0.1065803470268657</v>
       </c>
       <c r="C150" t="n">
-        <v>0.02275645298348549</v>
+        <v>-0.0865613170422853</v>
       </c>
       <c r="D150" t="n">
-        <v>1.016383534966194</v>
+        <v>0.1602442700718141</v>
       </c>
       <c r="E150" t="n">
-        <v>0.005183971938096664</v>
+        <v>0.1314020766118728</v>
       </c>
       <c r="F150" t="n">
-        <v>0.01366901048957174</v>
+        <v>0.1313589083696339</v>
       </c>
       <c r="G150" t="n">
-        <v>0.01597081850233831</v>
+        <v>-0.2831655470164199</v>
       </c>
       <c r="H150" t="n">
-        <v>0.009466398752441532</v>
+        <v>-0.379555063199644</v>
       </c>
       <c r="I150" t="n">
-        <v>0.02906770439113717</v>
+        <v>0.07128995115793235</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04930974484274262</v>
+        <v>0.1196848798641249</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>team_season_pressures_pg</t>
+          <t>team_season_op_shot_distance</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>151.1584637268848</v>
+        <v>17.95167166464947</v>
       </c>
       <c r="C151" t="n">
-        <v>149.2231389284021</v>
+        <v>17.8549112113794</v>
       </c>
       <c r="D151" t="n">
-        <v>1.012969334463681</v>
+        <v>0.1384685483550972</v>
       </c>
       <c r="E151" t="n">
-        <v>14.68324693764972</v>
+        <v>0.5294865891259372</v>
       </c>
       <c r="F151" t="n">
-        <v>8.977221885468436</v>
+        <v>0.7842019919404035</v>
       </c>
       <c r="G151" t="n">
-        <v>137.1081081081081</v>
+        <v>17.09114338580827</v>
       </c>
       <c r="H151" t="n">
-        <v>136.5</v>
+        <v>15.44658078324681</v>
       </c>
       <c r="I151" t="n">
-        <v>169.2894736842105</v>
+        <v>18.3810506305638</v>
       </c>
       <c r="J151" t="n">
-        <v>166.7894736842105</v>
+        <v>18.74434828484195</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio_conceded</t>
+          <t>team_season_crosses_into_box_pg</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.02679638328574498</v>
+        <v>8.613086770981507</v>
       </c>
       <c r="C152" t="n">
-        <v>0.02645841167415137</v>
+        <v>8.448221906116643</v>
       </c>
       <c r="D152" t="n">
-        <v>1.012773692380174</v>
+        <v>0.1330088365933716</v>
       </c>
       <c r="E152" t="n">
-        <v>0.008719504486142933</v>
+        <v>0.8932802484628027</v>
       </c>
       <c r="F152" t="n">
-        <v>0.01047347528948383</v>
+        <v>1.399837580979185</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0138888888888889</v>
+        <v>7.486486486486487</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0113636363636364</v>
+        <v>5.526315789473684</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0354609929078014</v>
+        <v>9.894736842105264</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0421052631578947</v>
+        <v>10.94736842105263</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>team_season_ball_in_play_time</t>
+          <t>team_season_high_press_shots_pg</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>52.368476</v>
+        <v>2.364580369843527</v>
       </c>
       <c r="C153" t="n">
-        <v>52.92756533333333</v>
+        <v>2.305500237079184</v>
       </c>
       <c r="D153" t="n">
-        <v>1.01067606652012</v>
+        <v>0.129730883806851</v>
       </c>
       <c r="E153" t="n">
-        <v>1.736260345996534</v>
+        <v>0.5114350943582132</v>
       </c>
       <c r="F153" t="n">
-        <v>1.589649749495272</v>
+        <v>0.4696904138871401</v>
       </c>
       <c r="G153" t="n">
-        <v>49.724354</v>
+        <v>1.526315789473684</v>
       </c>
       <c r="H153" t="n">
-        <v>50.210266</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="I153" t="n">
-        <v>54.297398</v>
+        <v>2.842105263157895</v>
       </c>
       <c r="J153" t="n">
-        <v>56.73982</v>
+        <v>3.736842105263158</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_pg</t>
+          <t>team_season_passes_inside_box_pg</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>41.27567567567568</v>
+        <v>1.984779516358464</v>
       </c>
       <c r="C154" t="n">
-        <v>41.01303935514463</v>
+        <v>1.938501659554291</v>
       </c>
       <c r="D154" t="n">
-        <v>1.006403727318446</v>
+        <v>0.1211057695563667</v>
       </c>
       <c r="E154" t="n">
-        <v>3.341633011345783</v>
+        <v>0.4520275851727444</v>
       </c>
       <c r="F154" t="n">
-        <v>3.003323430362971</v>
+        <v>0.3868446642253781</v>
       </c>
       <c r="G154" t="n">
-        <v>37.5</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="H154" t="n">
-        <v>36.1315789473684</v>
+        <v>1.447368421052632</v>
       </c>
       <c r="I154" t="n">
-        <v>44.6842105263158</v>
+        <v>2.421052631578947</v>
       </c>
       <c r="J154" t="n">
-        <v>49.3157894736842</v>
+        <v>2.657894736842105</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance</t>
+          <t>team_season_direct_free_kick_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>17.95167166464947</v>
+        <v>0.03186344238975818</v>
       </c>
       <c r="C155" t="n">
-        <v>17.8549112113794</v>
+        <v>0.02987197724039829</v>
       </c>
       <c r="D155" t="n">
-        <v>1.005419262640097</v>
+        <v>0.1151561523727934</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5294865891259372</v>
+        <v>0.01240492903591633</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7842019919404035</v>
+        <v>0.01955025573884892</v>
       </c>
       <c r="G155" t="n">
-        <v>17.09114338580827</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H155" t="n">
-        <v>15.44658078324681</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>18.3810506305638</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="J155" t="n">
-        <v>18.74434828484195</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_free_kick_conceded</t>
+          <t>team_season_throw_in_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.004387262087370712</v>
+        <v>0.003451849836803496</v>
       </c>
       <c r="C156" t="n">
-        <v>0.004368480338237914</v>
+        <v>0.00364138109270039</v>
       </c>
       <c r="D156" t="n">
-        <v>1.004299378199874</v>
+        <v>0.09566042970445074</v>
       </c>
       <c r="E156" t="n">
-        <v>0.001224056688626539</v>
+        <v>0.00158043632315697</v>
       </c>
       <c r="F156" t="n">
-        <v>0.001148594298813558</v>
+        <v>0.002210115475604772</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0029354643784288</v>
+        <v>0.00123609394313968</v>
       </c>
       <c r="H156" t="n">
-        <v>0.00206066557554828</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="I156" t="n">
-        <v>0.00568023343749394</v>
+        <v>0.00524246395806029</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0067137669900368</v>
+        <v>0.00774336283185841</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>team_season_total_dribbles_pg</t>
+          <t>team_season_sp_pg</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>14.81593172119488</v>
+        <v>41.27567567567568</v>
       </c>
       <c r="C157" t="n">
-        <v>14.87719298245614</v>
+        <v>41.01303935514463</v>
       </c>
       <c r="D157" t="n">
-        <v>1.004134823405917</v>
+        <v>0.08976618863714431</v>
       </c>
       <c r="E157" t="n">
-        <v>1.458119936577949</v>
+        <v>3.341633011345783</v>
       </c>
       <c r="F157" t="n">
-        <v>2.152470412065778</v>
+        <v>3.003323430362971</v>
       </c>
       <c r="G157" t="n">
-        <v>12.71052631578947</v>
+        <v>37.5</v>
       </c>
       <c r="H157" t="n">
-        <v>12</v>
+        <v>36.1315789473684</v>
       </c>
       <c r="I157" t="n">
-        <v>16.44736842105263</v>
+        <v>44.6842105263158</v>
       </c>
       <c r="J157" t="n">
-        <v>19.57894736842105</v>
+        <v>49.3157894736842</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>team_season_matches</t>
+          <t>team_season_np_shot_distance</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>37.8</v>
+        <v>17.14551330328645</v>
       </c>
       <c r="C158" t="n">
-        <v>37.93333333333333</v>
+        <v>17.19146074794059</v>
       </c>
       <c r="D158" t="n">
-        <v>1.00352733686067</v>
+        <v>0.07840696102484931</v>
       </c>
       <c r="E158" t="n">
-        <v>0.4472135954999579</v>
+        <v>0.4655925139091889</v>
       </c>
       <c r="F158" t="n">
-        <v>0.2581988897471612</v>
+        <v>0.6542818421467315</v>
       </c>
       <c r="G158" t="n">
-        <v>37</v>
+        <v>16.57532246907552</v>
       </c>
       <c r="H158" t="n">
-        <v>37</v>
+        <v>15.60006788300305</v>
       </c>
       <c r="I158" t="n">
-        <v>38</v>
+        <v>17.52408384342784</v>
       </c>
       <c r="J158" t="n">
-        <v>38</v>
+        <v>18.08949939738292</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shot_distance</t>
+          <t>team_season_shots_from_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>17.14551330328645</v>
+        <v>0.07411095305832148</v>
       </c>
       <c r="C159" t="n">
-        <v>17.19146074794059</v>
+        <v>0.0773352299668089</v>
       </c>
       <c r="D159" t="n">
-        <v>1.002679852381283</v>
+        <v>0.07467258696472254</v>
       </c>
       <c r="E159" t="n">
-        <v>0.4655925139091889</v>
+        <v>0.03440655312318475</v>
       </c>
       <c r="F159" t="n">
-        <v>0.6542818421467315</v>
+        <v>0.04819161480713841</v>
       </c>
       <c r="G159" t="n">
-        <v>16.57532246907552</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H159" t="n">
-        <v>15.60006788300305</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I159" t="n">
-        <v>17.52408384342784</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J159" t="n">
-        <v>18.08949939738292</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_ins_pg</t>
+          <t>team_season_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>21.4348506401138</v>
+        <v>0.004050806853787188</v>
       </c>
       <c r="C160" t="n">
-        <v>21.49032716927454</v>
+        <v>0.003873020367702915</v>
       </c>
       <c r="D160" t="n">
-        <v>1.002588146289992</v>
+        <v>0.07351776954466796</v>
       </c>
       <c r="E160" t="n">
-        <v>2.325189683622565</v>
+        <v>0.00239680854388272</v>
       </c>
       <c r="F160" t="n">
-        <v>2.222413561882478</v>
+        <v>0.002589321227583275</v>
       </c>
       <c r="G160" t="n">
-        <v>18.62162162162162</v>
+        <v>0.00156985871271586</v>
       </c>
       <c r="H160" t="n">
-        <v>19.02631578947368</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>24.39473684210526</v>
+        <v>0.00662251655629139</v>
       </c>
       <c r="J160" t="n">
-        <v>27.68421052631579</v>
+        <v>0.00993377483443709</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_pg_conceded</t>
+          <t>team_season_second_yellow_cards_pg</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>41.15149359886202</v>
+        <v>0.0422475106685633</v>
       </c>
       <c r="C161" t="n">
-        <v>41.05405405405404</v>
+        <v>0.04395448079658604</v>
       </c>
       <c r="D161" t="n">
-        <v>1.002373445133572</v>
+        <v>0.04797831869881528</v>
       </c>
       <c r="E161" t="n">
-        <v>2.759560233076935</v>
+        <v>0.02342013575866305</v>
       </c>
       <c r="F161" t="n">
-        <v>2.438750853531297</v>
+        <v>0.04062974815985809</v>
       </c>
       <c r="G161" t="n">
-        <v>37.8157894736842</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H161" t="n">
-        <v>35.9210526315789</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>45.2368421052632</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J161" t="n">
-        <v>45.3157894736842</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>team_season_pressure_regains_pg</t>
+          <t>team_season_sp_pg_conceded</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>29.06159317211949</v>
+        <v>41.15149359886202</v>
       </c>
       <c r="C162" t="n">
-        <v>29.1257942152679</v>
+        <v>41.05405405405404</v>
       </c>
       <c r="D162" t="n">
-        <v>1.00220913708234</v>
+        <v>0.04085571617112736</v>
       </c>
       <c r="E162" t="n">
-        <v>2.913748361411263</v>
+        <v>2.759560233076935</v>
       </c>
       <c r="F162" t="n">
-        <v>1.797541882737723</v>
+        <v>2.438750853531297</v>
       </c>
       <c r="G162" t="n">
-        <v>25.97368421052632</v>
+        <v>37.8157894736842</v>
       </c>
       <c r="H162" t="n">
-        <v>26.31578947368421</v>
+        <v>35.9210526315789</v>
       </c>
       <c r="I162" t="n">
-        <v>33.13157894736842</v>
+        <v>45.2368421052632</v>
       </c>
       <c r="J162" t="n">
-        <v>32.31578947368421</v>
+        <v>45.3157894736842</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_ins_conceded_pg</t>
+          <t>team_season_corner_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>21.44466571834992</v>
+        <v>0.02679638328574498</v>
       </c>
       <c r="C163" t="n">
-        <v>21.49155998103367</v>
+        <v>0.02645841167415137</v>
       </c>
       <c r="D163" t="n">
-        <v>1.002186756524893</v>
+        <v>0.03523349698261136</v>
       </c>
       <c r="E163" t="n">
-        <v>1.725801428199878</v>
+        <v>0.008719504486142933</v>
       </c>
       <c r="F163" t="n">
-        <v>2.324877225344693</v>
+        <v>0.01047347528948383</v>
       </c>
       <c r="G163" t="n">
-        <v>20.0789473684211</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="H163" t="n">
-        <v>17.4473684210526</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="I163" t="n">
-        <v>24.4210526315789</v>
+        <v>0.0354609929078014</v>
       </c>
       <c r="J163" t="n">
-        <v>27.5526315789474</v>
+        <v>0.0421052631578947</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>team_season_opposition_dribble_ratio</t>
+          <t>team_season_pressure_regains_pg</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.52158254</v>
+        <v>29.06159317211949</v>
       </c>
       <c r="C164" t="n">
-        <v>0.5222464353333334</v>
+        <v>29.1257942152679</v>
       </c>
       <c r="D164" t="n">
-        <v>1.001272848077571</v>
+        <v>0.03225992248911353</v>
       </c>
       <c r="E164" t="n">
-        <v>0.01923261295090319</v>
+        <v>2.913748361411263</v>
       </c>
       <c r="F164" t="n">
-        <v>0.02718011156599353</v>
+        <v>1.797541882737723</v>
       </c>
       <c r="G164" t="n">
-        <v>0.503888</v>
+        <v>25.97368421052632</v>
       </c>
       <c r="H164" t="n">
-        <v>0.49094567</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="I164" t="n">
-        <v>0.55140185</v>
+        <v>33.13157894736842</v>
       </c>
       <c r="J164" t="n">
-        <v>0.58069885</v>
+        <v>32.31578947368421</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_throw_ins_pg</t>
+          <t>team_season_total_dribbles_pg</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.01052631578947368</v>
+        <v>14.81593172119488</v>
       </c>
       <c r="C165" t="n">
-        <v>0.01052631578947368</v>
+        <v>14.87719298245614</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0.03198196730448712</v>
       </c>
       <c r="E165" t="n">
-        <v>0.02353755765789252</v>
+        <v>1.458119936577949</v>
       </c>
       <c r="F165" t="n">
-        <v>0.01664356663246516</v>
+        <v>2.152470412065778</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>12.71052631578947</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I165" t="n">
-        <v>0.05263157894736842</v>
+        <v>16.44736842105263</v>
       </c>
       <c r="J165" t="n">
-        <v>0.05263157894736842</v>
+        <v>19.57894736842105</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_goal_ratio_conceded</t>
+          <t>team_season_direct_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>0.02312928412664698</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0006647799500464827</v>
+        <v>0.02275645298348549</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>0.03194769000268478</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>0.005183971938096664</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0007858413935287731</v>
+        <v>0.01366901048957174</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>0.01597081850233831</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>0.009466398752441532</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>0.02906770439113717</v>
       </c>
       <c r="J166" t="n">
-        <v>0.00235849056603774</v>
+        <v>0.04930974484274262</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_throw_ins_conceded_pg</t>
+          <t>team_season_opposition_dribble_ratio</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>0.52158254</v>
       </c>
       <c r="C167" t="n">
-        <v>0.01403508771929824</v>
+        <v>0.5222464353333334</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>0.02730456429159234</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>0.01923261295090319</v>
       </c>
       <c r="F167" t="n">
-        <v>0.01684053877426801</v>
+        <v>0.02718011156599353</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>0.503888</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>0.49094567</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>0.55140185</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.58069885</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>team_season_gd_pg</t>
+          <t>team_season_throw_ins_pg</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.5034139402560455</v>
+        <v>21.4348506401138</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.1669511616880038</v>
+        <v>21.49032716927454</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.3316379391541867</v>
+        <v>0.02603853619852626</v>
       </c>
       <c r="E168" t="n">
-        <v>0.269920695539524</v>
+        <v>2.325189683622565</v>
       </c>
       <c r="F168" t="n">
-        <v>0.2882106561275643</v>
+        <v>2.222413561882478</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1842105263157895</v>
+        <v>18.62162162162162</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.8421052631578947</v>
+        <v>19.02631578947368</v>
       </c>
       <c r="I168" t="n">
-        <v>0.7368421052631579</v>
+        <v>24.39473684210526</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3421052631578947</v>
+        <v>27.68421052631579</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_gd_pg</t>
+          <t>team_season_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.3917496443812233</v>
+        <v>21.44466571834992</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1301564722617354</v>
+        <v>21.49155998103367</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3322440087145969</v>
+        <v>0.02240789620919353</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2121595513344288</v>
+        <v>1.725801428199878</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2811296325285692</v>
+        <v>2.324877225344693</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05263157894736842</v>
+        <v>20.0789473684211</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.7105263157894737</v>
+        <v>17.4473684210526</v>
       </c>
       <c r="I169" t="n">
-        <v>0.5789473684210527</v>
+        <v>24.4210526315789</v>
       </c>
       <c r="J169" t="n">
-        <v>0.3684210526315789</v>
+        <v>27.5526315789474</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>team_season_xgd_pg</t>
+          <t>team_season_xg_per_free_kick_conceded</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.3923121124166852</v>
+        <v>0.004387262087370712</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.1304232539922607</v>
+        <v>0.004368480338237914</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.3324476860753527</v>
+        <v>0.01698181978977709</v>
       </c>
       <c r="E170" t="n">
-        <v>0.2083172751502826</v>
+        <v>0.001224056688626539</v>
       </c>
       <c r="F170" t="n">
-        <v>0.244460638116575</v>
+        <v>0.001148594298813558</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06673234936438109</v>
+        <v>0.0029354643784288</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.5941696465015411</v>
+        <v>0.00206066557554828</v>
       </c>
       <c r="I170" t="n">
-        <v>0.5403595502312118</v>
+        <v>0.00568023343749394</v>
       </c>
       <c r="J170" t="n">
-        <v>0.3960711289393274</v>
+        <v>0.0067137669900368</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xgd_pg</t>
+          <t>team_season_throw_in_goal_ratio</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.3170827347557372</v>
+        <v>0.0004545454545454545</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.1056439943551565</v>
+        <v>0.0004672995410099189</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.3331748555673923</v>
+        <v>0.0163643335496696</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1078719065045388</v>
+        <v>0.001016394535227177</v>
       </c>
       <c r="F171" t="n">
-        <v>0.2407287704205502</v>
+        <v>0.0007566808014704117</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1959905898884723</v>
+        <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>-0.5116959386750272</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0.4326407423144893</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="J171" t="n">
-        <v>0.3342158700290479</v>
+        <v>0.002466091245376079</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>team_season_gd</t>
+          <t>team_season_goals_from_throw_ins_pg</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>19</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C172" t="n">
-        <v>-6.333333333333333</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.3333333333333333</v>
+        <v>2.960594732333751e-17</v>
       </c>
       <c r="E172" t="n">
-        <v>10.1734949746879</v>
+        <v>0.02353755765789252</v>
       </c>
       <c r="F172" t="n">
-        <v>10.95227743222299</v>
+        <v>0.01664356663246516</v>
       </c>
       <c r="G172" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>28</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J172" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>team_season_xgd</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>14.7997884</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-4.933262974666667</v>
-      </c>
-      <c r="D173" t="n">
-        <v>-0.3333333451353039</v>
-      </c>
-      <c r="E173" t="n">
-        <v>7.823194353916678</v>
-      </c>
-      <c r="F173" t="n">
-        <v>9.268708622650244</v>
-      </c>
-      <c r="G173" t="n">
-        <v>2.535829</v>
-      </c>
-      <c r="H173" t="n">
-        <v>-22.578444</v>
-      </c>
-      <c r="I173" t="n">
-        <v>20.530317</v>
-      </c>
-      <c r="J173" t="n">
-        <v>15.050703</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2022_2023/Stats Bomb/moyenne_metriques.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Stats Bomb/moyenne_metriques.xlsx
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -484,137 +483,137 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goal_ratio</t>
+          <t>team_season_gd_pg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.007902186292780508</v>
+        <v>0.5034139402560455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004327023204862233</v>
+        <v>-0.1669511616880038</v>
       </c>
       <c r="D2" t="n">
-        <v>1.806620294159536</v>
+        <v>401.53</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001556970925654796</v>
+        <v>0.269920695539524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001215800798615379</v>
+        <v>0.2882106561275643</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0056140350877193</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00187617260787992</v>
+        <v>-0.8421052631578947</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00946185688941455</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00681959082455053</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goals_pg</t>
+          <t>team_season_np_gd_pg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.328022759601707</v>
+        <v>0.3917496443812233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1774300616405879</v>
+        <v>-0.1301564722617354</v>
       </c>
       <c r="D3" t="n">
-        <v>1.756379951770632</v>
+        <v>400.98</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07787060609785712</v>
+        <v>0.2121595513344288</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05191328885319213</v>
+        <v>0.2811296325285692</v>
       </c>
       <c r="G3" t="n">
-        <v>0.210526315789474</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0789473684210526</v>
+        <v>-0.7105263157894737</v>
       </c>
       <c r="I3" t="n">
-        <v>0.421052631578947</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="J3" t="n">
-        <v>0.289473684210526</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>team_season_gd_pg</t>
+          <t>team_season_xgd_pg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5034139402560455</v>
+        <v>0.3923121124166852</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1669511616880038</v>
+        <v>-0.1304232539922607</v>
       </c>
       <c r="D4" t="n">
-        <v>1.691969000295567</v>
+        <v>400.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.269920695539524</v>
+        <v>0.2083172751502826</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2882106561275643</v>
+        <v>0.244460638116575</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.06673234936438109</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.8421052631578947</v>
+        <v>-0.5941696465015411</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.5403595502312118</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.3960711289393274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_conceded_pg</t>
+          <t>team_season_np_xgd_pg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.12679423074348</v>
+        <v>0.3170827347557371</v>
       </c>
       <c r="C5" t="n">
-        <v>1.620330657796283</v>
+        <v>-0.1056439943551565</v>
       </c>
       <c r="D5" t="n">
-        <v>1.691671500187853</v>
+        <v>400.14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1924872046701807</v>
+        <v>0.1078719065045388</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2139221221918313</v>
+        <v>0.2407287704205502</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8820864320977738</v>
+        <v>0.1959905898884723</v>
       </c>
       <c r="H5" t="n">
-        <v>1.260013060056065</v>
+        <v>-0.5116959386750272</v>
       </c>
       <c r="I5" t="n">
-        <v>1.335630289818111</v>
+        <v>0.4326407423144893</v>
       </c>
       <c r="J5" t="n">
-        <v>2.04838013727414</v>
+        <v>0.3342158700290479</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +629,7 @@
         <v>-6.333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>1.688888888888889</v>
+        <v>400</v>
       </c>
       <c r="E6" t="n">
         <v>10.1734949746879</v>
@@ -654,3571 +653,3571 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_conceded_pg</t>
+          <t>team_season_xgd</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7860892026694452</v>
+        <v>14.7997884</v>
       </c>
       <c r="C7" t="n">
-        <v>1.097576029749208</v>
+        <v>-4.933262974666667</v>
       </c>
       <c r="D7" t="n">
-        <v>1.655501449553147</v>
+        <v>400</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1136580732756134</v>
+        <v>7.823194353916678</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1445472941811393</v>
+        <v>9.268708622650244</v>
       </c>
       <c r="G7" t="n">
-        <v>0.608583541685029</v>
+        <v>2.535829</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8315190555233705</v>
+        <v>-22.578444</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9056472150902999</v>
+        <v>20.530317</v>
       </c>
       <c r="J7" t="n">
-        <v>1.42563103374682</v>
+        <v>15.050703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>team_season_xgd_pg</t>
+          <t>team_season_obv_gk_conceded_pg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3923121124166852</v>
+        <v>-0.159389677296749</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1304232539922607</v>
+        <v>-0.06843356554041315</v>
       </c>
       <c r="D8" t="n">
-        <v>1.638783854142179</v>
+        <v>-132.91</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2083172751502826</v>
+        <v>0.143257270016234</v>
       </c>
       <c r="F8" t="n">
-        <v>0.244460638116575</v>
+        <v>0.1049462524267176</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06673234936438109</v>
+        <v>-0.3562100908081782</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5941696465015411</v>
+        <v>-0.2185716114104971</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5403595502312118</v>
+        <v>-0.02011645464478312</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3960711289393274</v>
+        <v>0.09901437817865776</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>team_season_xgd</t>
+          <t>team_season_free_kick_goal_ratio</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.7997884</v>
+        <v>0.006595263050895256</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.933262974666667</v>
+        <v>0.003091218263777736</v>
       </c>
       <c r="D9" t="n">
-        <v>1.636552630874081</v>
+        <v>113.35</v>
       </c>
       <c r="E9" t="n">
-        <v>7.823194353916678</v>
+        <v>0.0020611883390848</v>
       </c>
       <c r="F9" t="n">
-        <v>9.268708622650244</v>
+        <v>0.001913218124035266</v>
       </c>
       <c r="G9" t="n">
-        <v>2.535829</v>
+        <v>0.003690036900369004</v>
       </c>
       <c r="H9" t="n">
-        <v>-22.578444</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.530317</v>
+        <v>0.008639308855291577</v>
       </c>
       <c r="J9" t="n">
-        <v>15.050703</v>
+        <v>0.007952286282306162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>team_season_corners_conceded_pg</t>
+          <t>team_season_obv_shot_pg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.74153627311522</v>
+        <v>-0.1472369750784141</v>
       </c>
       <c r="C10" t="n">
-        <v>4.545187292555714</v>
+        <v>-0.06902768440048253</v>
       </c>
       <c r="D10" t="n">
-        <v>1.56518110536593</v>
+        <v>-113.3</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1877273763698494</v>
+        <v>0.07378739843614508</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4399521805564752</v>
+        <v>0.07099552154257181</v>
       </c>
       <c r="G10" t="n">
-        <v>3.47368421052632</v>
+        <v>-0.2295870029024388</v>
       </c>
       <c r="H10" t="n">
-        <v>3.47368421052632</v>
+        <v>-0.1756496337821355</v>
       </c>
       <c r="I10" t="n">
-        <v>3.94736842105263</v>
+        <v>-0.03751293791306985</v>
       </c>
       <c r="J10" t="n">
-        <v>5.07894736842105</v>
+        <v>0.05729923711011285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_conceded_pg</t>
+          <t>team_season_goals_from_free_kicks_pg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5913626044204361</v>
+        <v>0.09516358463726882</v>
       </c>
       <c r="C11" t="n">
-        <v>0.846343460969005</v>
+        <v>0.04570886676149833</v>
       </c>
       <c r="D11" t="n">
-        <v>1.562502615348574</v>
+        <v>108.2</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09047377965562682</v>
+        <v>0.02973789592936541</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1352389106838616</v>
+        <v>0.0272075313697139</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4500898699227132</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6105034233708131</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6867054638109709</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J11" t="n">
-        <v>1.181217661029414</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_gd_pg</t>
+          <t>team_season_goals_from_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3917496443812233</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1301564722617354</v>
+        <v>0.01403508771929824</v>
       </c>
       <c r="D12" t="n">
-        <v>1.536358115211301</v>
+        <v>-100</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2121595513344288</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2811296325285692</v>
+        <v>0.01684053877426801</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.05263157894736842</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.7105263157894737</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xgd_pg</t>
+          <t>team_season_throw_in_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3170827347557372</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1056439943551565</v>
+        <v>0.0006647799500464827</v>
       </c>
       <c r="D13" t="n">
-        <v>1.529388023925832</v>
+        <v>-100</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1078719065045388</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2407287704205502</v>
+        <v>0.0007858413935287731</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1959905898884723</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5116959386750272</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4326407423144893</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3342158700290479</v>
+        <v>0.00235849056603774</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_free_kick</t>
+          <t>team_season_direct_free_kick_goals_pg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006093422098238699</v>
+        <v>0.04793741109530583</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003785271759078869</v>
+        <v>0.02456140350877192</v>
       </c>
       <c r="D14" t="n">
-        <v>1.508575276320133</v>
+        <v>95.17</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0009027626733210919</v>
+        <v>0.04795872237981098</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00129782674299027</v>
+        <v>0.03217892859396881</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005176229987825666</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001873903845747312</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.007459301470927221</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="J14" t="n">
-        <v>0.006393401333636365</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_conceded_pg</t>
+          <t>team_season_sp_goals_pg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8827880512091039</v>
+        <v>0.328022759601707</v>
       </c>
       <c r="C15" t="n">
-        <v>1.314366998577525</v>
+        <v>0.1774300616405879</v>
       </c>
       <c r="D15" t="n">
-        <v>1.491530011927802</v>
+        <v>84.87</v>
       </c>
       <c r="E15" t="n">
-        <v>0.284126895542234</v>
+        <v>0.07787060609785712</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2159888214825993</v>
+        <v>0.05191328885319213</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.210526315789474</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.0789473684210526</v>
       </c>
       <c r="I15" t="n">
-        <v>1.18421052631579</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="J15" t="n">
-        <v>1.763157894736842</v>
+        <v>0.289473684210526</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pass_conceded_pg</t>
+          <t>team_season_obv_shot_conceded_pg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5396174499694826</v>
+        <v>-0.1352750901429573</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7464119109833386</v>
+        <v>-0.0732617178552061</v>
       </c>
       <c r="D16" t="n">
-        <v>1.485836137879806</v>
+        <v>-84.65000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09313610153967643</v>
+        <v>0.05384223093208309</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1172127251735842</v>
+        <v>0.09297813152539916</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4348171236924827</v>
+        <v>-0.1957064420488235</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5842229511196676</v>
+        <v>-0.2573062454497343</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6644538997819549</v>
+        <v>-0.06954894175654963</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9802928794371454</v>
+        <v>0.08078435808420181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shots_pg</t>
+          <t>team_season_sp_goal_ratio</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.589758179231863</v>
+        <v>0.007902186292780508</v>
       </c>
       <c r="C17" t="n">
-        <v>2.907349454717875</v>
+        <v>0.004327023204862233</v>
       </c>
       <c r="D17" t="n">
-        <v>1.474666571543096</v>
+        <v>82.62</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4006134778048442</v>
+        <v>0.001556970925654796</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3678669520966902</v>
+        <v>0.001215800798615379</v>
       </c>
       <c r="G17" t="n">
-        <v>3.054054054054054</v>
+        <v>0.0056140350877193</v>
       </c>
       <c r="H17" t="n">
-        <v>2.447368421052631</v>
+        <v>0.00187617260787992</v>
       </c>
       <c r="I17" t="n">
-        <v>3.894736842105263</v>
+        <v>0.00946185688941455</v>
       </c>
       <c r="J17" t="n">
-        <v>3.657894736842105</v>
+        <v>0.00681959082455053</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio</t>
+          <t>team_season_goals_from_corners_pg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006595263050895256</v>
+        <v>0.1743954480796586</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003091218263777736</v>
+        <v>0.09663347558084398</v>
       </c>
       <c r="D18" t="n">
-        <v>1.46586209330888</v>
+        <v>80.47</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002061188339084801</v>
+        <v>0.08402753222800192</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001913218124035266</v>
+        <v>0.04174621412165804</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003690036900369004</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I18" t="n">
-        <v>0.008639308855291577</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007952286282306162</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_free_kicks_pg</t>
+          <t>team_season_xg_per_free_kick</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.09516358463726884</v>
+        <v>0.006093422098238699</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04570886676149833</v>
+        <v>0.003785271759078869</v>
       </c>
       <c r="D19" t="n">
-        <v>1.45604699564094</v>
+        <v>60.98</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02973789592936544</v>
+        <v>0.0009027626733210916</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02720753136971391</v>
+        <v>0.00129782674299027</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.005176229987825666</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.001873903845747312</v>
       </c>
       <c r="I19" t="n">
-        <v>0.131578947368421</v>
+        <v>0.007459301470927221</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.006393401333636365</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_corners_conceded_pg</t>
+          <t>team_season_direct_free_kick_goal_ratio</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.339829302987198</v>
+        <v>0.07755240027045299</v>
       </c>
       <c r="C20" t="n">
-        <v>1.871550497866287</v>
+        <v>0.04826660668765932</v>
       </c>
       <c r="D20" t="n">
-        <v>1.455460467550052</v>
+        <v>60.68</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1697143061656787</v>
+        <v>0.07457928678241821</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3266560741742447</v>
+        <v>0.05867735906310621</v>
       </c>
       <c r="G20" t="n">
-        <v>1.18421052631579</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.236842105263158</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.567567567567568</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="J20" t="n">
-        <v>2.342105263157895</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_xg_conceded_pg</t>
+          <t>team_season_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1072162978994297</v>
+        <v>0.08896883206738751</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1573051102770313</v>
+        <v>0.05610875563880172</v>
       </c>
       <c r="D21" t="n">
-        <v>1.45029283764578</v>
+        <v>58.56</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01281661447094267</v>
+        <v>0.0201379804501596</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03138554839138284</v>
+        <v>0.01868139257254185</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0899113113256662</v>
+        <v>0.06583429343606297</v>
       </c>
       <c r="H21" t="n">
-        <v>0.107657725922763</v>
+        <v>0.02367036452663964</v>
       </c>
       <c r="I21" t="n">
-        <v>0.117474186813106</v>
+        <v>0.1195451176578277</v>
       </c>
       <c r="J21" t="n">
-        <v>0.199416891647209</v>
+        <v>0.08462844546394128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp</t>
+          <t>team_season_opposition_own_goals_pg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.006813656293772013</v>
+        <v>0.05277382645803699</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005416684621580927</v>
+        <v>0.03342816500711237</v>
       </c>
       <c r="D22" t="n">
-        <v>1.449650687758721</v>
+        <v>57.87</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0009646436987178305</v>
+        <v>0.03709156688734274</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0007335072019464568</v>
+        <v>0.02111754520469447</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00536166877077337</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00447596404443047</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00785834122380866</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00693573747742494</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio</t>
+          <t>team_season_corner_goal_ratio</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.08686355167631903</v>
+        <v>0.03614934004281049</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07116274208488624</v>
+        <v>0.02336258895456374</v>
       </c>
       <c r="D23" t="n">
-        <v>1.449435940969011</v>
+        <v>54.73</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004974851101949686</v>
+        <v>0.01617091006827888</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00972247163103937</v>
+        <v>0.009903535261773162</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0795774647887324</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0528281750266809</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09363057324840759</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0907310704960835</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_in_clear_conceded_pg</t>
+          <t>team_season_own_goals_pg</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.618918918918919</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C24" t="n">
-        <v>2.155144618302513</v>
+        <v>0.04395448079658605</v>
       </c>
       <c r="D24" t="n">
-        <v>1.43555621510843</v>
+        <v>-52.1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3281089233815647</v>
+        <v>0.02201736911931778</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3025638881950689</v>
+        <v>0.01909624108723251</v>
       </c>
       <c r="G24" t="n">
-        <v>1.131578947368421</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.578947368421053</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I24" t="n">
-        <v>1.947368421052632</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J24" t="n">
-        <v>2.657894736842105</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_pg</t>
+          <t>team_season_penalty_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08896883206738751</v>
+        <v>0.07908961593172119</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05610875563880172</v>
+        <v>0.1458036984352774</v>
       </c>
       <c r="D25" t="n">
-        <v>1.430236334815574</v>
+        <v>-45.76</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0201379804501596</v>
+        <v>0.06431569829980487</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01868139257254185</v>
+        <v>0.06797596339218008</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06583429343606297</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02367036452663964</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1195451176578277</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="J25" t="n">
-        <v>0.08462844546394128</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance_conceded</t>
+          <t>team_season_penalties_conceded_pg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18.77555763901573</v>
+        <v>0.1001422475106686</v>
       </c>
       <c r="C26" t="n">
-        <v>17.65415673011742</v>
+        <v>0.1774774774774775</v>
       </c>
       <c r="D26" t="n">
-        <v>1.398177709322872</v>
+        <v>-43.57</v>
       </c>
       <c r="E26" t="n">
-        <v>0.540694026038674</v>
+        <v>0.09726989415540079</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7061129169425066</v>
+        <v>0.07400575617387928</v>
       </c>
       <c r="G26" t="n">
-        <v>18.22215986449689</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H26" t="n">
-        <v>16.28751572986577</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I26" t="n">
-        <v>19.56235573508523</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J26" t="n">
-        <v>18.74873987833659</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_distance</t>
+          <t>team_season_direct_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>45.98673087252079</v>
+        <v>0.01578890262582308</v>
       </c>
       <c r="C27" t="n">
-        <v>43.40677234556971</v>
+        <v>0.025208978419779</v>
       </c>
       <c r="D27" t="n">
-        <v>1.383665879717479</v>
+        <v>-37.37</v>
       </c>
       <c r="E27" t="n">
-        <v>1.348457645411541</v>
+        <v>0.003781946280711056</v>
       </c>
       <c r="F27" t="n">
-        <v>1.632248075456228</v>
+        <v>0.01478769001104661</v>
       </c>
       <c r="G27" t="n">
-        <v>44.18056530898876</v>
+        <v>0.0105801115400697</v>
       </c>
       <c r="H27" t="n">
-        <v>40.32806318001978</v>
+        <v>0.00603294519609527</v>
       </c>
       <c r="I27" t="n">
-        <v>47.59862161852362</v>
+        <v>0.019773480359857</v>
       </c>
       <c r="J27" t="n">
-        <v>45.94654736751941</v>
+        <v>0.0572634709043134</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_conceded_pg</t>
+          <t>team_season_throw_in_shot_ratio</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.561593172119487</v>
+        <v>0.004432869868167986</v>
       </c>
       <c r="C28" t="n">
-        <v>11.61156946420104</v>
+        <v>0.003255771681416016</v>
       </c>
       <c r="D28" t="n">
-        <v>1.353297678723375</v>
+        <v>36.15</v>
       </c>
       <c r="E28" t="n">
-        <v>1.007189046635097</v>
+        <v>0.004502411419393935</v>
       </c>
       <c r="F28" t="n">
-        <v>1.364752582523739</v>
+        <v>0.003154186920112244</v>
       </c>
       <c r="G28" t="n">
-        <v>8.157894736842104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9.578947368421053</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>10.7027027027027</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="J28" t="n">
-        <v>14.18421052631579</v>
+        <v>0.01109741060419235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_xg_conceded_pg</t>
+          <t>team_season_shots_from_throw_ins_pg</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1947266029281433</v>
+        <v>0.09530583214793739</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2512325694902869</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="D29" t="n">
-        <v>1.35284293898526</v>
+        <v>35.63</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0234353171267886</v>
+        <v>0.103015338845994</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03847217562969795</v>
+        <v>0.06864624174252959</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1584936722524856</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1823938203681456</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.21894175774957</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3079239334053311</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_xg_pg</t>
+          <t>team_season_penalties_won_pg</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2826877573876646</v>
+        <v>0.1961593172119488</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2219498038345806</v>
+        <v>0.1458511142721669</v>
       </c>
       <c r="D30" t="n">
-        <v>1.347154076983049</v>
+        <v>34.49</v>
       </c>
       <c r="E30" t="n">
-        <v>0.05480749316436886</v>
+        <v>0.07286176603370033</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03251988633915658</v>
+        <v>0.05867815524758057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2010625839404958</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1740029594909988</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3496961944344404</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2944038306902114</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>team_season_directness</t>
+          <t>team_season_penalty_goals_pg</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8458475734406443</v>
+        <v>0.1590327169274538</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8694863804321671</v>
+        <v>0.1195353247984827</v>
       </c>
       <c r="D31" t="n">
-        <v>1.346966365317439</v>
+        <v>33.04</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01383498685394317</v>
+        <v>0.05720622960337748</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01534999331743744</v>
+        <v>0.05442276484457526</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8279038997865458</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8422425850716171</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8657191438383126</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8990210083155861</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_inside_box_conceded_pg</t>
+          <t>team_season_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.436273115220484</v>
+        <v>0.882788051209104</v>
       </c>
       <c r="C32" t="n">
-        <v>2.121479374110953</v>
+        <v>1.314366998577525</v>
       </c>
       <c r="D32" t="n">
-        <v>1.328597150667224</v>
+        <v>-32.84</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3888702623985098</v>
+        <v>0.2841268955422341</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4593591957959609</v>
+        <v>0.2159888214825993</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
-        <v>1.394736842105263</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="I32" t="n">
-        <v>1.891891891891892</v>
+        <v>1.18421052631579</v>
       </c>
       <c r="J32" t="n">
-        <v>2.815789473684211</v>
+        <v>1.763157894736842</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_corners_pg</t>
+          <t>team_season_passes_inside_box_conceded_pg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.061166429587482</v>
+        <v>1.436273115220484</v>
       </c>
       <c r="C33" t="n">
-        <v>1.630867709815078</v>
+        <v>2.121479374110953</v>
       </c>
       <c r="D33" t="n">
-        <v>1.322508828988714</v>
+        <v>-32.3</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3410219048274236</v>
+        <v>0.3888702623985099</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2615518858116703</v>
+        <v>0.459359195795961</v>
       </c>
       <c r="G33" t="n">
-        <v>1.621621621621621</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="H33" t="n">
-        <v>1.105263157894737</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="I33" t="n">
-        <v>2.421052631578947</v>
+        <v>1.891891891891892</v>
       </c>
       <c r="J33" t="n">
-        <v>2.078947368421053</v>
+        <v>2.815789473684211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shot_distance_conceded</t>
+          <t>team_season_corner_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.92434253189885</v>
+        <v>0.1072162978994297</v>
       </c>
       <c r="C34" t="n">
-        <v>16.9968705254353</v>
+        <v>0.1573051102770313</v>
       </c>
       <c r="D34" t="n">
-        <v>1.312753052995367</v>
+        <v>-31.84</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6784246190423397</v>
+        <v>0.01281661447094267</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5925909644002981</v>
+        <v>0.03138554839138284</v>
       </c>
       <c r="G34" t="n">
-        <v>17.17245869252874</v>
+        <v>0.0899113113256662</v>
       </c>
       <c r="H34" t="n">
-        <v>15.82269347540223</v>
+        <v>0.107657725922763</v>
       </c>
       <c r="I34" t="n">
-        <v>18.71056105090726</v>
+        <v>0.117474186813106</v>
       </c>
       <c r="J34" t="n">
-        <v>17.92082923228346</v>
+        <v>0.199416891647209</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_conceded_pg</t>
+          <t>team_season_obv_conceded_pg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.862873399715506</v>
+        <v>1.12679423074348</v>
       </c>
       <c r="C35" t="n">
-        <v>8.407965860597439</v>
+        <v>1.620330657796284</v>
       </c>
       <c r="D35" t="n">
-        <v>1.28536376082922</v>
+        <v>-30.46</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8945770255313262</v>
+        <v>0.1924872046701806</v>
       </c>
       <c r="F35" t="n">
-        <v>1.093675991093727</v>
+        <v>0.2139221221918314</v>
       </c>
       <c r="G35" t="n">
-        <v>5.789473684210527</v>
+        <v>0.8820864320977738</v>
       </c>
       <c r="H35" t="n">
-        <v>6.763157894736842</v>
+        <v>1.260013060056065</v>
       </c>
       <c r="I35" t="n">
-        <v>7.945945945945946</v>
+        <v>1.335630289818111</v>
       </c>
       <c r="J35" t="n">
-        <v>10.71052631578947</v>
+        <v>2.04838013727414</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_sp_conceded</t>
+          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.004744526435058664</v>
+        <v>0.08102118040198543</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006141694122025771</v>
+        <v>0.0621722046266414</v>
       </c>
       <c r="D36" t="n">
-        <v>1.281774848757854</v>
+        <v>30.32</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0006046871436960366</v>
+        <v>0.04841066693789016</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001034416640990022</v>
+        <v>0.0508700116719769</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00377365879546431</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00480316417215602</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00535034351410207</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00811967475216987</v>
+        <v>0.181818181818182</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_corners_pg</t>
+          <t>team_season_op_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1743954480796586</v>
+        <v>0.5913626044204361</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09663347558084399</v>
+        <v>0.846343460969005</v>
       </c>
       <c r="D37" t="n">
-        <v>1.267173227317824</v>
+        <v>-30.13</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08402753222800191</v>
+        <v>0.09047377965562682</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04174621412165804</v>
+        <v>0.1352389106838616</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.4500898699227132</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.6105034233708131</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.6867054638109709</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1842105263157895</v>
+        <v>1.181217661029414</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot_conceded</t>
+          <t>team_season_shots_from_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.08245319742684669</v>
+        <v>1.339829302987198</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09463718300299523</v>
+        <v>1.871550497866287</v>
       </c>
       <c r="D38" t="n">
-        <v>1.255191166373803</v>
+        <v>-28.41</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01136294447389356</v>
+        <v>0.1697143061656788</v>
       </c>
       <c r="F38" t="n">
-        <v>0.007612571082619824</v>
+        <v>0.3266560741742448</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0738838321030742</v>
+        <v>1.18421052631579</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08042608342498044</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="I38" t="n">
-        <v>0.09586237532846775</v>
+        <v>1.567567567567568</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1115930764982016</v>
+        <v>2.342105263157895</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shots_pg</t>
+          <t>team_season_np_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12.38463726884779</v>
+        <v>0.7860892026694452</v>
       </c>
       <c r="C39" t="n">
-        <v>10.6706021811285</v>
+        <v>1.097576029749208</v>
       </c>
       <c r="D39" t="n">
-        <v>1.211796907078198</v>
+        <v>-28.38</v>
       </c>
       <c r="E39" t="n">
-        <v>1.002707914126191</v>
+        <v>0.1136580732756134</v>
       </c>
       <c r="F39" t="n">
-        <v>1.335635625463163</v>
+        <v>0.1445472941811394</v>
       </c>
       <c r="G39" t="n">
-        <v>10.86842105263158</v>
+        <v>0.608583541685029</v>
       </c>
       <c r="H39" t="n">
-        <v>8.710526315789474</v>
+        <v>0.8315190555233705</v>
       </c>
       <c r="I39" t="n">
-        <v>13.57894736842105</v>
+        <v>0.9056472150902999</v>
       </c>
       <c r="J39" t="n">
-        <v>14.1578947368421</v>
+        <v>1.42563103374682</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_pg</t>
+          <t>team_season_obv_pass_conceded_pg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.386201991465149</v>
+        <v>0.5396174499694826</v>
       </c>
       <c r="C40" t="n">
-        <v>1.147415836889521</v>
+        <v>0.7464119109833386</v>
       </c>
       <c r="D40" t="n">
-        <v>1.140952895189452</v>
+        <v>-27.71</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1410170824359006</v>
+        <v>0.09313610153967643</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2040052104629502</v>
+        <v>0.1172127251735842</v>
       </c>
       <c r="G40" t="n">
-        <v>1.210526315789474</v>
+        <v>0.4348171236924827</v>
       </c>
       <c r="H40" t="n">
-        <v>0.868421052631579</v>
+        <v>0.5842229511196676</v>
       </c>
       <c r="I40" t="n">
-        <v>1.605263157894737</v>
+        <v>0.6644538997819549</v>
       </c>
       <c r="J40" t="n">
-        <v>1.657894736842105</v>
+        <v>0.9802928794371454</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shots_conceded_pg</t>
+          <t>team_season_sp_xg_pg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.698719772403983</v>
+        <v>0.2826877573876646</v>
       </c>
       <c r="C41" t="n">
-        <v>3.203603603603604</v>
+        <v>0.2219498038345806</v>
       </c>
       <c r="D41" t="n">
-        <v>1.119428681613248</v>
+        <v>27.37</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1879690652836009</v>
+        <v>0.05480749316436884</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4606775391114625</v>
+        <v>0.03251988633915658</v>
       </c>
       <c r="G41" t="n">
-        <v>2.368421052631579</v>
+        <v>0.2010625839404958</v>
       </c>
       <c r="H41" t="n">
-        <v>2.473684210526316</v>
+        <v>0.1740029594909988</v>
       </c>
       <c r="I41" t="n">
-        <v>2.815789473684211</v>
+        <v>0.3496961944344404</v>
       </c>
       <c r="J41" t="n">
-        <v>4.078947368421052</v>
+        <v>0.2944038306902114</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_ratio_conceded</t>
+          <t>team_season_shots_from_corners_pg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.06582264719250304</v>
+        <v>2.061166429587483</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07820663709442933</v>
+        <v>1.630867709815078</v>
       </c>
       <c r="D42" t="n">
-        <v>1.092695876073174</v>
+        <v>26.38</v>
       </c>
       <c r="E42" t="n">
-        <v>0.006434909160632485</v>
+        <v>0.3410219048274237</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01142737159729176</v>
+        <v>0.2615518858116703</v>
       </c>
       <c r="G42" t="n">
-        <v>0.056390977443609</v>
+        <v>1.621621621621621</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0615563298490128</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0723729993041058</v>
+        <v>2.421052631578947</v>
       </c>
       <c r="J42" t="n">
-        <v>0.09839228295819941</v>
+        <v>2.078947368421053</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>team_season_own_goals_pg</t>
+          <t>team_season_xg_per_sp</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.006813656293772013</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04395448079658605</v>
+        <v>0.005416684621580927</v>
       </c>
       <c r="D43" t="n">
-        <v>1.078929811237186</v>
+        <v>25.79</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02201736911931778</v>
+        <v>0.0009646436987178305</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01909624108723251</v>
+        <v>0.0007335072019464568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.00536166877077337</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.00447596404443047</v>
       </c>
       <c r="I43" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.00785834122380866</v>
       </c>
       <c r="J43" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.00693573747742494</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_ratio</t>
+          <t>team_season_counter_attacking_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4840015166367297</v>
+        <v>0.8254623044096728</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4392414592572608</v>
+        <v>1.112233285917497</v>
       </c>
       <c r="D44" t="n">
-        <v>1.078560728422136</v>
+        <v>-25.78</v>
       </c>
       <c r="E44" t="n">
-        <v>0.03063813716647686</v>
+        <v>0.05739382986758209</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04068775293743556</v>
+        <v>0.2895777922650384</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4482037635430526</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3954437266235974</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5324512783836939</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5553961421967161</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_conceded_pg</t>
+          <t>team_season_obv_defensive_action_conceded_pg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.432859174964438</v>
+        <v>0.1857083870744489</v>
       </c>
       <c r="C45" t="n">
-        <v>3.163442389758179</v>
+        <v>0.2498913498156854</v>
       </c>
       <c r="D45" t="n">
-        <v>1.072996020717635</v>
+        <v>-25.68</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7565656543805667</v>
+        <v>0.1126458966585873</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5964692845153695</v>
+        <v>0.08710370927477561</v>
       </c>
       <c r="G45" t="n">
-        <v>1.342105263157895</v>
+        <v>0.05018676175294738</v>
       </c>
       <c r="H45" t="n">
-        <v>2.315789473684211</v>
+        <v>0.1179374253024926</v>
       </c>
       <c r="I45" t="n">
-        <v>3.243243243243243</v>
+        <v>0.3554884582561882</v>
       </c>
       <c r="J45" t="n">
-        <v>4.210526315789473</v>
+        <v>0.4064284993433638</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>team_season_dribble_ratio</t>
+          <t>team_season_shots_in_clear_conceded_pg</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4979592439999999</v>
+        <v>1.618918918918919</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5308531820000001</v>
+        <v>2.155144618302513</v>
       </c>
       <c r="D46" t="n">
-        <v>1.069119910210889</v>
+        <v>-24.88</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01460349518880429</v>
+        <v>0.3281089233815647</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0316475575674019</v>
+        <v>0.3025638881950688</v>
       </c>
       <c r="G46" t="n">
-        <v>0.48033127</v>
+        <v>1.131578947368421</v>
       </c>
       <c r="H46" t="n">
-        <v>0.490991</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="I46" t="n">
-        <v>0.51978415</v>
+        <v>1.947368421052632</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5949821</v>
+        <v>2.657894736842105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_distance_ppda</t>
+          <t>team_season_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5.242346379970898</v>
+        <v>0.05914374089587741</v>
       </c>
       <c r="C47" t="n">
-        <v>4.253694860876831</v>
+        <v>0.04738185535429135</v>
       </c>
       <c r="D47" t="n">
-        <v>1.061764012000465</v>
+        <v>24.82</v>
       </c>
       <c r="E47" t="n">
-        <v>0.727133478203126</v>
+        <v>0.01420810299589941</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9086957884164852</v>
+        <v>0.01403633910331051</v>
       </c>
       <c r="G47" t="n">
-        <v>3.96673699917865</v>
+        <v>0.04107142857142857</v>
       </c>
       <c r="H47" t="n">
-        <v>2.736093455392667</v>
+        <v>0.02389705882352941</v>
       </c>
       <c r="I47" t="n">
-        <v>5.776097209176477</v>
+        <v>0.07380073800738007</v>
       </c>
       <c r="J47" t="n">
-        <v>6.518467959066696</v>
+        <v>0.073558648111332</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_conceded_pg</t>
+          <t>team_season_sp_shots_pg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.8254623044096728</v>
+        <v>3.589758179231863</v>
       </c>
       <c r="C48" t="n">
-        <v>1.112233285917497</v>
+        <v>2.907349454717876</v>
       </c>
       <c r="D48" t="n">
-        <v>1.048699320223255</v>
+        <v>23.47</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05739382986758209</v>
+        <v>0.4006134778048442</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2895777922650384</v>
+        <v>0.3678669520966902</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7368421052631579</v>
+        <v>3.054054054054054</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8157894736842105</v>
+        <v>2.447368421052631</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8947368421052632</v>
+        <v>3.894736842105263</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>3.657894736842105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_xg_pg</t>
+          <t>team_season_throw_in_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1661413105994272</v>
+        <v>0.004218717958582076</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1376649278725001</v>
+        <v>0.005506271613459733</v>
       </c>
       <c r="D49" t="n">
-        <v>1.039995876348152</v>
+        <v>-23.38</v>
       </c>
       <c r="E49" t="n">
-        <v>0.03350993953957986</v>
+        <v>0.003548268534815144</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02308694257711835</v>
+        <v>0.003907098762737227</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1124462001025677</v>
+        <v>0.000169488062199793</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1069971223999011</v>
+        <v>0.00112254476468814</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1988505373561853</v>
+        <v>0.00851406833451045</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2039402888009423</v>
+        <v>0.013834033725097</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner_conceded</t>
+          <t>team_season_defensive_distance_ppda</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02866130357227688</v>
+        <v>5.242346379970898</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03462026943366973</v>
+        <v>4.253694860876831</v>
       </c>
       <c r="D50" t="n">
-        <v>1.039924291623207</v>
+        <v>23.24</v>
       </c>
       <c r="E50" t="n">
-        <v>0.003199310747489371</v>
+        <v>0.7271334782031258</v>
       </c>
       <c r="F50" t="n">
-        <v>0.005871236625476735</v>
+        <v>0.9086957884164851</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0245802132288615</v>
+        <v>3.96673699917865</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0231129597809355</v>
+        <v>2.736093455392667</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0314191613878523</v>
+        <v>5.776097209176477</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0414089765705046</v>
+        <v>6.518467959066696</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio</t>
+          <t>team_season_obv_gk_pg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.03614934004281049</v>
+        <v>-0.1065803470268657</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02336258895456374</v>
+        <v>-0.0865613170422853</v>
       </c>
       <c r="D51" t="n">
-        <v>1.038468343612895</v>
+        <v>-23.13</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01617091006827888</v>
+        <v>0.1314020766118728</v>
       </c>
       <c r="F51" t="n">
-        <v>0.009903535261773162</v>
+        <v>0.1313589083696339</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0111731843575419</v>
+        <v>-0.2831655470164199</v>
       </c>
       <c r="H51" t="n">
-        <v>0.006666666666666667</v>
+        <v>-0.379555063199644</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05319148936170213</v>
+        <v>0.07128995115793235</v>
       </c>
       <c r="J51" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.1196848798641249</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_shot_pg</t>
+          <t>team_season_deep_completions_conceded_pg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.1472369750784141</v>
+        <v>2.432859174964438</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.06902768440048253</v>
+        <v>3.163442389758179</v>
       </c>
       <c r="D52" t="n">
-        <v>1.030135716554462</v>
+        <v>-23.09</v>
       </c>
       <c r="E52" t="n">
-        <v>0.07378739843614505</v>
+        <v>0.7565656543805667</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07099552154257181</v>
+        <v>0.5964692845153694</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.2295870029024388</v>
+        <v>1.342105263157895</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.1756496337821355</v>
+        <v>2.315789473684211</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.03751293791306985</v>
+        <v>3.243243243243243</v>
       </c>
       <c r="J52" t="n">
-        <v>0.05729923711011285</v>
+        <v>4.210526315789473</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_passes_conceded_pg</t>
+          <t>team_season_xg_per_throw_in_conceded</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>356.2449502133713</v>
+        <v>0.0002024814893852967</v>
       </c>
       <c r="C53" t="n">
-        <v>386.6132290184922</v>
+        <v>0.000262217591185774</v>
       </c>
       <c r="D53" t="n">
-        <v>1.009690336548767</v>
+        <v>-22.78</v>
       </c>
       <c r="E53" t="n">
-        <v>20.4782606051182</v>
+        <v>0.0001785841961870599</v>
       </c>
       <c r="F53" t="n">
-        <v>30.42144353630043</v>
+        <v>0.0001869479705534075</v>
       </c>
       <c r="G53" t="n">
-        <v>335.5526315789473</v>
+        <v>7.961120350546541e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>308.4736842105263</v>
+        <v>4.93711817802654e-05</v>
       </c>
       <c r="I53" t="n">
-        <v>387.8947368421053</v>
+        <v>0.000424029630258543</v>
       </c>
       <c r="J53" t="n">
-        <v>429.3157894736842</v>
+        <v>0.0006990602358858639</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>team_season_pace_towards_goal</t>
+          <t>team_season_xg_per_sp_conceded</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.565714603908058</v>
+        <v>0.004744526435058664</v>
       </c>
       <c r="C54" t="n">
-        <v>2.69485220736334</v>
+        <v>0.006141694122025771</v>
       </c>
       <c r="D54" t="n">
-        <v>1.006785519361066</v>
+        <v>-22.75</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1248003007780193</v>
+        <v>0.0006046871436960366</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1207749687053354</v>
+        <v>0.001034416640990022</v>
       </c>
       <c r="G54" t="n">
-        <v>2.421391665290863</v>
+        <v>0.00377365879546431</v>
       </c>
       <c r="H54" t="n">
-        <v>2.436029022314694</v>
+        <v>0.00480316417215602</v>
       </c>
       <c r="I54" t="n">
-        <v>2.712461346418006</v>
+        <v>0.00535034351410207</v>
       </c>
       <c r="J54" t="n">
-        <v>2.886319203122905</v>
+        <v>0.00811967475216987</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_progressions_conceded_pg</t>
+          <t>team_season_sp_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>35.74267425320058</v>
+        <v>0.1947266029281433</v>
       </c>
       <c r="C55" t="n">
-        <v>40.42555713608345</v>
+        <v>0.2512325694902869</v>
       </c>
       <c r="D55" t="n">
-        <v>1.003730514762117</v>
+        <v>-22.49</v>
       </c>
       <c r="E55" t="n">
-        <v>2.902250324410919</v>
+        <v>0.02343531712678861</v>
       </c>
       <c r="F55" t="n">
-        <v>4.776477313753235</v>
+        <v>0.03847217562969794</v>
       </c>
       <c r="G55" t="n">
-        <v>33.73684210526316</v>
+        <v>0.1584936722524856</v>
       </c>
       <c r="H55" t="n">
-        <v>32.1578947368421</v>
+        <v>0.1823938203681456</v>
       </c>
       <c r="I55" t="n">
-        <v>40.78947368421053</v>
+        <v>0.21894175774957</v>
       </c>
       <c r="J55" t="n">
-        <v>46.94736842105263</v>
+        <v>0.3079239334053311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_conceded_pg</t>
+          <t>team_season_direct_free_kicks_pg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.696048224168521</v>
+        <v>0.5665718349928877</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7658697568671491</v>
+        <v>0.4636320531057372</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9919434699055195</v>
+        <v>22.2</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07801708139003774</v>
+        <v>0.1808478651147601</v>
       </c>
       <c r="F56" t="n">
-        <v>0.06350650952712547</v>
+        <v>0.1739289782710295</v>
       </c>
       <c r="G56" t="n">
-        <v>0.635995237573393</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6473243707104733</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8144671200094996</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8622440182064709</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>team_season_opp_final_third_pass_ratio</t>
+          <t>team_season_sp_shot_ratio</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.6057093829313427</v>
+        <v>0.08686355167631903</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6279787811215507</v>
+        <v>0.07116274208488624</v>
       </c>
       <c r="D57" t="n">
-        <v>0.991814955537438</v>
+        <v>22.06</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01975835457050594</v>
+        <v>0.004974851101949686</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02181351365797514</v>
+        <v>0.00972247163103937</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5822132616487455</v>
+        <v>0.0795774647887324</v>
       </c>
       <c r="H57" t="n">
-        <v>0.568018018018018</v>
+        <v>0.0528281750266809</v>
       </c>
       <c r="I57" t="n">
-        <v>0.6322652757078987</v>
+        <v>0.09363057324840759</v>
       </c>
       <c r="J57" t="n">
-        <v>0.6551893753074275</v>
+        <v>0.0907310704960835</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_passes_conceded_pg</t>
+          <t>team_season_goals_pg</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>405.1524893314367</v>
+        <v>1.386201991465149</v>
       </c>
       <c r="C58" t="n">
-        <v>436.8374585111427</v>
+        <v>1.147415836889521</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9888891094400453</v>
+        <v>20.81</v>
       </c>
       <c r="E58" t="n">
-        <v>22.52636992381151</v>
+        <v>0.1410170824359007</v>
       </c>
       <c r="F58" t="n">
-        <v>32.4455200296788</v>
+        <v>0.2040052104629502</v>
       </c>
       <c r="G58" t="n">
-        <v>381.9473684210527</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="H58" t="n">
-        <v>353.1578947368421</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="I58" t="n">
-        <v>439.3947368421053</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="J58" t="n">
-        <v>481.421052631579</v>
+        <v>1.657894736842105</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_ratio</t>
+          <t>team_season_corner_xg_pg</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.7336794958010922</v>
+        <v>0.1661413105994272</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7015751483342064</v>
+        <v>0.1376649278725002</v>
       </c>
       <c r="D59" t="n">
-        <v>0.971881259957545</v>
+        <v>20.69</v>
       </c>
       <c r="E59" t="n">
-        <v>0.025184255342783</v>
+        <v>0.03350993953957984</v>
       </c>
       <c r="F59" t="n">
-        <v>0.03318968662773495</v>
+        <v>0.02308694257711835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6964102564102564</v>
+        <v>0.1124462001025677</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6455798864557989</v>
+        <v>0.1069971223999011</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7545098039215686</v>
+        <v>0.1988505373561853</v>
       </c>
       <c r="J59" t="n">
-        <v>0.7477414871438499</v>
+        <v>0.2039402888009423</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_conceded_pg</t>
+          <t>team_season_xg_per_direct_free_kick_conceded</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>456.5883357041251</v>
+        <v>0.0375747205326613</v>
       </c>
       <c r="C60" t="n">
-        <v>486.4633475580844</v>
+        <v>0.0472866322733065</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9649644432384686</v>
+        <v>-20.54</v>
       </c>
       <c r="E60" t="n">
-        <v>21.7612094491864</v>
+        <v>0.007718593177623416</v>
       </c>
       <c r="F60" t="n">
-        <v>31.54240465940695</v>
+        <v>0.0199389064177986</v>
       </c>
       <c r="G60" t="n">
-        <v>433.9736842105263</v>
+        <v>0.0287174454757145</v>
       </c>
       <c r="H60" t="n">
-        <v>406.578947368421</v>
+        <v>0.0254724356863234</v>
       </c>
       <c r="I60" t="n">
-        <v>487.8421052631579</v>
+        <v>0.0445162753264109</v>
       </c>
       <c r="J60" t="n">
-        <v>524.7631578947369</v>
+        <v>0.08973199670965019</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_outside_box_pg</t>
+          <t>team_season_shots_from_free_kicks_pg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3.57226173541963</v>
+        <v>0.8453769559032717</v>
       </c>
       <c r="C61" t="n">
-        <v>3.025604551920341</v>
+        <v>0.7038880986249407</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9593694058751128</v>
+        <v>20.1</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4545680511588135</v>
+        <v>0.1551962063292789</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5698675538822954</v>
+        <v>0.221663640173784</v>
       </c>
       <c r="G61" t="n">
-        <v>2.763157894736842</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H61" t="n">
-        <v>1.947368421052632</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="I61" t="n">
-        <v>3.842105263157895</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="J61" t="n">
-        <v>4.289473684210527</v>
+        <v>1.216216216216216</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalty_goals_conceded_pg</t>
+          <t>team_season_xg_per_throw_in</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.07908961593172119</v>
+        <v>0.0001978573189164246</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1458036984352774</v>
+        <v>0.000246973995313287</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9534151328670143</v>
+        <v>-19.89</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06431569829980485</v>
+        <v>0.0002641797344035013</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06797596339218007</v>
+        <v>0.0002130676926197671</v>
       </c>
       <c r="G62" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.0006619653918526389</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.0007811334953355143</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_shot_ratio_conceded</t>
+          <t>team_season_shots_from_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3579795216603728</v>
+        <v>0.8409672830725462</v>
       </c>
       <c r="C63" t="n">
-        <v>0.411595208327542</v>
+        <v>0.7043622569938358</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9504163689716629</v>
+        <v>19.39</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03975757991996074</v>
+        <v>0.1360441463979478</v>
       </c>
       <c r="F63" t="n">
-        <v>0.05766008956033974</v>
+        <v>0.1763434114820387</v>
       </c>
       <c r="G63" t="n">
-        <v>0.313333333333333</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="H63" t="n">
-        <v>0.299363057324841</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="I63" t="n">
-        <v>0.402777777777778</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="J63" t="n">
-        <v>0.47953216374269</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_conceded_pg</t>
+          <t>team_season_shots_from_direct_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1001422475106686</v>
+        <v>0.4438122332859175</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1774774774774775</v>
+        <v>0.5503556187766715</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9345709456890476</v>
+        <v>-19.36</v>
       </c>
       <c r="E64" t="n">
-        <v>0.09726989415540079</v>
+        <v>0.09094250594294369</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07400575617387926</v>
+        <v>0.1733376325985316</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.868421052631579</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>team_season_ppda</t>
+          <t>team_season_red_cards_pg</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8.911094365137584</v>
+        <v>0.09004267425320053</v>
       </c>
       <c r="C65" t="n">
-        <v>10.54986617128197</v>
+        <v>0.07558084400189662</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9334695606800278</v>
+        <v>19.13</v>
       </c>
       <c r="E65" t="n">
-        <v>1.264313059655023</v>
+        <v>0.04805619045621026</v>
       </c>
       <c r="F65" t="n">
-        <v>1.796339938298467</v>
+        <v>0.05060041696761707</v>
       </c>
       <c r="G65" t="n">
-        <v>8.067073170731707</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H65" t="n">
-        <v>6.887683965917893</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>11.13776015857284</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J65" t="n">
-        <v>14.73928571428571</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_pass_distance</t>
+          <t>team_season_op_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>36.87284172661865</v>
+        <v>6.862873399715506</v>
       </c>
       <c r="C66" t="n">
-        <v>40.66749394794231</v>
+        <v>8.407965860597438</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9270085352209182</v>
+        <v>-18.38</v>
       </c>
       <c r="E66" t="n">
-        <v>4.242436128717568</v>
+        <v>0.894577025531326</v>
       </c>
       <c r="F66" t="n">
-        <v>3.864989242266917</v>
+        <v>1.093675991093727</v>
       </c>
       <c r="G66" t="n">
-        <v>30.92665943642506</v>
+        <v>5.789473684210527</v>
       </c>
       <c r="H66" t="n">
-        <v>33.10904541015625</v>
+        <v>6.763157894736842</v>
       </c>
       <c r="I66" t="n">
-        <v>41.02595523286938</v>
+        <v>7.945945945945946</v>
       </c>
       <c r="J66" t="n">
-        <v>47.21003178758414</v>
+        <v>10.71052631578947</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_goal_ratio_conceded</t>
+          <t>team_season_op_shots_outside_box_pg</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>3.57226173541963</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0006647799500464827</v>
+        <v>3.025604551920341</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9262178883572373</v>
+        <v>18.07</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.4545680511588136</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0007858413935287731</v>
+        <v>0.5698675538822955</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2.763157894736842</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1.947368421052632</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>3.842105263157895</v>
       </c>
       <c r="J67" t="n">
-        <v>0.00235849056603774</v>
+        <v>4.289473684210527</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>team_season_corners_pg</t>
+          <t>team_season_throw_in_xg_pg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4.778805120910384</v>
+        <v>0.004448331041847108</v>
       </c>
       <c r="C68" t="n">
-        <v>4.198672356567093</v>
+        <v>0.005419667021006226</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9231306575119598</v>
+        <v>-17.92</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4914177998612436</v>
+        <v>0.006177314937627115</v>
       </c>
       <c r="F68" t="n">
-        <v>0.636435823521334</v>
+        <v>0.004643900201618733</v>
       </c>
       <c r="G68" t="n">
-        <v>3.972972972972973</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>3.236842105263158</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>5.263157894736842</v>
+        <v>0.01532972547666807</v>
       </c>
       <c r="J68" t="n">
-        <v>5.421052631578948</v>
+        <v>0.01667103137036688</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_progressions_pg</t>
+          <t>team_season_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>41.9950213371266</v>
+        <v>3.74153627311522</v>
       </c>
       <c r="C69" t="n">
-        <v>38.34011379800852</v>
+        <v>4.545187292555714</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9211577348406956</v>
+        <v>-17.68</v>
       </c>
       <c r="E69" t="n">
-        <v>2.41270486145257</v>
+        <v>0.1877273763698494</v>
       </c>
       <c r="F69" t="n">
-        <v>4.153136899240347</v>
+        <v>0.4399521805564752</v>
       </c>
       <c r="G69" t="n">
-        <v>38.39473684210526</v>
+        <v>3.47368421052632</v>
       </c>
       <c r="H69" t="n">
-        <v>32.47368421052632</v>
+        <v>3.47368421052632</v>
       </c>
       <c r="I69" t="n">
-        <v>44.28947368421053</v>
+        <v>3.94736842105263</v>
       </c>
       <c r="J69" t="n">
-        <v>45.44736842105263</v>
+        <v>5.07894736842105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_throw_ins_conceded_pg</t>
+          <t>team_season_np_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>9.561593172119487</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01403508771929824</v>
+        <v>11.61156946420104</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9146591207600471</v>
+        <v>-17.65</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1.007189046635097</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01684053877426801</v>
+        <v>1.36475258252374</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>8.157894736842104</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>9.578947368421053</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>10.7027027027027</v>
       </c>
       <c r="J70" t="n">
-        <v>0.05263157894736842</v>
+        <v>14.18421052631579</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_shot_ratio</t>
+          <t>team_season_direct_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.4304317296782395</v>
+        <v>0.4227596017069702</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3899785537413913</v>
+        <v>0.5117117117117118</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9051199296699387</v>
+        <v>-17.38</v>
       </c>
       <c r="E71" t="n">
-        <v>0.04718281677554785</v>
+        <v>0.07383625574620148</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04218071235526199</v>
+        <v>0.1587685204376669</v>
       </c>
       <c r="G71" t="n">
-        <v>0.39</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.236842105263158</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4842105263157895</v>
+        <v>0.5</v>
       </c>
       <c r="J71" t="n">
-        <v>0.4803149606299212</v>
+        <v>0.815789473684211</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>team_season_opp_passing_ratio</t>
+          <t>team_season_goals_from_corners_conceded_pg</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.7799827864623883</v>
+        <v>0.1002844950213371</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7941009991295312</v>
+        <v>0.1211474632527264</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8799285549101709</v>
+        <v>-17.22</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01069765103467314</v>
+        <v>0.03382306617901749</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01678315703340521</v>
+        <v>0.05135753361405134</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7671638392348856</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="H72" t="n">
-        <v>0.7571793235481813</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7951235300463912</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J72" t="n">
-        <v>0.8181134346321649</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_pg</t>
+          <t>team_season_xg_per_corner_conceded</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8.794879089615931</v>
+        <v>0.02866130357227688</v>
       </c>
       <c r="C73" t="n">
-        <v>7.763252726410621</v>
+        <v>0.03462026943366973</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8792505338089855</v>
+        <v>-17.21</v>
       </c>
       <c r="E73" t="n">
-        <v>1.182694662844157</v>
+        <v>0.003199310747489371</v>
       </c>
       <c r="F73" t="n">
-        <v>1.132214452779214</v>
+        <v>0.005871236625476735</v>
       </c>
       <c r="G73" t="n">
-        <v>7</v>
+        <v>0.0245802132288615</v>
       </c>
       <c r="H73" t="n">
-        <v>6.105263157894737</v>
+        <v>0.0231129597809355</v>
       </c>
       <c r="I73" t="n">
-        <v>10.31578947368421</v>
+        <v>0.0314191613878523</v>
       </c>
       <c r="J73" t="n">
-        <v>10.89473684210526</v>
+        <v>0.0414089765705046</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_dribble_carry_pg</t>
+          <t>team_season_shots_from_direct_free_kicks_pg</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.8065273571481258</v>
+        <v>0.5879089615931721</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7289224473664589</v>
+        <v>0.5023233760075865</v>
       </c>
       <c r="D74" t="n">
-        <v>0.867786688089742</v>
+        <v>17.04</v>
       </c>
       <c r="E74" t="n">
-        <v>0.103220786937567</v>
+        <v>0.1825752479348098</v>
       </c>
       <c r="F74" t="n">
-        <v>0.08226557554531512</v>
+        <v>0.1864057866673684</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6972802856348848</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6132858599487104</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9475320781532087</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8707524969389564</v>
+        <v>1.026315789473684</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>team_season_possession</t>
+          <t>team_season_high_press_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5209658215928941</v>
+        <v>2.012375533428165</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4930135460442348</v>
+        <v>2.424134660976767</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8674651062570142</v>
+        <v>-16.99</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0283193687546016</v>
+        <v>0.2426741072842624</v>
       </c>
       <c r="F75" t="n">
-        <v>0.03232471795898762</v>
+        <v>0.5222364985906681</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4874342725958233</v>
+        <v>1.710526315789474</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4574381559190046</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="I75" t="n">
-        <v>0.552454990547227</v>
+        <v>2.351351351351351</v>
       </c>
       <c r="J75" t="n">
-        <v>0.5598803530245049</v>
+        <v>3.578947368421053</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_pressures_pg</t>
+          <t>team_season_np_shots_pg</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>73.1615931721195</v>
+        <v>12.38463726884779</v>
       </c>
       <c r="C76" t="n">
-        <v>65.66804172593646</v>
+        <v>10.6706021811285</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8531841417759047</v>
+        <v>16.06</v>
       </c>
       <c r="E76" t="n">
-        <v>8.270746026677482</v>
+        <v>1.002707914126189</v>
       </c>
       <c r="F76" t="n">
-        <v>8.695813282959245</v>
+        <v>1.335635625463163</v>
       </c>
       <c r="G76" t="n">
-        <v>62.05263157894737</v>
+        <v>10.86842105263158</v>
       </c>
       <c r="H76" t="n">
-        <v>57.10526315789474</v>
+        <v>8.710526315789474</v>
       </c>
       <c r="I76" t="n">
-        <v>80.92105263157895</v>
+        <v>13.57894736842105</v>
       </c>
       <c r="J76" t="n">
-        <v>91.68421052631579</v>
+        <v>14.1578947368421</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_conceded_pg</t>
+          <t>team_season_sp_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.012375533428165</v>
+        <v>0.06582264719250304</v>
       </c>
       <c r="C77" t="n">
-        <v>2.424134660976767</v>
+        <v>0.07820663709442933</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8503362447250848</v>
+        <v>-15.83</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2426741072842627</v>
+        <v>0.006434909160632485</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5222364985906682</v>
+        <v>0.01142737159729176</v>
       </c>
       <c r="G77" t="n">
-        <v>1.710526315789474</v>
+        <v>0.056390977443609</v>
       </c>
       <c r="H77" t="n">
-        <v>1.605263157894737</v>
+        <v>0.0615563298490128</v>
       </c>
       <c r="I77" t="n">
-        <v>2.351351351351351</v>
+        <v>0.0723729993041058</v>
       </c>
       <c r="J77" t="n">
-        <v>3.578947368421053</v>
+        <v>0.09839228295819941</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>team_season_defensive_action_regains_pg</t>
+          <t>team_season_sp_shots_conceded_pg</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>48.98406827880512</v>
+        <v>2.698719772403983</v>
       </c>
       <c r="C78" t="n">
-        <v>51.20616405879564</v>
+        <v>3.203603603603604</v>
       </c>
       <c r="D78" t="n">
-        <v>0.841149486406317</v>
+        <v>-15.76</v>
       </c>
       <c r="E78" t="n">
-        <v>2.61068270236834</v>
+        <v>0.1879690652836009</v>
       </c>
       <c r="F78" t="n">
-        <v>2.588386522874366</v>
+        <v>0.4606775391114625</v>
       </c>
       <c r="G78" t="n">
-        <v>46.60526315789474</v>
+        <v>2.368421052631579</v>
       </c>
       <c r="H78" t="n">
-        <v>47.51351351351352</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="I78" t="n">
-        <v>52.5</v>
+        <v>2.815789473684211</v>
       </c>
       <c r="J78" t="n">
-        <v>55.78947368421053</v>
+        <v>4.078947368421052</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_shot_ratio</t>
+          <t>team_season_ppda</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.05914374089587741</v>
+        <v>8.911094365137584</v>
       </c>
       <c r="C79" t="n">
-        <v>0.04738185535429135</v>
+        <v>10.54986617128197</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8230402752194244</v>
+        <v>-15.53</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01420810299589941</v>
+        <v>1.264313059655021</v>
       </c>
       <c r="F79" t="n">
-        <v>0.01403633910331051</v>
+        <v>1.796339938298467</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04107142857142857</v>
+        <v>8.067073170731707</v>
       </c>
       <c r="H79" t="n">
-        <v>0.02389705882352941</v>
+        <v>6.887683965917893</v>
       </c>
       <c r="I79" t="n">
-        <v>0.07380073800738007</v>
+        <v>11.13776015857284</v>
       </c>
       <c r="J79" t="n">
-        <v>0.073558648111332</v>
+        <v>14.73928571428571</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_pg</t>
+          <t>team_season_counter_attacking_shots_pg</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.103171941829821</v>
+        <v>1.154765291607397</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9919320352654595</v>
+        <v>1.002892366050261</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8146326018205446</v>
+        <v>15.14</v>
       </c>
       <c r="E80" t="n">
-        <v>0.07284498381395757</v>
+        <v>0.3680427903783114</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1476726665695936</v>
+        <v>0.2600452553460587</v>
       </c>
       <c r="G80" t="n">
-        <v>1.00452613026688</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8020262206728394</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="I80" t="n">
-        <v>1.198311121840226</v>
+        <v>1.421052631578947</v>
       </c>
       <c r="J80" t="n">
-        <v>1.361912978715018</v>
+        <v>1.657894736842105</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>team_season_aggression</t>
+          <t>team_season_corners_pg</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1999560304047538</v>
+        <v>4.778805120910384</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1845289319314765</v>
+        <v>4.198672356567093</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8116585400509485</v>
+        <v>13.82</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02191307803818892</v>
+        <v>0.4914177998612433</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01775229771387459</v>
+        <v>0.6364358235213341</v>
       </c>
       <c r="G81" t="n">
-        <v>0.167601683029453</v>
+        <v>3.972972972972973</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1615301139446554</v>
+        <v>3.236842105263158</v>
       </c>
       <c r="I81" t="n">
-        <v>0.22116317561783</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2163106796116505</v>
+        <v>5.421052631578948</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_free_kicks_conceded_pg</t>
+          <t>team_season_op_shots_pg</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.8409672830725462</v>
+        <v>8.794879089615931</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7043622569938358</v>
+        <v>7.763252726410621</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8026093760975984</v>
+        <v>13.29</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1360441463979478</v>
+        <v>1.182694662844157</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1763434114820388</v>
+        <v>1.132214452779214</v>
       </c>
       <c r="G82" t="n">
-        <v>0.631578947368421</v>
+        <v>7</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3684210526315789</v>
+        <v>6.105263157894737</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9736842105263158</v>
+        <v>10.31578947368421</v>
       </c>
       <c r="J82" t="n">
-        <v>0.9473684210526315</v>
+        <v>10.89473684210526</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kicks_conceded_pg</t>
+          <t>team_season_corner_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>15.5425320056899</v>
+        <v>0.3579795216603728</v>
       </c>
       <c r="C83" t="n">
-        <v>14.50559506875296</v>
+        <v>0.411595208327542</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8021815231535598</v>
+        <v>-13.03</v>
       </c>
       <c r="E83" t="n">
-        <v>1.432359452797582</v>
+        <v>0.03975757991996074</v>
       </c>
       <c r="F83" t="n">
-        <v>1.229980510938865</v>
+        <v>0.05766008956033974</v>
       </c>
       <c r="G83" t="n">
-        <v>13.2894736842105</v>
+        <v>0.313333333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>12.2105263157895</v>
+        <v>0.299363057324841</v>
       </c>
       <c r="I83" t="n">
-        <v>16.7631578947368</v>
+        <v>0.402777777777778</v>
       </c>
       <c r="J83" t="n">
-        <v>16.6315789473684</v>
+        <v>0.47953216374269</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalties_won_pg</t>
+          <t>team_season_np_xg_per_shot_conceded</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1961593172119488</v>
+        <v>0.08245319742684669</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1458511142721669</v>
+        <v>0.09463718300299523</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8008157996898604</v>
+        <v>-12.87</v>
       </c>
       <c r="E84" t="n">
-        <v>0.07286176603370031</v>
+        <v>0.01136294447389356</v>
       </c>
       <c r="F84" t="n">
-        <v>0.05867815524758056</v>
+        <v>0.007612571082619831</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.0738838321030742</v>
       </c>
       <c r="H84" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.08042608342498044</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.09586237532846775</v>
       </c>
       <c r="J84" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.1115930764982016</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_conceded_pg</t>
+          <t>team_season_goals_from_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.159389677296749</v>
+        <v>0.06330014224751065</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.06843356554041315</v>
+        <v>0.05623518255097202</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7867598695765562</v>
+        <v>12.56</v>
       </c>
       <c r="E85" t="n">
-        <v>0.143257270016234</v>
+        <v>0.0397466628951575</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1049462524267176</v>
+        <v>0.03961231669154284</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3562100908081782</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.2185716114104971</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.02011645464478312</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J85" t="n">
-        <v>0.09901437817865776</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>team_season_possessions</t>
+          <t>team_season_free_kick_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>188.1378378378378</v>
+        <v>0.05465626185239523</v>
       </c>
       <c r="C86" t="n">
-        <v>192.0846372688478</v>
+        <v>0.04869497082586237</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7822342539319914</v>
+        <v>12.24</v>
       </c>
       <c r="E86" t="n">
-        <v>4.414405108855625</v>
+        <v>0.01096132152749319</v>
       </c>
       <c r="F86" t="n">
-        <v>5.160207197622282</v>
+        <v>0.01231794732089645</v>
       </c>
       <c r="G86" t="n">
-        <v>183.1842105263158</v>
+        <v>0.0376766091051805</v>
       </c>
       <c r="H86" t="n">
-        <v>185.6052631578947</v>
+        <v>0.0253164556962025</v>
       </c>
       <c r="I86" t="n">
-        <v>195.0263157894737</v>
+        <v>0.0673267326732673</v>
       </c>
       <c r="J86" t="n">
-        <v>203.3684210526316</v>
+        <v>0.0694980694980695</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>team_season_opposition_own_goals_pg</t>
+          <t>team_season_xg_per_direct_free_kick</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.05277382645803699</v>
+        <v>0.04241008922278357</v>
       </c>
       <c r="C87" t="n">
-        <v>0.03342816500711237</v>
+        <v>0.04829041282770179</v>
       </c>
       <c r="D87" t="n">
-        <v>0.754461912718981</v>
+        <v>-12.18</v>
       </c>
       <c r="E87" t="n">
-        <v>0.03709156688734274</v>
+        <v>0.007112332543584682</v>
       </c>
       <c r="F87" t="n">
-        <v>0.02111754520469447</v>
+        <v>0.0210188048403927</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.03152032967271476</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>0.02756790424648084</v>
       </c>
       <c r="I87" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.05057425796985626</v>
       </c>
       <c r="J87" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.09368851780891418</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_shot_conceded_pg</t>
+          <t>team_season_sp_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.1352750901429573</v>
+        <v>0.004752639052940442</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.07326171785520612</v>
+        <v>0.005404538082167351</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7232249654825387</v>
+        <v>-12.06</v>
       </c>
       <c r="E88" t="n">
-        <v>0.05384223093208308</v>
+        <v>0.001429631049359236</v>
       </c>
       <c r="F88" t="n">
-        <v>0.09297813152539917</v>
+        <v>0.001408341066986742</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1957064420488235</v>
+        <v>0.0031328320802005</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.2573062454497343</v>
+        <v>0.00290360046457607</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.06954894175654963</v>
+        <v>0.00643086816720257</v>
       </c>
       <c r="J88" t="n">
-        <v>0.08078435808420181</v>
+        <v>0.0074673304293715</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>team_season_penalty_goals_pg</t>
+          <t>team_season_sp_goals_pg_conceded</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1590327169274538</v>
+        <v>0.195448079658606</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1195353247984827</v>
+        <v>0.221289710763395</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7186923572690802</v>
+        <v>-11.68</v>
       </c>
       <c r="E89" t="n">
-        <v>0.05720622960337747</v>
+        <v>0.05967066899886803</v>
       </c>
       <c r="F89" t="n">
-        <v>0.05442276484457526</v>
+        <v>0.05829413037975825</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H89" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="J89" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.315789473684211</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_conceded_pg</t>
+          <t>team_season_deep_progressions_conceded_pg</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01578890262582308</v>
+        <v>35.74267425320058</v>
       </c>
       <c r="C90" t="n">
-        <v>0.025208978419779</v>
+        <v>40.42555713608345</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7170826572826622</v>
+        <v>-11.58</v>
       </c>
       <c r="E90" t="n">
-        <v>0.003781946280711056</v>
+        <v>2.902250324410919</v>
       </c>
       <c r="F90" t="n">
-        <v>0.01478769001104661</v>
+        <v>4.776477313753235</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0105801115400697</v>
+        <v>33.73684210526316</v>
       </c>
       <c r="H90" t="n">
-        <v>0.00603294519609527</v>
+        <v>32.1578947368421</v>
       </c>
       <c r="I90" t="n">
-        <v>0.019773480359857</v>
+        <v>40.78947368421053</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0572634709043134</v>
+        <v>46.94736842105263</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_defensive_action_conceded_pg</t>
+          <t>team_season_fhalf_pressures_pg</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1857083870744489</v>
+        <v>73.1615931721195</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2498913498156853</v>
+        <v>65.66804172593646</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6912529552453404</v>
+        <v>11.41</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1126458966585873</v>
+        <v>8.270746026677482</v>
       </c>
       <c r="F91" t="n">
-        <v>0.08710370927477562</v>
+        <v>8.695813282959245</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05018676175294738</v>
+        <v>62.05263157894737</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1179374253024926</v>
+        <v>57.10526315789474</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3554884582561882</v>
+        <v>80.92105263157895</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4064284993433638</v>
+        <v>91.68421052631579</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_free_kicks_pg</t>
+          <t>team_season_np_xg_pg</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.8453769559032717</v>
+        <v>1.103171941829821</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7038880986249407</v>
+        <v>0.9919320352654594</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6825969879765816</v>
+        <v>11.21</v>
       </c>
       <c r="E92" t="n">
-        <v>0.155196206329279</v>
+        <v>0.07284498381395749</v>
       </c>
       <c r="F92" t="n">
-        <v>0.221663640173784</v>
+        <v>0.1476726665695935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.6216216216216216</v>
+        <v>1.00452613026688</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.8020262206728394</v>
       </c>
       <c r="I92" t="n">
-        <v>1.052631578947368</v>
+        <v>1.198311121840226</v>
       </c>
       <c r="J92" t="n">
-        <v>1.216216216216216</v>
+        <v>1.361912978715018</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_direct_free_kicks_conceded_pg</t>
+          <t>team_season_obv_defensive_action_pg</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.4438122332859175</v>
+        <v>0.2533709284401689</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5503556187766715</v>
+        <v>0.2278888643471522</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6763512000335391</v>
+        <v>11.18</v>
       </c>
       <c r="E93" t="n">
-        <v>0.09094250594294367</v>
+        <v>0.1078458670590433</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1733376325985316</v>
+        <v>0.07377395983044792</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.08201460834396512</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.09838022860257249</v>
       </c>
       <c r="I93" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.379871645816476</v>
       </c>
       <c r="J93" t="n">
-        <v>0.868421052631579</v>
+        <v>0.365391076689488</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_passes_pg</t>
+          <t>team_season_obv_dribble_carry_pg</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>399.4644381223328</v>
+        <v>0.8065273571481258</v>
       </c>
       <c r="C94" t="n">
-        <v>372.2061640587956</v>
+        <v>0.7289224473664589</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6604168818064107</v>
+        <v>10.65</v>
       </c>
       <c r="E94" t="n">
-        <v>41.72564933936624</v>
+        <v>0.103220786937567</v>
       </c>
       <c r="F94" t="n">
-        <v>41.67991192156958</v>
+        <v>0.08226557554531512</v>
       </c>
       <c r="G94" t="n">
-        <v>333.8684210526316</v>
+        <v>0.6972802856348848</v>
       </c>
       <c r="H94" t="n">
-        <v>315.5135135135135</v>
+        <v>0.6132858599487104</v>
       </c>
       <c r="I94" t="n">
-        <v>442.3684210526316</v>
+        <v>0.9475320781532087</v>
       </c>
       <c r="J94" t="n">
-        <v>457.3947368421053</v>
+        <v>0.8707524969389564</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_passes_pg</t>
+          <t>team_season_yellow_cards_pg</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>447.7385490753912</v>
+        <v>1.97724039829303</v>
       </c>
       <c r="C95" t="n">
-        <v>422.6387387387387</v>
+        <v>1.790943575154101</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6578748702038308</v>
+        <v>10.4</v>
       </c>
       <c r="E95" t="n">
-        <v>39.48039838071117</v>
+        <v>0.428015822083806</v>
       </c>
       <c r="F95" t="n">
-        <v>38.2804604572659</v>
+        <v>0.2620588751874995</v>
       </c>
       <c r="G95" t="n">
-        <v>385.8421052631579</v>
+        <v>1.552631578947368</v>
       </c>
       <c r="H95" t="n">
-        <v>364.0810810810811</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="I95" t="n">
-        <v>488.4736842105263</v>
+        <v>2.5</v>
       </c>
       <c r="J95" t="n">
-        <v>503.6842105263158</v>
+        <v>2.263157894736842</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_pg</t>
+          <t>team_season_corner_shot_ratio</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04793741109530583</v>
+        <v>0.4304317296782395</v>
       </c>
       <c r="C96" t="n">
-        <v>0.02456140350877193</v>
+        <v>0.3899785537413913</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6515232206132316</v>
+        <v>10.37</v>
       </c>
       <c r="E96" t="n">
-        <v>0.04795872237981098</v>
+        <v>0.04718281677554783</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03217892859396883</v>
+        <v>0.04218071235526198</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.4803149606299212</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_pg</t>
+          <t>team_season_fhalf_pressures_ratio</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>496.872546230441</v>
+        <v>0.4840015166367297</v>
       </c>
       <c r="C97" t="n">
-        <v>473.0310099573257</v>
+        <v>0.4392414592572608</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6470051087636075</v>
+        <v>10.19</v>
       </c>
       <c r="E97" t="n">
-        <v>37.89308911729716</v>
+        <v>0.03063813716647687</v>
       </c>
       <c r="F97" t="n">
-        <v>37.11176466927584</v>
+        <v>0.04068775293743557</v>
       </c>
       <c r="G97" t="n">
-        <v>438.4473684210527</v>
+        <v>0.4482037635430526</v>
       </c>
       <c r="H97" t="n">
-        <v>414.6756756756757</v>
+        <v>0.3954437266235974</v>
       </c>
       <c r="I97" t="n">
-        <v>536.6315789473684</v>
+        <v>0.5324512783836939</v>
       </c>
       <c r="J97" t="n">
-        <v>551.2894736842105</v>
+        <v>0.5553961421967161</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kicks_conceded_pg</t>
+          <t>team_season_deep_progressions_pg</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.4227596017069702</v>
+        <v>41.9950213371266</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5117117117117118</v>
+        <v>38.34011379800852</v>
       </c>
       <c r="D98" t="n">
-        <v>0.62556827834106</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.07383625574620148</v>
+        <v>2.412704861452568</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1587685204376669</v>
+        <v>4.153136899240346</v>
       </c>
       <c r="G98" t="n">
-        <v>0.324324324324324</v>
+        <v>38.39473684210526</v>
       </c>
       <c r="H98" t="n">
-        <v>0.236842105263158</v>
+        <v>32.47368421052632</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5</v>
+        <v>44.28947368421053</v>
       </c>
       <c r="J98" t="n">
-        <v>0.815789473684211</v>
+        <v>45.44736842105263</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>team_season_passing_ratio</t>
+          <t>team_season_gk_pass_distance</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.8025181520115765</v>
+        <v>36.87284172661865</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7851050322886171</v>
+        <v>40.6674939479423</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6200708821314838</v>
+        <v>-9.33</v>
       </c>
       <c r="E99" t="n">
-        <v>0.02534504921785127</v>
+        <v>4.242436128717569</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02935734217157304</v>
+        <v>3.864989242266918</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7614789028269612</v>
+        <v>30.92665943642506</v>
       </c>
       <c r="H99" t="n">
-        <v>0.7157709251101322</v>
+        <v>33.10904541015625</v>
       </c>
       <c r="I99" t="n">
-        <v>0.824342879560612</v>
+        <v>41.02595523286938</v>
       </c>
       <c r="J99" t="n">
-        <v>0.829681607713972</v>
+        <v>47.21003178758414</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>team_season_yellow_cards_pg</t>
+          <t>team_season_obv_dribble_carry_conceded_pg</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.97724039829303</v>
+        <v>0.696048224168521</v>
       </c>
       <c r="C100" t="n">
-        <v>1.790943575154101</v>
+        <v>0.7658697568671491</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6168249031001883</v>
+        <v>-9.119999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4280158220838058</v>
+        <v>0.07801708139003774</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2620588751874994</v>
+        <v>0.06350650952712547</v>
       </c>
       <c r="G100" t="n">
-        <v>1.552631578947368</v>
+        <v>0.635995237573393</v>
       </c>
       <c r="H100" t="n">
-        <v>1.394736842105263</v>
+        <v>0.6473243707104733</v>
       </c>
       <c r="I100" t="n">
-        <v>2.5</v>
+        <v>0.8144671200094996</v>
       </c>
       <c r="J100" t="n">
-        <v>2.263157894736842</v>
+        <v>0.8622440182064709</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kicks_pg</t>
+          <t>team_season_aggression</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.5665718349928877</v>
+        <v>0.1999560304047538</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4636320531057372</v>
+        <v>0.1845289319314765</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5972774313938376</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1808478651147601</v>
+        <v>0.02191307803818892</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1739289782710295</v>
+        <v>0.0177522977138746</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.167601683029453</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.1615301139446554</v>
       </c>
       <c r="I101" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.22116317561783</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9210526315789473</v>
+        <v>0.2163106796116505</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pass_pg</t>
+          <t>team_season_successful_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.7344858645722482</v>
+        <v>356.2449502133712</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6817110416743042</v>
+        <v>386.6132290184922</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5628194821695096</v>
+        <v>-7.85</v>
       </c>
       <c r="E102" t="n">
-        <v>0.08062556774437998</v>
+        <v>20.47826060511824</v>
       </c>
       <c r="F102" t="n">
-        <v>0.09978721382108571</v>
+        <v>30.42144353630042</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6463170304502311</v>
+        <v>335.5526315789473</v>
       </c>
       <c r="H102" t="n">
-        <v>0.496091048380262</v>
+        <v>308.4736842105263</v>
       </c>
       <c r="I102" t="n">
-        <v>0.8459910798915907</v>
+        <v>387.8947368421053</v>
       </c>
       <c r="J102" t="n">
-        <v>0.8554961112769026</v>
+        <v>429.3157894736842</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick_conceded</t>
+          <t>team_season_obv_pass_pg</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.0375747205326613</v>
+        <v>0.7344858645722482</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0472866322733065</v>
+        <v>0.6817110416743042</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5534840757349571</v>
+        <v>7.74</v>
       </c>
       <c r="E103" t="n">
-        <v>0.007718593177623416</v>
+        <v>0.08062556774437998</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0199389064177986</v>
+        <v>0.0997872138210857</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0287174454757145</v>
+        <v>0.6463170304502311</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0254724356863234</v>
+        <v>0.496091048380262</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0445162753264109</v>
+        <v>0.8459910798915907</v>
       </c>
       <c r="J103" t="n">
-        <v>0.08973199670965019</v>
+        <v>0.8554961112769026</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>team_season_counter_attacking_shots_pg</t>
+          <t>team_season_successful_passes_pg</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.154765291607397</v>
+        <v>399.4644381223329</v>
       </c>
       <c r="C104" t="n">
-        <v>1.002892366050261</v>
+        <v>372.2061640587956</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5411886052846779</v>
+        <v>7.32</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3680427903783116</v>
+        <v>41.72564933936623</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2600452553460588</v>
+        <v>41.67991192156959</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5526315789473685</v>
+        <v>333.8684210526316</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6486486486486487</v>
+        <v>315.5135135135135</v>
       </c>
       <c r="I104" t="n">
-        <v>1.421052631578947</v>
+        <v>442.3684210526316</v>
       </c>
       <c r="J104" t="n">
-        <v>1.657894736842105</v>
+        <v>457.3947368421053</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_shot_ratio</t>
+          <t>team_season_op_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.041333333333332</v>
+        <v>405.1524893314368</v>
       </c>
       <c r="C105" t="n">
-        <v>1.096894985047159</v>
+        <v>436.8374585111427</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5405252187995425</v>
+        <v>-7.25</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0416733328000836</v>
+        <v>22.5263699238115</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1173518817901146</v>
+        <v>32.4455200296788</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>381.9473684210527</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>353.1578947368421</v>
       </c>
       <c r="I105" t="n">
-        <v>1.08333333333333</v>
+        <v>439.3947368421053</v>
       </c>
       <c r="J105" t="n">
-        <v>1.44444444444444</v>
+        <v>481.421052631579</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_distance_conceded</t>
+          <t>team_season_free_kicks_conceded_pg</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>15.80275992869056</v>
+        <v>15.5425320056899</v>
       </c>
       <c r="C106" t="n">
-        <v>15.32296729059635</v>
+        <v>14.50559506875296</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5209150251883595</v>
+        <v>7.15</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9610005582377206</v>
+        <v>1.432359452797582</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9414879062819321</v>
+        <v>1.229980510938865</v>
       </c>
       <c r="G106" t="n">
-        <v>14.7233236437646</v>
+        <v>13.2894736842105</v>
       </c>
       <c r="H106" t="n">
-        <v>13.75996301529255</v>
+        <v>12.2105263157895</v>
       </c>
       <c r="I106" t="n">
-        <v>16.62840033637153</v>
+        <v>16.7631578947368</v>
       </c>
       <c r="J106" t="n">
-        <v>17.44660740272672</v>
+        <v>16.6315789473684</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_xg_per_shot</t>
+          <t>team_season_successful_crosses_into_box_pg</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.08923902960012699</v>
+        <v>2.32873399715505</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09303412158678687</v>
+        <v>2.176434329065908</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5126032682607802</v>
+        <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>0.004196375793871233</v>
+        <v>0.1286488955840506</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00833155455089705</v>
+        <v>0.5366423159959157</v>
       </c>
       <c r="G107" t="n">
-        <v>0.08390160786736872</v>
+        <v>2.184210526315789</v>
       </c>
       <c r="H107" t="n">
-        <v>0.07829807553253576</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="I107" t="n">
-        <v>0.09440671677557413</v>
+        <v>2.45945945945946</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1131115939321835</v>
+        <v>3.210526315789474</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_shot_ratio_conceded</t>
+          <t>team_season_free_kick_xg_conceded_pg</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.05465626185239523</v>
+        <v>0.06750268410827705</v>
       </c>
       <c r="C108" t="n">
-        <v>0.04869497082586237</v>
+        <v>0.06321220891839427</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5094830648981052</v>
+        <v>6.79</v>
       </c>
       <c r="E108" t="n">
-        <v>0.01096132152749319</v>
+        <v>0.01711306512660571</v>
       </c>
       <c r="F108" t="n">
-        <v>0.01231794732089645</v>
+        <v>0.0163445005920072</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0376766091051805</v>
+        <v>0.0492076493407551</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0253164556962025</v>
+        <v>0.0299881069283736</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0673267326732673</v>
+        <v>0.09028581078899529</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0694980694980695</v>
+        <v>0.08354576012903921</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goal_ratio</t>
+          <t>team_season_direct_free_kick_goals_conceded_pg</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.07755240027045299</v>
+        <v>0.03186344238975818</v>
       </c>
       <c r="C109" t="n">
-        <v>0.04826660668765932</v>
+        <v>0.02987197724039829</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4825425858850976</v>
+        <v>6.67</v>
       </c>
       <c r="E109" t="n">
-        <v>0.07457928678241821</v>
+        <v>0.01240492903591633</v>
       </c>
       <c r="F109" t="n">
-        <v>0.05867735906310621</v>
+        <v>0.01955025573884892</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.166666666666667</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goal_ratio_conceded</t>
+          <t>team_season_op_shots_conceded_outside_box_pg</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.004752639052940442</v>
+        <v>3.002702702702702</v>
       </c>
       <c r="C110" t="n">
-        <v>0.005404538082167351</v>
+        <v>3.215599810336653</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4758452365088214</v>
+        <v>-6.62</v>
       </c>
       <c r="E110" t="n">
-        <v>0.001429631049359236</v>
+        <v>0.4647782046355206</v>
       </c>
       <c r="F110" t="n">
-        <v>0.001408341066986742</v>
+        <v>0.5596161176657911</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0031328320802005</v>
+        <v>2.473684210526316</v>
       </c>
       <c r="H110" t="n">
-        <v>0.00290360046457607</v>
+        <v>2.052631578947369</v>
       </c>
       <c r="I110" t="n">
-        <v>0.00643086816720257</v>
+        <v>3.513513513513514</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0074673304293715</v>
+        <v>4.631578947368421</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_direct_free_kicks_pg</t>
+          <t>team_season_op_xg_pg</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.5879089615931721</v>
+        <v>0.8204841884311452</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5023233760075865</v>
+        <v>0.7699822305374453</v>
       </c>
       <c r="D111" t="n">
-        <v>0.475746142780225</v>
+        <v>6.56</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1825752479348098</v>
+        <v>0.1175782845456682</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1864057866673685</v>
+        <v>0.1406874050068024</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.6976644757546877</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.5904577201918552</v>
       </c>
       <c r="I111" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.9972485484261262</v>
       </c>
       <c r="J111" t="n">
-        <v>1.026315789473684</v>
+        <v>1.13598379375119</v>
       </c>
     </row>
     <row r="112">
@@ -4234,7 +4233,7 @@
         <v>7.898055950687529</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4723299029360151</v>
+        <v>-6.52</v>
       </c>
       <c r="E112" t="n">
         <v>0.8058631266652144</v>
@@ -4258,885 +4257,885 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_goals_pg_conceded</t>
+          <t>team_season_failed_dribbles_pg</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.195448079658606</v>
+        <v>7.432716927453771</v>
       </c>
       <c r="C113" t="n">
-        <v>0.221289710763395</v>
+        <v>6.979137031768611</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4556769081187798</v>
+        <v>6.5</v>
       </c>
       <c r="E113" t="n">
-        <v>0.05967066899886803</v>
+        <v>0.7068135167741796</v>
       </c>
       <c r="F113" t="n">
-        <v>0.05829413037975825</v>
+        <v>1.135184684706729</v>
       </c>
       <c r="G113" t="n">
-        <v>0.131578947368421</v>
+        <v>6.605263157894737</v>
       </c>
       <c r="H113" t="n">
-        <v>0.131578947368421</v>
+        <v>5.763157894736842</v>
       </c>
       <c r="I113" t="n">
-        <v>0.263157894736842</v>
+        <v>8.315789473684211</v>
       </c>
       <c r="J113" t="n">
-        <v>0.315789473684211</v>
+        <v>9.526315789473685</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_corners_conceded_pg</t>
+          <t>team_season_op_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1002844950213371</v>
+        <v>18.77555763901573</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1211474632527264</v>
+        <v>17.65415673011742</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4492398605587766</v>
+        <v>6.35</v>
       </c>
       <c r="E114" t="n">
-        <v>0.03382306617901751</v>
+        <v>0.5406940260386743</v>
       </c>
       <c r="F114" t="n">
-        <v>0.05135753361405132</v>
+        <v>0.7061129169425072</v>
       </c>
       <c r="G114" t="n">
-        <v>0.05405405405405406</v>
+        <v>18.22215986449689</v>
       </c>
       <c r="H114" t="n">
-        <v>0.05263157894736842</v>
+        <v>16.28751572986577</v>
       </c>
       <c r="I114" t="n">
-        <v>0.131578947368421</v>
+        <v>19.56235573508523</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2105263157894737</v>
+        <v>18.74873987833659</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>team_season_failed_dribbles_pg</t>
+          <t>team_season_dribble_ratio</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>7.432716927453771</v>
+        <v>0.4979592439999999</v>
       </c>
       <c r="C115" t="n">
-        <v>6.979137031768612</v>
+        <v>0.5308531820000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4446555470873658</v>
+        <v>-6.2</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7068135167741796</v>
+        <v>0.01460349518880429</v>
       </c>
       <c r="F115" t="n">
-        <v>1.135184684706729</v>
+        <v>0.0316475575674019</v>
       </c>
       <c r="G115" t="n">
-        <v>6.605263157894737</v>
+        <v>0.48033127</v>
       </c>
       <c r="H115" t="n">
-        <v>5.763157894736842</v>
+        <v>0.490991</v>
       </c>
       <c r="I115" t="n">
-        <v>8.315789473684211</v>
+        <v>0.51978415</v>
       </c>
       <c r="J115" t="n">
-        <v>9.526315789473685</v>
+        <v>0.5949821</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_shot_ratio_conceded</t>
+          <t>team_season_passes_conceded_pg</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1.045751633986928</v>
+        <v>456.5883357041251</v>
       </c>
       <c r="C116" t="n">
-        <v>1.072298283331556</v>
+        <v>486.4633475580844</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4358261688919717</v>
+        <v>-6.14</v>
       </c>
       <c r="E116" t="n">
-        <v>0.06269060814787861</v>
+        <v>21.7612094491864</v>
       </c>
       <c r="F116" t="n">
-        <v>0.06315517409082498</v>
+        <v>31.54240465940696</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>433.9736842105263</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>406.578947368421</v>
       </c>
       <c r="I116" t="n">
-        <v>1.11764705882353</v>
+        <v>487.8421052631579</v>
       </c>
       <c r="J116" t="n">
-        <v>1.21052631578947</v>
+        <v>524.7631578947369</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>team_season_box_cross_ratio</t>
+          <t>team_season_op_passes_pg</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.3173393898752391</v>
+        <v>447.7385490753912</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3310428482943265</v>
+        <v>422.6387387387387</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4139161933625826</v>
+        <v>5.94</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01489547712701482</v>
+        <v>39.48039838071117</v>
       </c>
       <c r="F117" t="n">
-        <v>0.03810658659287039</v>
+        <v>38.2804604572659</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3033953997809419</v>
+        <v>385.8421052631579</v>
       </c>
       <c r="H117" t="n">
-        <v>0.2639915522703273</v>
+        <v>364.0810810810811</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3399638336347197</v>
+        <v>488.4736842105263</v>
       </c>
       <c r="J117" t="n">
-        <v>0.3919338159255429</v>
+        <v>503.6842105263158</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shots_conceded_outside_box_pg</t>
+          <t>team_season_defensive_distance</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3.002702702702703</v>
+        <v>45.98673087252079</v>
       </c>
       <c r="C118" t="n">
-        <v>3.215599810336652</v>
+        <v>43.40677234556971</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4090233795172369</v>
+        <v>5.94</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4647782046355206</v>
+        <v>1.348457645411543</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5596161176657912</v>
+        <v>1.632248075456227</v>
       </c>
       <c r="G118" t="n">
-        <v>2.473684210526316</v>
+        <v>44.18056530898876</v>
       </c>
       <c r="H118" t="n">
-        <v>2.052631578947369</v>
+        <v>40.32806318001978</v>
       </c>
       <c r="I118" t="n">
-        <v>3.513513513513514</v>
+        <v>47.59862161852362</v>
       </c>
       <c r="J118" t="n">
-        <v>4.631578947368421</v>
+        <v>45.94654736751941</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goal_ratio_conceded</t>
+          <t>team_season_possession</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.08102118040198543</v>
+        <v>0.5209658215928941</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0621722046266414</v>
+        <v>0.4930135460442348</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3890925917542533</v>
+        <v>5.67</v>
       </c>
       <c r="E119" t="n">
-        <v>0.04841066693789016</v>
+        <v>0.02831936875460161</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0508700116719769</v>
+        <v>0.03232471795898762</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.4874342725958233</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>0.4574381559190046</v>
       </c>
       <c r="I119" t="n">
-        <v>0.166666666666667</v>
+        <v>0.552454990547227</v>
       </c>
       <c r="J119" t="n">
-        <v>0.181818181818182</v>
+        <v>0.5598803530245049</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_xg_pg</t>
+          <t>team_season_np_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.8204841884311452</v>
+        <v>17.92434253189886</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7699822305374452</v>
+        <v>16.9968705254353</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3862184330026072</v>
+        <v>5.46</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1175782845456682</v>
+        <v>0.6784246190423383</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1406874050068023</v>
+        <v>0.5925909644002982</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6976644757546877</v>
+        <v>17.17245869252874</v>
       </c>
       <c r="H120" t="n">
-        <v>0.5904577201918552</v>
+        <v>15.82269347540223</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9972485484261262</v>
+        <v>18.71056105090726</v>
       </c>
       <c r="J120" t="n">
-        <v>1.13598379375119</v>
+        <v>17.92082923228346</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>team_season_ball_in_play_time</t>
+          <t>team_season_xg_per_corner</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>52.368476</v>
+        <v>0.03486690188110606</v>
       </c>
       <c r="C121" t="n">
-        <v>52.92756533333333</v>
+        <v>0.03310826523085147</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3586250321917838</v>
+        <v>5.31</v>
       </c>
       <c r="E121" t="n">
-        <v>1.736260345996534</v>
+        <v>0.006680919953159092</v>
       </c>
       <c r="F121" t="n">
-        <v>1.589649749495272</v>
+        <v>0.005049657705546316</v>
       </c>
       <c r="G121" t="n">
-        <v>49.724354</v>
+        <v>0.02387125931638579</v>
       </c>
       <c r="H121" t="n">
-        <v>50.210266</v>
+        <v>0.02634798207329315</v>
       </c>
       <c r="I121" t="n">
-        <v>54.297398</v>
+        <v>0.03978548244554169</v>
       </c>
       <c r="J121" t="n">
-        <v>56.73982</v>
+        <v>0.04258093991122403</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio</t>
+          <t>team_season_throw_in_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.004432869868167986</v>
+        <v>0.003451849836803496</v>
       </c>
       <c r="C122" t="n">
-        <v>0.003255771681416016</v>
+        <v>0.00364138109270039</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3505013525293941</v>
+        <v>-5.2</v>
       </c>
       <c r="E122" t="n">
-        <v>0.004502411419393937</v>
+        <v>0.00158043632315697</v>
       </c>
       <c r="F122" t="n">
-        <v>0.003154186920112245</v>
+        <v>0.002210115475604772</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>0.00123609394313968</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="I122" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.00524246395806029</v>
       </c>
       <c r="J122" t="n">
-        <v>0.01109741060419235</v>
+        <v>0.00774336283185841</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_conceded_pg</t>
+          <t>team_season_direct_free_kick_shot_ratio</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.004218717958582076</v>
+        <v>1.041333333333332</v>
       </c>
       <c r="C123" t="n">
-        <v>0.005506271613459733</v>
+        <v>1.096894985047159</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3502374375038665</v>
+        <v>-5.07</v>
       </c>
       <c r="E123" t="n">
-        <v>0.003548268534815144</v>
+        <v>0.0416733328000836</v>
       </c>
       <c r="F123" t="n">
-        <v>0.003907098762737227</v>
+        <v>0.1173518817901146</v>
       </c>
       <c r="G123" t="n">
-        <v>0.000169488062199793</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0.00112254476468814</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0.00851406833451045</v>
+        <v>1.08333333333333</v>
       </c>
       <c r="J123" t="n">
-        <v>0.013834033725097</v>
+        <v>1.44444444444444</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in_conceded</t>
+          <t>team_season_passes_pg</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.0002024814893852967</v>
+        <v>496.872546230441</v>
       </c>
       <c r="C124" t="n">
-        <v>0.000262217591185774</v>
+        <v>473.0310099573257</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3365095436992773</v>
+        <v>5.04</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0001785841961870599</v>
+        <v>37.89308911729714</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0001869479705534075</v>
+        <v>37.11176466927585</v>
       </c>
       <c r="G124" t="n">
-        <v>7.961120350546541e-06</v>
+        <v>438.4473684210527</v>
       </c>
       <c r="H124" t="n">
-        <v>4.93711817802654e-05</v>
+        <v>414.6756756756757</v>
       </c>
       <c r="I124" t="n">
-        <v>0.000424029630258543</v>
+        <v>536.6315789473684</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0006990602358858639</v>
+        <v>551.2894736842105</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_pg</t>
+          <t>team_season_pace_towards_goal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.09530583214793741</v>
+        <v>2.565714603908058</v>
       </c>
       <c r="C125" t="n">
-        <v>0.07027027027027027</v>
+        <v>2.69485220736334</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3364020307545032</v>
+        <v>-4.79</v>
       </c>
       <c r="E125" t="n">
-        <v>0.103015338845994</v>
+        <v>0.1248003007780193</v>
       </c>
       <c r="F125" t="n">
-        <v>0.06864624174252958</v>
+        <v>0.1207749687053353</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2.421391665290863</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2.436029022314694</v>
       </c>
       <c r="I125" t="n">
-        <v>0.2631578947368421</v>
+        <v>2.712461346418006</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2368421052631579</v>
+        <v>2.886319203122905</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_corner</t>
+          <t>team_season_deep_completions_pg</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.03486690188110605</v>
+        <v>3.084779516358464</v>
       </c>
       <c r="C126" t="n">
-        <v>0.03310826523085147</v>
+        <v>2.945898530109056</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3362393067623247</v>
+        <v>4.71</v>
       </c>
       <c r="E126" t="n">
-        <v>0.006680919953159091</v>
+        <v>0.52614838174161</v>
       </c>
       <c r="F126" t="n">
-        <v>0.005049657705546315</v>
+        <v>0.5533281544869006</v>
       </c>
       <c r="G126" t="n">
-        <v>0.02387125931638579</v>
+        <v>2.210526315789474</v>
       </c>
       <c r="H126" t="n">
-        <v>0.02634798207329315</v>
+        <v>2.052631578947369</v>
       </c>
       <c r="I126" t="n">
-        <v>0.03978548244554169</v>
+        <v>3.578947368421053</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04258093991122403</v>
+        <v>4.078947368421052</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_crosses_into_box_pg</t>
+          <t>team_season_free_kick_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2.32873399715505</v>
+        <v>0.004050806853787188</v>
       </c>
       <c r="C127" t="n">
-        <v>2.176434329065907</v>
+        <v>0.003873020367702915</v>
       </c>
       <c r="D127" t="n">
-        <v>0.332941233909974</v>
+        <v>4.59</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1286488955840505</v>
+        <v>0.00239680854388272</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5366423159959157</v>
+        <v>0.002589321227583275</v>
       </c>
       <c r="G127" t="n">
-        <v>2.184210526315789</v>
+        <v>0.00156985871271586</v>
       </c>
       <c r="H127" t="n">
-        <v>1.236842105263158</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>2.45945945945946</v>
+        <v>0.00662251655629139</v>
       </c>
       <c r="J127" t="n">
-        <v>3.210526315789474</v>
+        <v>0.00993377483443709</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>team_season_counterpressure_regains_pg</t>
+          <t>team_season_fhalf_counterpressures_ratio</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3.662162162162162</v>
+        <v>0.7336794958010922</v>
       </c>
       <c r="C128" t="n">
-        <v>3.521289710763396</v>
+        <v>0.7015751483342064</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3324839793841755</v>
+        <v>4.58</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6707473556707799</v>
+        <v>0.025184255342783</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3501382679617996</v>
+        <v>0.03318968662773495</v>
       </c>
       <c r="G128" t="n">
-        <v>2.631578947368421</v>
+        <v>0.6964102564102564</v>
       </c>
       <c r="H128" t="n">
-        <v>3.026315789473684</v>
+        <v>0.6455798864557989</v>
       </c>
       <c r="I128" t="n">
-        <v>4.5</v>
+        <v>0.7545098039215686</v>
       </c>
       <c r="J128" t="n">
-        <v>4.105263157894737</v>
+        <v>0.7477414871438499</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_pg</t>
+          <t>team_season_defensive_action_regains_pg</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1.540582890246079</v>
+        <v>48.98406827880512</v>
       </c>
       <c r="C129" t="n">
-        <v>1.483417671981885</v>
+        <v>51.20616405879564</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3309297849867145</v>
+        <v>-4.34</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2145999616450131</v>
+        <v>2.610682702368339</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1690992094464165</v>
+        <v>2.588386522874365</v>
       </c>
       <c r="G129" t="n">
-        <v>1.306111830237665</v>
+        <v>46.60526315789474</v>
       </c>
       <c r="H129" t="n">
-        <v>1.183236791703262</v>
+        <v>47.51351351351352</v>
       </c>
       <c r="I129" t="n">
-        <v>1.841575081686716</v>
+        <v>52.5</v>
       </c>
       <c r="J129" t="n">
-        <v>1.775336956311213</v>
+        <v>55.78947368421053</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_direct_free_kick</t>
+          <t>team_season_shots_in_clear_pg</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.04241008922278357</v>
+        <v>2.085917496443812</v>
       </c>
       <c r="C130" t="n">
-        <v>0.04829041282770179</v>
+        <v>1.999288762446657</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3257541667662509</v>
+        <v>4.33</v>
       </c>
       <c r="E130" t="n">
-        <v>0.007112332543584681</v>
+        <v>0.3590423399214911</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0210188048403927</v>
+        <v>0.3701834564010893</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03152032967271476</v>
+        <v>1.710526315789474</v>
       </c>
       <c r="H130" t="n">
-        <v>0.02756790424648084</v>
+        <v>1.394736842105263</v>
       </c>
       <c r="I130" t="n">
-        <v>0.05057425796985626</v>
+        <v>2.526315789473684</v>
       </c>
       <c r="J130" t="n">
-        <v>0.09368851780891418</v>
+        <v>3.026315789473684</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_defensive_action_pg</t>
+          <t>team_season_shots_from_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.2533709284401688</v>
+        <v>0.07411095305832147</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2278888643471522</v>
+        <v>0.0773352299668089</v>
       </c>
       <c r="D131" t="n">
-        <v>0.322126702158913</v>
+        <v>-4.17</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1078458670590433</v>
+        <v>0.03440655312318473</v>
       </c>
       <c r="F131" t="n">
-        <v>0.07377395983044792</v>
+        <v>0.04819161480713841</v>
       </c>
       <c r="G131" t="n">
-        <v>0.08201460834396512</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H131" t="n">
-        <v>0.09838022860257249</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="I131" t="n">
-        <v>0.379871645816476</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J131" t="n">
-        <v>0.365391076689488</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>team_season_successful_box_cross_ratio</t>
+          <t>team_season_box_cross_ratio</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.2545869872483378</v>
+        <v>0.3173393898752391</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2651024660747931</v>
+        <v>0.3310428482943265</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3040832148881201</v>
+        <v>-4.14</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0187353398406881</v>
+        <v>0.01489547712701483</v>
       </c>
       <c r="F132" t="n">
-        <v>0.03972953038821256</v>
+        <v>0.03810658659287039</v>
       </c>
       <c r="G132" t="n">
-        <v>0.2385057471264368</v>
+        <v>0.3033953997809419</v>
       </c>
       <c r="H132" t="n">
-        <v>0.1934156378600823</v>
+        <v>0.2639915522703273</v>
       </c>
       <c r="I132" t="n">
-        <v>0.2807570977917981</v>
+        <v>0.3399638336347197</v>
       </c>
       <c r="J132" t="n">
-        <v>0.3351648351648351</v>
+        <v>0.3919338159255429</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>team_season_red_cards_pg</t>
+          <t>team_season_np_xg_per_shot</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.09004267425320056</v>
+        <v>0.08923902960012699</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07558084400189663</v>
+        <v>0.09303412158678687</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3019852029013271</v>
+        <v>-4.08</v>
       </c>
       <c r="E133" t="n">
-        <v>0.04805619045621028</v>
+        <v>0.004196375793871233</v>
       </c>
       <c r="F133" t="n">
-        <v>0.05060041696761707</v>
+        <v>0.008331554550897045</v>
       </c>
       <c r="G133" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.08390160786736872</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>0.07829807553253576</v>
       </c>
       <c r="I133" t="n">
-        <v>0.131578947368421</v>
+        <v>0.09440671677557413</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1131115939321835</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>team_season_counterpressures_pg</t>
+          <t>team_season_counterpressure_regains_pg</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>31.80355618776671</v>
+        <v>3.662162162162162</v>
       </c>
       <c r="C134" t="n">
-        <v>32.69250829777146</v>
+        <v>3.521289710763396</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3005901108521531</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>4.001577696594774</v>
+        <v>0.6707473556707801</v>
       </c>
       <c r="F134" t="n">
-        <v>2.776241877213583</v>
+        <v>0.3501382679617996</v>
       </c>
       <c r="G134" t="n">
-        <v>25.65789473684211</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="H134" t="n">
-        <v>27.72972972972973</v>
+        <v>3.026315789473684</v>
       </c>
       <c r="I134" t="n">
-        <v>36.39473684210526</v>
+        <v>4.5</v>
       </c>
       <c r="J134" t="n">
-        <v>37.94736842105263</v>
+        <v>4.105263157894737</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_shot_distance</t>
+          <t>team_season_successful_box_cross_ratio</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>15.17877120050878</v>
+        <v>0.2545869872483378</v>
       </c>
       <c r="C135" t="n">
-        <v>15.49013576072277</v>
+        <v>0.2651024660747931</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2965549984043396</v>
+        <v>-3.97</v>
       </c>
       <c r="E135" t="n">
-        <v>1.381053682838849</v>
+        <v>0.0187353398406881</v>
       </c>
       <c r="F135" t="n">
-        <v>1.001949260014822</v>
+        <v>0.03972953038821254</v>
       </c>
       <c r="G135" t="n">
-        <v>12.90068292942177</v>
+        <v>0.2385057471264368</v>
       </c>
       <c r="H135" t="n">
-        <v>13.35630209614911</v>
+        <v>0.1934156378600823</v>
       </c>
       <c r="I135" t="n">
-        <v>16.43471994707661</v>
+        <v>0.2807570977917981</v>
       </c>
       <c r="J135" t="n">
-        <v>16.88436516411871</v>
+        <v>0.3351648351648351</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>team_season_total_dribbles_conceded_pg</t>
+          <t>team_season_second_yellow_cards_pg</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>14.54736842105263</v>
+        <v>0.0422475106685633</v>
       </c>
       <c r="C136" t="n">
-        <v>14.96761498340446</v>
+        <v>0.04395448079658606</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2802979523793805</v>
+        <v>-3.88</v>
       </c>
       <c r="E136" t="n">
-        <v>1.587847721858628</v>
+        <v>0.02342013575866305</v>
       </c>
       <c r="F136" t="n">
-        <v>1.563188175104469</v>
+        <v>0.0406297481598581</v>
       </c>
       <c r="G136" t="n">
-        <v>12.57894736842105</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H136" t="n">
-        <v>12.54054054054054</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>16.92105263157895</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J136" t="n">
-        <v>17.02631578947368</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kicks_pg</t>
+          <t>team_season_obv_pg</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>14.49544807965861</v>
+        <v>1.540582890246079</v>
       </c>
       <c r="C137" t="n">
-        <v>14.86040777619725</v>
+        <v>1.483417671981885</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2772576646276799</v>
+        <v>3.85</v>
       </c>
       <c r="E137" t="n">
-        <v>1.439413254633643</v>
+        <v>0.2145999616450131</v>
       </c>
       <c r="F137" t="n">
-        <v>1.35927554169818</v>
+        <v>0.1690992094464166</v>
       </c>
       <c r="G137" t="n">
-        <v>12.18421052631579</v>
+        <v>1.306111830237665</v>
       </c>
       <c r="H137" t="n">
-        <v>12.63157894736842</v>
+        <v>1.183236791703262</v>
       </c>
       <c r="I137" t="n">
-        <v>16.02631578947368</v>
+        <v>1.841575081686716</v>
       </c>
       <c r="J137" t="n">
-        <v>17.43243243243243</v>
+        <v>1.775336956311213</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_xg_conceded_pg</t>
+          <t>team_season_opp_final_third_pass_ratio</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.06750268410827705</v>
+        <v>0.6057093829313427</v>
       </c>
       <c r="C138" t="n">
-        <v>0.06321220891839427</v>
+        <v>0.6279787811215507</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2718853576041521</v>
+        <v>-3.55</v>
       </c>
       <c r="E138" t="n">
-        <v>0.01711306512660571</v>
+        <v>0.01975835457050594</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0163445005920072</v>
+        <v>0.02181351365797514</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0492076493407551</v>
+        <v>0.5822132616487455</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0299881069283736</v>
+        <v>0.568018018018018</v>
       </c>
       <c r="I138" t="n">
-        <v>0.09028581078899529</v>
+        <v>0.6322652757078987</v>
       </c>
       <c r="J138" t="n">
-        <v>0.08354576012903921</v>
+        <v>0.6551893753074275</v>
       </c>
     </row>
     <row r="139">
@@ -5146,13 +5145,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>7.578378378378379</v>
+        <v>7.578378378378377</v>
       </c>
       <c r="C139" t="n">
         <v>7.833712660028449</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2717771434820597</v>
+        <v>-3.26</v>
       </c>
       <c r="E139" t="n">
         <v>0.751661911619495</v>
@@ -5176,851 +5175,851 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>team_season_deep_completions_pg</t>
+          <t>team_season_sp_shot_distance_conceded</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3.084779516358464</v>
+        <v>15.80275992869056</v>
       </c>
       <c r="C140" t="n">
-        <v>2.945898530109057</v>
+        <v>15.32296729059635</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2656564225342549</v>
+        <v>3.13</v>
       </c>
       <c r="E140" t="n">
-        <v>0.52614838174161</v>
+        <v>0.9610005582377211</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5533281544869006</v>
+        <v>0.9414879062819337</v>
       </c>
       <c r="G140" t="n">
-        <v>2.210526315789474</v>
+        <v>14.7233236437646</v>
       </c>
       <c r="H140" t="n">
-        <v>2.052631578947369</v>
+        <v>13.75996301529255</v>
       </c>
       <c r="I140" t="n">
-        <v>3.578947368421053</v>
+        <v>16.62840033637153</v>
       </c>
       <c r="J140" t="n">
-        <v>4.078947368421052</v>
+        <v>17.44660740272672</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>team_season_aggressive_actions_pg</t>
+          <t>team_season_total_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>91.15206258890468</v>
+        <v>14.54736842105263</v>
       </c>
       <c r="C141" t="n">
-        <v>89.41659554291134</v>
+        <v>14.96761498340446</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2470964345688412</v>
+        <v>-2.81</v>
       </c>
       <c r="E141" t="n">
-        <v>9.517321448192424</v>
+        <v>1.58784772185863</v>
       </c>
       <c r="F141" t="n">
-        <v>6.61687349977651</v>
+        <v>1.563188175104468</v>
       </c>
       <c r="G141" t="n">
-        <v>81.76315789473684</v>
+        <v>12.57894736842105</v>
       </c>
       <c r="H141" t="n">
-        <v>80.45945945945945</v>
+        <v>12.54054054054054</v>
       </c>
       <c r="I141" t="n">
-        <v>101.9736842105263</v>
+        <v>16.92105263157895</v>
       </c>
       <c r="J141" t="n">
-        <v>102.2368421052632</v>
+        <v>17.02631578947368</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_in_clear_pg</t>
+          <t>team_season_gk_long_pass_ratio</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2.085917496443812</v>
+        <v>0.443224966172015</v>
       </c>
       <c r="C142" t="n">
-        <v>1.999288762446657</v>
+        <v>0.4312163966525753</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2468922623038283</v>
+        <v>2.78</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3590423399214911</v>
+        <v>0.05074141725739216</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3701834564010894</v>
+        <v>0.05121883081375627</v>
       </c>
       <c r="G142" t="n">
-        <v>1.710526315789474</v>
+        <v>0.3891050583657588</v>
       </c>
       <c r="H142" t="n">
-        <v>1.394736842105263</v>
+        <v>0.3368010403120936</v>
       </c>
       <c r="I142" t="n">
-        <v>2.526315789473684</v>
+        <v>0.5261194029850746</v>
       </c>
       <c r="J142" t="n">
-        <v>3.026315789473684</v>
+        <v>0.5024311183144247</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>team_season_gk_long_pass_ratio</t>
+          <t>team_season_throw_in_goal_ratio</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.443224966172015</v>
+        <v>0.0004545454545454546</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4312163966525753</v>
+        <v>0.0004672995410099189</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2462378281479649</v>
+        <v>-2.73</v>
       </c>
       <c r="E143" t="n">
-        <v>0.05074141725739217</v>
+        <v>0.001016394535227177</v>
       </c>
       <c r="F143" t="n">
-        <v>0.05121883081375626</v>
+        <v>0.0007566808014704117</v>
       </c>
       <c r="G143" t="n">
-        <v>0.3891050583657588</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>0.3368010403120936</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0.5261194029850746</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="J143" t="n">
-        <v>0.5024311183144247</v>
+        <v>0.002466091245376079</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>team_season_failed_dribbles_conceded_pg</t>
+          <t>team_season_counterpressures_pg</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>6.968990042674252</v>
+        <v>31.80355618776671</v>
       </c>
       <c r="C144" t="n">
-        <v>7.133902323376008</v>
+        <v>32.69250829777146</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2291620482933862</v>
+        <v>-2.72</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9176566788084937</v>
+        <v>4.001577696594772</v>
       </c>
       <c r="F144" t="n">
-        <v>0.7013780374070181</v>
+        <v>2.776241877213582</v>
       </c>
       <c r="G144" t="n">
-        <v>6.026315789473684</v>
+        <v>25.65789473684211</v>
       </c>
       <c r="H144" t="n">
-        <v>6.289473684210527</v>
+        <v>27.72972972972973</v>
       </c>
       <c r="I144" t="n">
-        <v>8.394736842105264</v>
+        <v>36.39473684210526</v>
       </c>
       <c r="J144" t="n">
-        <v>8.368421052631579</v>
+        <v>37.94736842105263</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_throw_in</t>
+          <t>team_season_directness</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.0001978573189164246</v>
+        <v>0.8458475734406443</v>
       </c>
       <c r="C145" t="n">
-        <v>0.000246973995313287</v>
+        <v>0.8694863804321671</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2285386442700963</v>
+        <v>-2.72</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0002641797344035013</v>
+        <v>0.01383498685394317</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0002130676926197671</v>
+        <v>0.01534999331743744</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>0.8279038997865458</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>0.8422425850716171</v>
       </c>
       <c r="I145" t="n">
-        <v>0.0006619653918526389</v>
+        <v>0.8657191438383126</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0007811334953355143</v>
+        <v>0.8990210083155861</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_xg_pg</t>
+          <t>team_season_high_press_shots_pg</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.004448331041847107</v>
+        <v>2.364580369843528</v>
       </c>
       <c r="C146" t="n">
-        <v>0.005419667021006226</v>
+        <v>2.305500237079185</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2029579548505752</v>
+        <v>2.56</v>
       </c>
       <c r="E146" t="n">
-        <v>0.006177314937627114</v>
+        <v>0.5114350943582134</v>
       </c>
       <c r="F146" t="n">
-        <v>0.004643900201618732</v>
+        <v>0.4696904138871401</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1.526315789473684</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="I146" t="n">
-        <v>0.01532972547666807</v>
+        <v>2.842105263157895</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01667103137036688</v>
+        <v>3.736842105263158</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>team_season_pressures_pg</t>
+          <t>team_season_direct_free_kick_shot_ratio_conceded</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>151.1584637268848</v>
+        <v>1.045751633986928</v>
       </c>
       <c r="C147" t="n">
-        <v>149.2231389284021</v>
+        <v>1.072298283331556</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1933053008431493</v>
+        <v>-2.48</v>
       </c>
       <c r="E147" t="n">
-        <v>14.68324693764972</v>
+        <v>0.06269060814787861</v>
       </c>
       <c r="F147" t="n">
-        <v>8.977221885468436</v>
+        <v>0.06315517409082498</v>
       </c>
       <c r="G147" t="n">
-        <v>137.1081081081081</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>136.5</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>169.2894736842105</v>
+        <v>1.11764705882353</v>
       </c>
       <c r="J147" t="n">
-        <v>166.7894736842105</v>
+        <v>1.21052631578947</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>team_season_goals_from_free_kicks_conceded_pg</t>
+          <t>team_season_free_kicks_pg</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.06330014224751065</v>
+        <v>14.49544807965861</v>
       </c>
       <c r="C148" t="n">
-        <v>0.05623518255097202</v>
+        <v>14.86040777619725</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1872399141934469</v>
+        <v>-2.46</v>
       </c>
       <c r="E148" t="n">
-        <v>0.03974666289515752</v>
+        <v>1.439413254633643</v>
       </c>
       <c r="F148" t="n">
-        <v>0.03961231669154284</v>
+        <v>1.359275541698181</v>
       </c>
       <c r="G148" t="n">
-        <v>0.02631578947368421</v>
+        <v>12.18421052631579</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>12.63157894736842</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1052631578947368</v>
+        <v>16.02631578947368</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1578947368421053</v>
+        <v>17.43243243243243</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>team_season_fhalf_counterpressures_pg</t>
+          <t>team_season_passes_inside_box_pg</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>23.40554765291608</v>
+        <v>1.984779516358464</v>
       </c>
       <c r="C149" t="n">
-        <v>22.95381697486961</v>
+        <v>1.938501659554291</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1718219886017566</v>
+        <v>2.39</v>
       </c>
       <c r="E149" t="n">
-        <v>3.600449282827434</v>
+        <v>0.4520275851727443</v>
       </c>
       <c r="F149" t="n">
-        <v>2.473014109604894</v>
+        <v>0.3868446642253778</v>
       </c>
       <c r="G149" t="n">
-        <v>17.86842105263158</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="H149" t="n">
-        <v>20.15789473684211</v>
+        <v>1.447368421052632</v>
       </c>
       <c r="I149" t="n">
-        <v>27.18421052631579</v>
+        <v>2.421052631578947</v>
       </c>
       <c r="J149" t="n">
-        <v>28.31578947368421</v>
+        <v>2.657894736842105</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>team_season_obv_gk_pg</t>
+          <t>team_season_failed_dribbles_conceded_pg</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.1065803470268657</v>
+        <v>6.968990042674252</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.0865613170422853</v>
+        <v>7.133902323376008</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1602442700718141</v>
+        <v>-2.31</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1314020766118728</v>
+        <v>0.9176566788084937</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1313589083696339</v>
+        <v>0.701378037407018</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.2831655470164199</v>
+        <v>6.026315789473684</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.379555063199644</v>
+        <v>6.289473684210527</v>
       </c>
       <c r="I150" t="n">
-        <v>0.07128995115793235</v>
+        <v>8.394736842105264</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1196848798641249</v>
+        <v>8.368421052631579</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>team_season_op_shot_distance</t>
+          <t>team_season_passing_ratio</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>17.95167166464947</v>
+        <v>0.8025181520115765</v>
       </c>
       <c r="C151" t="n">
-        <v>17.8549112113794</v>
+        <v>0.7851050322886171</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1384685483550972</v>
+        <v>2.22</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5294865891259372</v>
+        <v>0.02534504921785127</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7842019919404035</v>
+        <v>0.02935734217157304</v>
       </c>
       <c r="G151" t="n">
-        <v>17.09114338580827</v>
+        <v>0.7614789028269612</v>
       </c>
       <c r="H151" t="n">
-        <v>15.44658078324681</v>
+        <v>0.7157709251101322</v>
       </c>
       <c r="I151" t="n">
-        <v>18.3810506305638</v>
+        <v>0.824342879560612</v>
       </c>
       <c r="J151" t="n">
-        <v>18.74434828484195</v>
+        <v>0.829681607713972</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>team_season_crosses_into_box_pg</t>
+          <t>team_season_possessions</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>8.613086770981507</v>
+        <v>188.1378378378378</v>
       </c>
       <c r="C152" t="n">
-        <v>8.448221906116643</v>
+        <v>192.0846372688478</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1330088365933716</v>
+        <v>-2.05</v>
       </c>
       <c r="E152" t="n">
-        <v>0.8932802484628027</v>
+        <v>4.414405108855632</v>
       </c>
       <c r="F152" t="n">
-        <v>1.399837580979185</v>
+        <v>5.160207197622281</v>
       </c>
       <c r="G152" t="n">
-        <v>7.486486486486487</v>
+        <v>183.1842105263158</v>
       </c>
       <c r="H152" t="n">
-        <v>5.526315789473684</v>
+        <v>185.6052631578947</v>
       </c>
       <c r="I152" t="n">
-        <v>9.894736842105264</v>
+        <v>195.0263157894737</v>
       </c>
       <c r="J152" t="n">
-        <v>10.94736842105263</v>
+        <v>203.3684210526316</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>team_season_high_press_shots_pg</t>
+          <t>team_season_sp_shot_distance</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2.364580369843527</v>
+        <v>15.17877120050878</v>
       </c>
       <c r="C153" t="n">
-        <v>2.305500237079184</v>
+        <v>15.49013576072277</v>
       </c>
       <c r="D153" t="n">
-        <v>0.129730883806851</v>
+        <v>-2.01</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5114350943582132</v>
+        <v>1.381053682838848</v>
       </c>
       <c r="F153" t="n">
-        <v>0.4696904138871401</v>
+        <v>1.001949260014822</v>
       </c>
       <c r="G153" t="n">
-        <v>1.526315789473684</v>
+        <v>12.90068292942177</v>
       </c>
       <c r="H153" t="n">
-        <v>1.842105263157895</v>
+        <v>13.35630209614911</v>
       </c>
       <c r="I153" t="n">
-        <v>2.842105263157895</v>
+        <v>16.43471994707661</v>
       </c>
       <c r="J153" t="n">
-        <v>3.736842105263158</v>
+        <v>16.88436516411871</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>team_season_passes_inside_box_pg</t>
+          <t>team_season_fhalf_counterpressures_pg</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1.984779516358464</v>
+        <v>23.40554765291608</v>
       </c>
       <c r="C154" t="n">
-        <v>1.938501659554291</v>
+        <v>22.9538169748696</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1211057695563667</v>
+        <v>1.97</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4520275851727444</v>
+        <v>3.600449282827434</v>
       </c>
       <c r="F154" t="n">
-        <v>0.3868446642253781</v>
+        <v>2.473014109604893</v>
       </c>
       <c r="G154" t="n">
-        <v>1.236842105263158</v>
+        <v>17.86842105263158</v>
       </c>
       <c r="H154" t="n">
-        <v>1.447368421052632</v>
+        <v>20.15789473684211</v>
       </c>
       <c r="I154" t="n">
-        <v>2.421052631578947</v>
+        <v>27.18421052631579</v>
       </c>
       <c r="J154" t="n">
-        <v>2.657894736842105</v>
+        <v>28.31578947368421</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_goals_conceded_pg</t>
+          <t>team_season_crosses_into_box_pg</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.03186344238975818</v>
+        <v>8.613086770981507</v>
       </c>
       <c r="C155" t="n">
-        <v>0.02987197724039829</v>
+        <v>8.448221906116643</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1151561523727934</v>
+        <v>1.95</v>
       </c>
       <c r="E155" t="n">
-        <v>0.01240492903591633</v>
+        <v>0.8932802484628027</v>
       </c>
       <c r="F155" t="n">
-        <v>0.01955025573884892</v>
+        <v>1.399837580979184</v>
       </c>
       <c r="G155" t="n">
-        <v>0.02631578947368421</v>
+        <v>7.486486486486487</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>5.526315789473684</v>
       </c>
       <c r="I155" t="n">
-        <v>0.05405405405405406</v>
+        <v>9.894736842105264</v>
       </c>
       <c r="J155" t="n">
-        <v>0.07894736842105263</v>
+        <v>10.94736842105263</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_shot_ratio_conceded</t>
+          <t>team_season_aggressive_actions_pg</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.003451849836803496</v>
+        <v>91.15206258890468</v>
       </c>
       <c r="C156" t="n">
-        <v>0.00364138109270039</v>
+        <v>89.41659554291134</v>
       </c>
       <c r="D156" t="n">
-        <v>0.09566042970445074</v>
+        <v>1.94</v>
       </c>
       <c r="E156" t="n">
-        <v>0.00158043632315697</v>
+        <v>9.517321448192417</v>
       </c>
       <c r="F156" t="n">
-        <v>0.002210115475604772</v>
+        <v>6.616873499776514</v>
       </c>
       <c r="G156" t="n">
-        <v>0.00123609394313968</v>
+        <v>81.76315789473684</v>
       </c>
       <c r="H156" t="n">
-        <v>0.00115740740740741</v>
+        <v>80.45945945945945</v>
       </c>
       <c r="I156" t="n">
-        <v>0.00524246395806029</v>
+        <v>101.9736842105263</v>
       </c>
       <c r="J156" t="n">
-        <v>0.00774336283185841</v>
+        <v>102.2368421052632</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_pg</t>
+          <t>team_season_opp_passing_ratio</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>41.27567567567568</v>
+        <v>0.7799827864623883</v>
       </c>
       <c r="C157" t="n">
-        <v>41.01303935514463</v>
+        <v>0.7941009991295312</v>
       </c>
       <c r="D157" t="n">
-        <v>0.08976618863714431</v>
+        <v>-1.78</v>
       </c>
       <c r="E157" t="n">
-        <v>3.341633011345783</v>
+        <v>0.01069765103467314</v>
       </c>
       <c r="F157" t="n">
-        <v>3.003323430362971</v>
+        <v>0.01678315703340521</v>
       </c>
       <c r="G157" t="n">
-        <v>37.5</v>
+        <v>0.7671638392348856</v>
       </c>
       <c r="H157" t="n">
-        <v>36.1315789473684</v>
+        <v>0.7571793235481813</v>
       </c>
       <c r="I157" t="n">
-        <v>44.6842105263158</v>
+        <v>0.7951235300463912</v>
       </c>
       <c r="J157" t="n">
-        <v>49.3157894736842</v>
+        <v>0.8181134346321649</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>team_season_np_shot_distance</t>
+          <t>team_season_direct_free_kick_xg_pg</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>17.14551330328645</v>
+        <v>0.02312928412664698</v>
       </c>
       <c r="C158" t="n">
-        <v>17.19146074794059</v>
+        <v>0.02275645298348549</v>
       </c>
       <c r="D158" t="n">
-        <v>0.07840696102484931</v>
+        <v>1.64</v>
       </c>
       <c r="E158" t="n">
-        <v>0.4655925139091889</v>
+        <v>0.005183971938096664</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6542818421467315</v>
+        <v>0.01366901048957174</v>
       </c>
       <c r="G158" t="n">
-        <v>16.57532246907552</v>
+        <v>0.01597081850233831</v>
       </c>
       <c r="H158" t="n">
-        <v>15.60006788300305</v>
+        <v>0.009466398752441532</v>
       </c>
       <c r="I158" t="n">
-        <v>17.52408384342784</v>
+        <v>0.02906770439113717</v>
       </c>
       <c r="J158" t="n">
-        <v>18.08949939738292</v>
+        <v>0.04930974484274262</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>team_season_shots_from_throw_ins_conceded_pg</t>
+          <t>team_season_pressures_pg</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.07411095305832148</v>
+        <v>151.1584637268848</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0773352299668089</v>
+        <v>149.2231389284021</v>
       </c>
       <c r="D159" t="n">
-        <v>0.07467258696472254</v>
+        <v>1.3</v>
       </c>
       <c r="E159" t="n">
-        <v>0.03440655312318475</v>
+        <v>14.68324693764971</v>
       </c>
       <c r="F159" t="n">
-        <v>0.04819161480713841</v>
+        <v>8.977221885468431</v>
       </c>
       <c r="G159" t="n">
-        <v>0.02631578947368421</v>
+        <v>137.1081081081081</v>
       </c>
       <c r="H159" t="n">
-        <v>0.02631578947368421</v>
+        <v>136.5</v>
       </c>
       <c r="I159" t="n">
-        <v>0.1052631578947368</v>
+        <v>169.2894736842105</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1842105263157895</v>
+        <v>166.7894736842105</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>team_season_free_kick_goal_ratio_conceded</t>
+          <t>team_season_corner_goal_ratio_conceded</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.004050806853787188</v>
+        <v>0.02679638328574498</v>
       </c>
       <c r="C160" t="n">
-        <v>0.003873020367702915</v>
+        <v>0.02645841167415137</v>
       </c>
       <c r="D160" t="n">
-        <v>0.07351776954466796</v>
+        <v>1.28</v>
       </c>
       <c r="E160" t="n">
-        <v>0.00239680854388272</v>
+        <v>0.008719504486142933</v>
       </c>
       <c r="F160" t="n">
-        <v>0.002589321227583275</v>
+        <v>0.01047347528948383</v>
       </c>
       <c r="G160" t="n">
-        <v>0.00156985871271586</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="I160" t="n">
-        <v>0.00662251655629139</v>
+        <v>0.0354609929078014</v>
       </c>
       <c r="J160" t="n">
-        <v>0.00993377483443709</v>
+        <v>0.0421052631578947</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>team_season_second_yellow_cards_pg</t>
+          <t>team_season_ball_in_play_time</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.0422475106685633</v>
+        <v>52.368476</v>
       </c>
       <c r="C161" t="n">
-        <v>0.04395448079658604</v>
+        <v>52.92756533333333</v>
       </c>
       <c r="D161" t="n">
-        <v>0.04797831869881528</v>
+        <v>-1.06</v>
       </c>
       <c r="E161" t="n">
-        <v>0.02342013575866305</v>
+        <v>1.736260345996534</v>
       </c>
       <c r="F161" t="n">
-        <v>0.04062974815985809</v>
+        <v>1.589649749495272</v>
       </c>
       <c r="G161" t="n">
-        <v>0.02631578947368421</v>
+        <v>49.724354</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>50.210266</v>
       </c>
       <c r="I161" t="n">
-        <v>0.07894736842105263</v>
+        <v>54.297398</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1578947368421053</v>
+        <v>56.73982</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>team_season_sp_pg_conceded</t>
+          <t>team_season_sp_pg</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>41.15149359886202</v>
+        <v>41.27567567567568</v>
       </c>
       <c r="C162" t="n">
-        <v>41.05405405405404</v>
+        <v>41.01303935514463</v>
       </c>
       <c r="D162" t="n">
-        <v>0.04085571617112736</v>
+        <v>0.64</v>
       </c>
       <c r="E162" t="n">
-        <v>2.759560233076935</v>
+        <v>3.341633011345783</v>
       </c>
       <c r="F162" t="n">
-        <v>2.438750853531297</v>
+        <v>3.003323430362971</v>
       </c>
       <c r="G162" t="n">
-        <v>37.8157894736842</v>
+        <v>37.5</v>
       </c>
       <c r="H162" t="n">
-        <v>35.9210526315789</v>
+        <v>36.1315789473684</v>
       </c>
       <c r="I162" t="n">
-        <v>45.2368421052632</v>
+        <v>44.6842105263158</v>
       </c>
       <c r="J162" t="n">
-        <v>45.3157894736842</v>
+        <v>49.3157894736842</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>team_season_corner_goal_ratio_conceded</t>
+          <t>team_season_op_shot_distance</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.02679638328574498</v>
+        <v>17.95167166464947</v>
       </c>
       <c r="C163" t="n">
-        <v>0.02645841167415137</v>
+        <v>17.8549112113794</v>
       </c>
       <c r="D163" t="n">
-        <v>0.03523349698261136</v>
+        <v>0.54</v>
       </c>
       <c r="E163" t="n">
-        <v>0.008719504486142933</v>
+        <v>0.5294865891259378</v>
       </c>
       <c r="F163" t="n">
-        <v>0.01047347528948383</v>
+        <v>0.7842019919404015</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0138888888888889</v>
+        <v>17.09114338580827</v>
       </c>
       <c r="H163" t="n">
-        <v>0.0113636363636364</v>
+        <v>15.44658078324681</v>
       </c>
       <c r="I163" t="n">
-        <v>0.0354609929078014</v>
+        <v>18.3810506305638</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0421052631578947</v>
+        <v>18.74434828484195</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>team_season_pressure_regains_pg</t>
+          <t>team_season_xg_per_free_kick_conceded</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>29.06159317211949</v>
+        <v>0.004387262087370712</v>
       </c>
       <c r="C164" t="n">
-        <v>29.1257942152679</v>
+        <v>0.004368480338237914</v>
       </c>
       <c r="D164" t="n">
-        <v>0.03225992248911353</v>
+        <v>0.43</v>
       </c>
       <c r="E164" t="n">
-        <v>2.913748361411263</v>
+        <v>0.001224056688626539</v>
       </c>
       <c r="F164" t="n">
-        <v>1.797541882737723</v>
+        <v>0.001148594298813558</v>
       </c>
       <c r="G164" t="n">
-        <v>25.97368421052632</v>
+        <v>0.0029354643784288</v>
       </c>
       <c r="H164" t="n">
-        <v>26.31578947368421</v>
+        <v>0.00206066557554828</v>
       </c>
       <c r="I164" t="n">
-        <v>33.13157894736842</v>
+        <v>0.00568023343749394</v>
       </c>
       <c r="J164" t="n">
-        <v>32.31578947368421</v>
+        <v>0.0067137669900368</v>
       </c>
     </row>
     <row r="165">
@@ -6036,13 +6035,13 @@
         <v>14.87719298245614</v>
       </c>
       <c r="D165" t="n">
-        <v>0.03198196730448712</v>
+        <v>-0.41</v>
       </c>
       <c r="E165" t="n">
-        <v>1.458119936577949</v>
+        <v>1.458119936577951</v>
       </c>
       <c r="F165" t="n">
-        <v>2.152470412065778</v>
+        <v>2.152470412065779</v>
       </c>
       <c r="G165" t="n">
         <v>12.71052631578947</v>
@@ -6060,205 +6059,205 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>team_season_direct_free_kick_xg_pg</t>
+          <t>team_season_np_shot_distance</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.02312928412664698</v>
+        <v>17.14551330328646</v>
       </c>
       <c r="C166" t="n">
-        <v>0.02275645298348549</v>
+        <v>17.19146074794059</v>
       </c>
       <c r="D166" t="n">
-        <v>0.03194769000268478</v>
+        <v>-0.27</v>
       </c>
       <c r="E166" t="n">
-        <v>0.005183971938096664</v>
+        <v>0.4655925139091887</v>
       </c>
       <c r="F166" t="n">
-        <v>0.01366901048957174</v>
+        <v>0.6542818421467309</v>
       </c>
       <c r="G166" t="n">
-        <v>0.01597081850233831</v>
+        <v>16.57532246907552</v>
       </c>
       <c r="H166" t="n">
-        <v>0.009466398752441532</v>
+        <v>15.60006788300305</v>
       </c>
       <c r="I166" t="n">
-        <v>0.02906770439113717</v>
+        <v>17.52408384342784</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04930974484274262</v>
+        <v>18.08949939738292</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>team_season_opposition_dribble_ratio</t>
+          <t>team_season_throw_ins_pg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.52158254</v>
+        <v>21.4348506401138</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5222464353333334</v>
+        <v>21.49032716927454</v>
       </c>
       <c r="D167" t="n">
-        <v>0.02730456429159234</v>
+        <v>-0.26</v>
       </c>
       <c r="E167" t="n">
-        <v>0.01923261295090319</v>
+        <v>2.325189683622564</v>
       </c>
       <c r="F167" t="n">
-        <v>0.02718011156599353</v>
+        <v>2.222413561882478</v>
       </c>
       <c r="G167" t="n">
-        <v>0.503888</v>
+        <v>18.62162162162162</v>
       </c>
       <c r="H167" t="n">
-        <v>0.49094567</v>
+        <v>19.02631578947368</v>
       </c>
       <c r="I167" t="n">
-        <v>0.55140185</v>
+        <v>24.39473684210526</v>
       </c>
       <c r="J167" t="n">
-        <v>0.58069885</v>
+        <v>27.68421052631579</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_ins_pg</t>
+          <t>team_season_sp_pg_conceded</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>21.4348506401138</v>
+        <v>41.15149359886202</v>
       </c>
       <c r="C168" t="n">
-        <v>21.49032716927454</v>
+        <v>41.05405405405404</v>
       </c>
       <c r="D168" t="n">
-        <v>0.02603853619852626</v>
+        <v>0.24</v>
       </c>
       <c r="E168" t="n">
-        <v>2.325189683622565</v>
+        <v>2.759560233076935</v>
       </c>
       <c r="F168" t="n">
-        <v>2.222413561882478</v>
+        <v>2.438750853531297</v>
       </c>
       <c r="G168" t="n">
-        <v>18.62162162162162</v>
+        <v>37.8157894736842</v>
       </c>
       <c r="H168" t="n">
-        <v>19.02631578947368</v>
+        <v>35.9210526315789</v>
       </c>
       <c r="I168" t="n">
-        <v>24.39473684210526</v>
+        <v>45.2368421052632</v>
       </c>
       <c r="J168" t="n">
-        <v>27.68421052631579</v>
+        <v>45.3157894736842</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_ins_conceded_pg</t>
+          <t>team_season_pressure_regains_pg</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>21.44466571834992</v>
+        <v>29.06159317211949</v>
       </c>
       <c r="C169" t="n">
-        <v>21.49155998103367</v>
+        <v>29.1257942152679</v>
       </c>
       <c r="D169" t="n">
-        <v>0.02240789620919353</v>
+        <v>-0.22</v>
       </c>
       <c r="E169" t="n">
-        <v>1.725801428199878</v>
+        <v>2.913748361411263</v>
       </c>
       <c r="F169" t="n">
-        <v>2.324877225344693</v>
+        <v>1.797541882737724</v>
       </c>
       <c r="G169" t="n">
-        <v>20.0789473684211</v>
+        <v>25.97368421052632</v>
       </c>
       <c r="H169" t="n">
-        <v>17.4473684210526</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="I169" t="n">
-        <v>24.4210526315789</v>
+        <v>33.13157894736842</v>
       </c>
       <c r="J169" t="n">
-        <v>27.5526315789474</v>
+        <v>32.31578947368421</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>team_season_xg_per_free_kick_conceded</t>
+          <t>team_season_throw_ins_conceded_pg</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.004387262087370712</v>
+        <v>21.44466571834992</v>
       </c>
       <c r="C170" t="n">
-        <v>0.004368480338237914</v>
+        <v>21.49155998103367</v>
       </c>
       <c r="D170" t="n">
-        <v>0.01698181978977709</v>
+        <v>-0.22</v>
       </c>
       <c r="E170" t="n">
-        <v>0.001224056688626539</v>
+        <v>1.725801428199878</v>
       </c>
       <c r="F170" t="n">
-        <v>0.001148594298813558</v>
+        <v>2.324877225344693</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0029354643784288</v>
+        <v>20.0789473684211</v>
       </c>
       <c r="H170" t="n">
-        <v>0.00206066557554828</v>
+        <v>17.4473684210526</v>
       </c>
       <c r="I170" t="n">
-        <v>0.00568023343749394</v>
+        <v>24.4210526315789</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0067137669900368</v>
+        <v>27.5526315789474</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>team_season_throw_in_goal_ratio</t>
+          <t>team_season_opposition_dribble_ratio</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0004545454545454545</v>
+        <v>0.52158254</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0004672995410099189</v>
+        <v>0.5222464353333334</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0163643335496696</v>
+        <v>-0.13</v>
       </c>
       <c r="E171" t="n">
-        <v>0.001016394535227177</v>
+        <v>0.01923261295090319</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0007566808014704117</v>
+        <v>0.02718011156599353</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>0.503888</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>0.49094567</v>
       </c>
       <c r="I171" t="n">
-        <v>0.002272727272727273</v>
+        <v>0.55140185</v>
       </c>
       <c r="J171" t="n">
-        <v>0.002466091245376079</v>
+        <v>0.58069885</v>
       </c>
     </row>
     <row r="172">
@@ -6274,7 +6273,7 @@
         <v>0.01052631578947368</v>
       </c>
       <c r="D172" t="n">
-        <v>2.960594732333751e-17</v>
+        <v>0</v>
       </c>
       <c r="E172" t="n">
         <v>0.02353755765789252</v>
